--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4729" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5569" uniqueCount="468">
   <si>
     <t>jira</t>
   </si>
@@ -1572,7 +1572,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="132" x14ac:knownFonts="1">
+  <fonts count="156" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2417,8 +2417,160 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="214">
+  <fills count="256">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3627,8 +3779,246 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="203">
+  <borders count="243">
     <border>
       <left/>
       <right/>
@@ -5606,6 +5996,394 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5613,7 +6391,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="182">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6071,40 +6849,112 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="195" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="195" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="198" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="198" fontId="122" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="201" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="201" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="204" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="204" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="207" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="202" fillId="207" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="207" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="202" fillId="207" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="210" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="210" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="213" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="213" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="210" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="210" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="216" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="133" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="134" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="222" fontId="136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="225" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="228" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="228" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="141" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="142" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="143" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="237" borderId="230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="240" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="243" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="246" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="249" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="249" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="252" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="255" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="252" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$31</definedName>
+    <definedName name="base">'#system'!$C$2:$C$32</definedName>
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5569" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5990" uniqueCount="470">
   <si>
     <t>jira</t>
   </si>
@@ -1566,13 +1566,19 @@
   <si>
     <t>assertBetween(num,min,max)</t>
   </si>
+  <si>
+    <t>clear(vars)</t>
+  </si>
+  <si>
+    <t>send(profile,to,subject,body)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="156" x14ac:knownFonts="1">
+  <fonts count="168" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2569,8 +2575,84 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="256">
+  <fills count="277">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4017,8 +4099,127 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="243">
+  <borders count="263">
     <border>
       <left/>
       <right/>
@@ -6384,6 +6585,200 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6391,7 +6786,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="194">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6921,40 +7316,76 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="237" borderId="230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="230" fillId="237" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="240" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="240" fontId="146" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="243" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="243" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="246" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="246" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="249" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="249" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="249" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="249" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="252" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="252" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="255" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="255" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="252" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="252" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="258" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="264" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="267" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="270" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="270" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="276" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7426,7 +7857,7 @@
         <v>89</v>
       </c>
       <c r="L2" t="s">
-        <v>201</v>
+        <v>469</v>
       </c>
       <c r="M2" t="s">
         <v>467</v>
@@ -8012,7 +8443,7 @@
         <v>455</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>468</v>
       </c>
       <c r="E16" t="s">
         <v>322</v>
@@ -8035,7 +8466,7 @@
         <v>372</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
         <v>92</v>
@@ -8052,7 +8483,7 @@
         <v>451</v>
       </c>
       <c r="C18" t="s">
-        <v>261</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
         <v>93</v>
@@ -8069,7 +8500,7 @@
         <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>261</v>
       </c>
       <c r="E19" t="s">
         <v>301</v>
@@ -8086,7 +8517,7 @@
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>326</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
         <v>302</v>
@@ -8103,7 +8534,7 @@
         <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>326</v>
       </c>
       <c r="E21" t="s">
         <v>303</v>
@@ -8120,7 +8551,7 @@
         <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>230</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
         <v>304</v>
@@ -8134,7 +8565,7 @@
         <v>232</v>
       </c>
       <c r="C23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E23" t="s">
         <v>295</v>
@@ -8145,7 +8576,7 @@
     </row>
     <row r="24">
       <c r="C24" t="s">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="E24" t="s">
         <v>284</v>
@@ -8156,7 +8587,7 @@
     </row>
     <row r="25">
       <c r="C25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
         <v>79</v>
@@ -8167,7 +8598,7 @@
     </row>
     <row r="26">
       <c r="C26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
         <v>287</v>
@@ -8178,7 +8609,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
         <v>271</v>
@@ -8189,7 +8620,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" t="s">
         <v>288</v>
@@ -8200,7 +8631,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
         <v>289</v>
@@ -8211,7 +8642,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" t="s">
         <v>221</v>
@@ -8222,7 +8653,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" t="s">
         <v>280</v>
@@ -8232,6 +8663,9 @@
       </c>
     </row>
     <row r="32">
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
       <c r="E32" t="s">
         <v>290</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -35,16 +35,17 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$M$2:$M$14</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
-    <definedName name="ssh">'#system'!$Q$2:$Q$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$23</definedName>
-    <definedName name="web">'#system'!$S$2:$S$108</definedName>
-    <definedName name="webalert">'#system'!$T$2:$T$6</definedName>
-    <definedName name="webcookie">'#system'!$U$2:$U$8</definedName>
-    <definedName name="ws">'#system'!$V$2:$V$16</definedName>
-    <definedName name="xml">'#system'!$W$2:$W$11</definedName>
-    <definedName name="step">'#system'!$R$2:$R$4</definedName>
+    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
+    <definedName name="ssh">'#system'!$R$2:$R$9</definedName>
+    <definedName name="target">'#system'!$A$2:$A$24</definedName>
+    <definedName name="web">'#system'!$T$2:$T$108</definedName>
+    <definedName name="webalert">'#system'!$U$2:$U$6</definedName>
+    <definedName name="webcookie">'#system'!$V$2:$V$8</definedName>
+    <definedName name="ws">'#system'!$W$2:$W$16</definedName>
+    <definedName name="xml">'#system'!$X$2:$X$11</definedName>
+    <definedName name="step">'#system'!$S$2:$S$4</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
+    <definedName name="sound">'#system'!$Q$2:$Q$6</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5990" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7275" uniqueCount="478">
   <si>
     <t>jira</t>
   </si>
@@ -1572,13 +1573,37 @@
   <si>
     <t>send(profile,to,subject,body)</t>
   </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>saveResults(db,sqls,outputDir)</t>
+  </si>
+  <si>
+    <t>lazer(repeats)</t>
+  </si>
+  <si>
+    <t>play(audio)</t>
+  </si>
+  <si>
+    <t>speak(profile,text)</t>
+  </si>
+  <si>
+    <t>warp(repeats)</t>
+  </si>
+  <si>
+    <t>speak(text)</t>
+  </si>
+  <si>
+    <t>speakNoWait(text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="168" x14ac:knownFonts="1">
+  <fonts count="204" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2651,8 +2676,236 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="277">
+  <fills count="340">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4218,8 +4471,365 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="263">
+  <borders count="323">
     <border>
       <left/>
       <right/>
@@ -6779,6 +7389,588 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6786,7 +7978,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="230">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7352,40 +8544,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="258" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="258" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="158" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="264" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="264" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="267" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="267" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="270" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="270" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="270" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="270" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="276" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="276" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="279" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="282" fontId="170" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="285" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="288" fontId="173" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="291" fontId="174" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="291" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="294" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="177" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="294" fontId="178" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="300" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="303" fontId="182" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="306" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="309" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="312" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="312" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="318" fontId="189" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="190" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="191" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="321" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="327" borderId="314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="330" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="333" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="333" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="336" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="336" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7740,7 +9040,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X108"/>
+  <dimension ref="A1:Y108"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7801,24 +9101,27 @@
         <v>455</v>
       </c>
       <c r="Q1" t="s">
+        <v>470</v>
+      </c>
+      <c r="R1" t="s">
         <v>372</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>451</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>57</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>58</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>59</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>60</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -7872,24 +9175,27 @@
         <v>456</v>
       </c>
       <c r="Q2" t="s">
+        <v>472</v>
+      </c>
+      <c r="R2" t="s">
         <v>396</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>452</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>100</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>175</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>180</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>187</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>233</v>
       </c>
     </row>
@@ -7940,24 +9246,27 @@
         <v>457</v>
       </c>
       <c r="Q3" t="s">
+        <v>473</v>
+      </c>
+      <c r="R3" t="s">
         <v>397</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>453</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>101</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>176</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>181</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>379</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>234</v>
       </c>
     </row>
@@ -8005,24 +9314,27 @@
         <v>458</v>
       </c>
       <c r="Q4" t="s">
+        <v>476</v>
+      </c>
+      <c r="R4" t="s">
         <v>373</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>454</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>365</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>177</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>182</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>188</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>235</v>
       </c>
     </row>
@@ -8064,21 +9376,24 @@
         <v>459</v>
       </c>
       <c r="Q5" t="s">
+        <v>477</v>
+      </c>
+      <c r="R5" t="s">
         <v>374</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>366</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>178</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>183</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>189</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>236</v>
       </c>
     </row>
@@ -8117,21 +9432,24 @@
         <v>460</v>
       </c>
       <c r="Q6" t="s">
+        <v>475</v>
+      </c>
+      <c r="R6" t="s">
         <v>376</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>102</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>179</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>184</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>190</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>237</v>
       </c>
     </row>
@@ -8163,22 +9481,25 @@
       <c r="N7" t="s">
         <v>249</v>
       </c>
+      <c r="O7" t="s">
+        <v>471</v>
+      </c>
       <c r="P7" t="s">
         <v>461</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>375</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>103</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>185</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>191</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>238</v>
       </c>
     </row>
@@ -8213,19 +9534,19 @@
       <c r="P8" t="s">
         <v>462</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>377</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>104</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>186</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>192</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>239</v>
       </c>
     </row>
@@ -8257,16 +9578,16 @@
       <c r="P9" t="s">
         <v>463</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>378</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>214</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>193</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>240</v>
       </c>
     </row>
@@ -8295,13 +9616,13 @@
       <c r="P10" t="s">
         <v>464</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>262</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>194</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>241</v>
       </c>
     </row>
@@ -8327,13 +9648,13 @@
       <c r="N11" t="s">
         <v>253</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>263</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>264</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>242</v>
       </c>
     </row>
@@ -8356,10 +9677,10 @@
       <c r="N12" t="s">
         <v>254</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>105</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>195</v>
       </c>
     </row>
@@ -8382,10 +9703,10 @@
       <c r="N13" t="s">
         <v>259</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>331</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>196</v>
       </c>
     </row>
@@ -8408,10 +9729,10 @@
       <c r="N14" t="s">
         <v>255</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>106</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>197</v>
       </c>
     </row>
@@ -8431,10 +9752,10 @@
       <c r="N15" t="s">
         <v>256</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>107</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>198</v>
       </c>
     </row>
@@ -8454,16 +9775,16 @@
       <c r="N16" t="s">
         <v>257</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>78</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>372</v>
+        <v>470</v>
       </c>
       <c r="C17" t="s">
         <v>63</v>
@@ -8474,13 +9795,13 @@
       <c r="I17" t="s">
         <v>46</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>451</v>
+        <v>372</v>
       </c>
       <c r="C18" t="s">
         <v>64</v>
@@ -8491,13 +9812,13 @@
       <c r="I18" t="s">
         <v>442</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>451</v>
       </c>
       <c r="C19" t="s">
         <v>261</v>
@@ -8508,13 +9829,13 @@
       <c r="I19" t="s">
         <v>88</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
         <v>65</v>
@@ -8525,13 +9846,13 @@
       <c r="I20" t="s">
         <v>47</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
         <v>326</v>
@@ -8542,13 +9863,13 @@
       <c r="I21" t="s">
         <v>48</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
         <v>66</v>
@@ -8556,13 +9877,13 @@
       <c r="E22" t="s">
         <v>304</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
         <v>230</v>
@@ -8570,18 +9891,21 @@
       <c r="E23" t="s">
         <v>295</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="s">
+        <v>232</v>
+      </c>
       <c r="C24" t="s">
         <v>231</v>
       </c>
       <c r="E24" t="s">
         <v>284</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>115</v>
       </c>
     </row>
@@ -8592,7 +9916,7 @@
       <c r="E25" t="s">
         <v>79</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>116</v>
       </c>
     </row>
@@ -8603,7 +9927,7 @@
       <c r="E26" t="s">
         <v>287</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>117</v>
       </c>
     </row>
@@ -8614,7 +9938,7 @@
       <c r="E27" t="s">
         <v>271</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>332</v>
       </c>
     </row>
@@ -8625,7 +9949,7 @@
       <c r="E28" t="s">
         <v>288</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>118</v>
       </c>
     </row>
@@ -8636,7 +9960,7 @@
       <c r="E29" t="s">
         <v>289</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>119</v>
       </c>
     </row>
@@ -8647,7 +9971,7 @@
       <c r="E30" t="s">
         <v>221</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>120</v>
       </c>
     </row>
@@ -8658,7 +9982,7 @@
       <c r="E31" t="s">
         <v>280</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8669,7 +9993,7 @@
       <c r="E32" t="s">
         <v>290</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
         <v>122</v>
       </c>
     </row>
@@ -8677,7 +10001,7 @@
       <c r="E33" t="s">
         <v>265</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>123</v>
       </c>
     </row>
@@ -8685,7 +10009,7 @@
       <c r="E34" t="s">
         <v>335</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>215</v>
       </c>
     </row>
@@ -8693,7 +10017,7 @@
       <c r="E35" t="s">
         <v>312</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>124</v>
       </c>
     </row>
@@ -8701,7 +10025,7 @@
       <c r="E36" t="s">
         <v>266</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>343</v>
       </c>
     </row>
@@ -8709,7 +10033,7 @@
       <c r="E37" t="s">
         <v>313</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>443</v>
       </c>
     </row>
@@ -8717,7 +10041,7 @@
       <c r="E38" t="s">
         <v>272</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>125</v>
       </c>
     </row>
@@ -8725,7 +10049,7 @@
       <c r="E39" t="s">
         <v>81</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>126</v>
       </c>
     </row>
@@ -8733,7 +10057,7 @@
       <c r="E40" t="s">
         <v>217</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>127</v>
       </c>
     </row>
@@ -8741,7 +10065,7 @@
       <c r="E41" t="s">
         <v>294</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
         <v>128</v>
       </c>
     </row>
@@ -8749,7 +10073,7 @@
       <c r="E42" t="s">
         <v>305</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>129</v>
       </c>
     </row>
@@ -8757,7 +10081,7 @@
       <c r="E43" t="s">
         <v>306</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>130</v>
       </c>
     </row>
@@ -8765,7 +10089,7 @@
       <c r="E44" t="s">
         <v>348</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>218</v>
       </c>
     </row>
@@ -8773,7 +10097,7 @@
       <c r="E45" t="s">
         <v>347</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>80</v>
       </c>
     </row>
@@ -8781,7 +10105,7 @@
       <c r="E46" t="s">
         <v>216</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>131</v>
       </c>
     </row>
@@ -8789,7 +10113,7 @@
       <c r="E47" t="s">
         <v>325</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>132</v>
       </c>
     </row>
@@ -8797,7 +10121,7 @@
       <c r="E48" t="s">
         <v>344</v>
       </c>
-      <c r="S48" t="s">
+      <c r="T48" t="s">
         <v>133</v>
       </c>
     </row>
@@ -8805,7 +10129,7 @@
       <c r="E49" t="s">
         <v>383</v>
       </c>
-      <c r="S49" t="s">
+      <c r="T49" t="s">
         <v>134</v>
       </c>
     </row>
@@ -8813,7 +10137,7 @@
       <c r="E50" t="s">
         <v>307</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
         <v>357</v>
       </c>
     </row>
@@ -8821,7 +10145,7 @@
       <c r="E51" t="s">
         <v>369</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" t="s">
         <v>135</v>
       </c>
     </row>
@@ -8829,7 +10153,7 @@
       <c r="E52" t="s">
         <v>336</v>
       </c>
-      <c r="S52" t="s">
+      <c r="T52" t="s">
         <v>136</v>
       </c>
     </row>
@@ -8837,7 +10161,7 @@
       <c r="E53" t="s">
         <v>273</v>
       </c>
-      <c r="S53" t="s">
+      <c r="T53" t="s">
         <v>137</v>
       </c>
     </row>
@@ -8845,7 +10169,7 @@
       <c r="E54" t="s">
         <v>297</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>138</v>
       </c>
     </row>
@@ -8853,7 +10177,7 @@
       <c r="E55" t="s">
         <v>298</v>
       </c>
-      <c r="S55" t="s">
+      <c r="T55" t="s">
         <v>139</v>
       </c>
     </row>
@@ -8861,7 +10185,7 @@
       <c r="E56" t="s">
         <v>299</v>
       </c>
-      <c r="S56" t="s">
+      <c r="T56" t="s">
         <v>140</v>
       </c>
     </row>
@@ -8869,7 +10193,7 @@
       <c r="E57" t="s">
         <v>308</v>
       </c>
-      <c r="S57" t="s">
+      <c r="T57" t="s">
         <v>141</v>
       </c>
     </row>
@@ -8877,7 +10201,7 @@
       <c r="E58" t="s">
         <v>317</v>
       </c>
-      <c r="S58" t="s">
+      <c r="T58" t="s">
         <v>219</v>
       </c>
     </row>
@@ -8885,7 +10209,7 @@
       <c r="E59" t="s">
         <v>342</v>
       </c>
-      <c r="S59" t="s">
+      <c r="T59" t="s">
         <v>423</v>
       </c>
     </row>
@@ -8893,7 +10217,7 @@
       <c r="E60" t="s">
         <v>314</v>
       </c>
-      <c r="S60" t="s">
+      <c r="T60" t="s">
         <v>142</v>
       </c>
     </row>
@@ -8901,7 +10225,7 @@
       <c r="E61" t="s">
         <v>315</v>
       </c>
-      <c r="S61" t="s">
+      <c r="T61" t="s">
         <v>143</v>
       </c>
     </row>
@@ -8909,7 +10233,7 @@
       <c r="E62" t="s">
         <v>384</v>
       </c>
-      <c r="S62" t="s">
+      <c r="T62" t="s">
         <v>144</v>
       </c>
     </row>
@@ -8917,7 +10241,7 @@
       <c r="E63" t="s">
         <v>385</v>
       </c>
-      <c r="S63" t="s">
+      <c r="T63" t="s">
         <v>145</v>
       </c>
     </row>
@@ -8925,7 +10249,7 @@
       <c r="E64" t="s">
         <v>350</v>
       </c>
-      <c r="S64" t="s">
+      <c r="T64" t="s">
         <v>202</v>
       </c>
     </row>
@@ -8933,7 +10257,7 @@
       <c r="E65" t="s">
         <v>318</v>
       </c>
-      <c r="S65" t="s">
+      <c r="T65" t="s">
         <v>203</v>
       </c>
     </row>
@@ -8941,7 +10265,7 @@
       <c r="E66" t="s">
         <v>274</v>
       </c>
-      <c r="S66" t="s">
+      <c r="T66" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8949,7 +10273,7 @@
       <c r="E67" t="s">
         <v>364</v>
       </c>
-      <c r="S67" t="s">
+      <c r="T67" t="s">
         <v>147</v>
       </c>
     </row>
@@ -8957,7 +10281,7 @@
       <c r="E68" t="s">
         <v>319</v>
       </c>
-      <c r="S68" t="s">
+      <c r="T68" t="s">
         <v>148</v>
       </c>
     </row>
@@ -8965,7 +10289,7 @@
       <c r="E69" t="s">
         <v>465</v>
       </c>
-      <c r="S69" t="s">
+      <c r="T69" t="s">
         <v>149</v>
       </c>
     </row>
@@ -8973,7 +10297,7 @@
       <c r="E70" t="s">
         <v>309</v>
       </c>
-      <c r="S70" t="s">
+      <c r="T70" t="s">
         <v>150</v>
       </c>
     </row>
@@ -8981,7 +10305,7 @@
       <c r="E71" t="s">
         <v>466</v>
       </c>
-      <c r="S71" t="s">
+      <c r="T71" t="s">
         <v>204</v>
       </c>
     </row>
@@ -8989,7 +10313,7 @@
       <c r="E72" t="s">
         <v>267</v>
       </c>
-      <c r="S72" t="s">
+      <c r="T72" t="s">
         <v>205</v>
       </c>
     </row>
@@ -8997,7 +10321,7 @@
       <c r="E73" t="s">
         <v>349</v>
       </c>
-      <c r="S73" t="s">
+      <c r="T73" t="s">
         <v>206</v>
       </c>
     </row>
@@ -9005,7 +10329,7 @@
       <c r="E74" t="s">
         <v>285</v>
       </c>
-      <c r="S74" t="s">
+      <c r="T74" t="s">
         <v>207</v>
       </c>
     </row>
@@ -9013,7 +10337,7 @@
       <c r="E75" t="s">
         <v>291</v>
       </c>
-      <c r="S75" t="s">
+      <c r="T75" t="s">
         <v>220</v>
       </c>
     </row>
@@ -9021,7 +10345,7 @@
       <c r="E76" t="s">
         <v>296</v>
       </c>
-      <c r="S76" t="s">
+      <c r="T76" t="s">
         <v>151</v>
       </c>
     </row>
@@ -9029,7 +10353,7 @@
       <c r="E77" t="s">
         <v>337</v>
       </c>
-      <c r="S77" t="s">
+      <c r="T77" t="s">
         <v>208</v>
       </c>
     </row>
@@ -9037,7 +10361,7 @@
       <c r="E78" t="s">
         <v>275</v>
       </c>
-      <c r="S78" t="s">
+      <c r="T78" t="s">
         <v>152</v>
       </c>
     </row>
@@ -9045,7 +10369,7 @@
       <c r="E79" t="s">
         <v>286</v>
       </c>
-      <c r="S79" t="s">
+      <c r="T79" t="s">
         <v>209</v>
       </c>
     </row>
@@ -9053,7 +10377,7 @@
       <c r="E80" t="s">
         <v>292</v>
       </c>
-      <c r="S80" t="s">
+      <c r="T80" t="s">
         <v>210</v>
       </c>
     </row>
@@ -9061,7 +10385,7 @@
       <c r="E81" t="s">
         <v>281</v>
       </c>
-      <c r="S81" t="s">
+      <c r="T81" t="s">
         <v>211</v>
       </c>
     </row>
@@ -9069,7 +10393,7 @@
       <c r="E82" t="s">
         <v>276</v>
       </c>
-      <c r="S82" t="s">
+      <c r="T82" t="s">
         <v>212</v>
       </c>
     </row>
@@ -9077,7 +10401,7 @@
       <c r="E83" t="s">
         <v>293</v>
       </c>
-      <c r="S83" t="s">
+      <c r="T83" t="s">
         <v>228</v>
       </c>
     </row>
@@ -9085,7 +10409,7 @@
       <c r="E84" t="s">
         <v>277</v>
       </c>
-      <c r="S84" t="s">
+      <c r="T84" t="s">
         <v>213</v>
       </c>
     </row>
@@ -9093,7 +10417,7 @@
       <c r="E85" t="s">
         <v>278</v>
       </c>
-      <c r="S85" t="s">
+      <c r="T85" t="s">
         <v>153</v>
       </c>
     </row>
@@ -9101,7 +10425,7 @@
       <c r="E86" t="s">
         <v>310</v>
       </c>
-      <c r="S86" t="s">
+      <c r="T86" t="s">
         <v>398</v>
       </c>
     </row>
@@ -9109,7 +10433,7 @@
       <c r="E87" t="s">
         <v>316</v>
       </c>
-      <c r="S87" t="s">
+      <c r="T87" t="s">
         <v>154</v>
       </c>
     </row>
@@ -9117,7 +10441,7 @@
       <c r="E88" t="s">
         <v>300</v>
       </c>
-      <c r="S88" t="s">
+      <c r="T88" t="s">
         <v>155</v>
       </c>
     </row>
@@ -9125,7 +10449,7 @@
       <c r="E89" t="s">
         <v>345</v>
       </c>
-      <c r="S89" t="s">
+      <c r="T89" t="s">
         <v>156</v>
       </c>
     </row>
@@ -9133,7 +10457,7 @@
       <c r="E90" t="s">
         <v>282</v>
       </c>
-      <c r="S90" t="s">
+      <c r="T90" t="s">
         <v>157</v>
       </c>
     </row>
@@ -9141,92 +10465,92 @@
       <c r="E91" t="s">
         <v>283</v>
       </c>
-      <c r="S91" t="s">
+      <c r="T91" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="92">
-      <c r="S92" t="s">
+      <c r="T92" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="93">
-      <c r="S93" t="s">
+      <c r="T93" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="94">
-      <c r="S94" t="s">
+      <c r="T94" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="95">
-      <c r="S95" t="s">
+      <c r="T95" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="96">
-      <c r="S96" t="s">
+      <c r="T96" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="97">
-      <c r="S97" t="s">
+      <c r="T97" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="98">
-      <c r="S98" t="s">
+      <c r="T98" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="99">
-      <c r="S99" t="s">
+      <c r="T99" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="100">
-      <c r="S100" t="s">
+      <c r="T100" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="101">
-      <c r="S101" t="s">
+      <c r="T101" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="102">
-      <c r="S102" t="s">
+      <c r="T102" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="103">
-      <c r="S103" t="s">
+      <c r="T103" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="104">
-      <c r="S104" t="s">
+      <c r="T104" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="105">
-      <c r="S105" t="s">
+      <c r="T105" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="106">
-      <c r="S106" t="s">
+      <c r="T106" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="107">
-      <c r="S107" t="s">
+      <c r="T107" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="108">
-      <c r="S108" t="s">
+      <c r="T108" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$32</definedName>
+    <definedName name="base">'#system'!$C$2:$C$33</definedName>
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -45,7 +45,7 @@
     <definedName name="xml">'#system'!$X$2:$X$11</definedName>
     <definedName name="step">'#system'!$S$2:$S$4</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sound">'#system'!$Q$2:$Q$6</definedName>
+    <definedName name="sound">'#system'!$Q$2:$Q$5</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7275" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7704" uniqueCount="480">
   <si>
     <t>jira</t>
   </si>
@@ -1597,13 +1597,19 @@
   <si>
     <t>speakNoWait(text)</t>
   </si>
+  <si>
+    <t>section(steps)</t>
+  </si>
+  <si>
+    <t>laser(repeats)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="204" x14ac:knownFonts="1">
+  <fonts count="219" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2904,8 +2910,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="340">
+  <fills count="367">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4828,8 +4928,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="323">
+  <borders count="351">
     <border>
       <left/>
       <right/>
@@ -7971,6 +8224,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7978,7 +8513,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="245">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8652,40 +9187,85 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="321" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="321" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="193" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="194" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="327" borderId="314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="314" fillId="327" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="330" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="330" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="333" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="333" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="333" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="333" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="336" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="336" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="336" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="336" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="342" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="345" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="348" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="354" borderId="342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="357" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="360" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="360" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="363" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="363" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9175,7 +9755,7 @@
         <v>456</v>
       </c>
       <c r="Q2" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="R2" t="s">
         <v>396</v>
@@ -9431,9 +10011,6 @@
       <c r="P6" t="s">
         <v>460</v>
       </c>
-      <c r="Q6" t="s">
-        <v>475</v>
-      </c>
       <c r="R6" t="s">
         <v>376</v>
       </c>
@@ -9911,7 +10488,7 @@
     </row>
     <row r="25">
       <c r="C25" t="s">
-        <v>67</v>
+        <v>478</v>
       </c>
       <c r="E25" t="s">
         <v>79</v>
@@ -9922,7 +10499,7 @@
     </row>
     <row r="26">
       <c r="C26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
         <v>287</v>
@@ -9933,7 +10510,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
         <v>271</v>
@@ -9944,7 +10521,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" t="s">
         <v>288</v>
@@ -9955,7 +10532,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" t="s">
         <v>289</v>
@@ -9966,7 +10543,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" t="s">
         <v>221</v>
@@ -9977,7 +10554,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E31" t="s">
         <v>280</v>
@@ -9988,7 +10565,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E32" t="s">
         <v>290</v>
@@ -9998,6 +10575,9 @@
       </c>
     </row>
     <row r="33">
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
       <c r="E33" t="s">
         <v>265</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -36,16 +36,18 @@
     <definedName name="number">'#system'!$M$2:$M$14</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="ssh">'#system'!$R$2:$R$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$24</definedName>
-    <definedName name="web">'#system'!$T$2:$T$108</definedName>
-    <definedName name="webalert">'#system'!$U$2:$U$6</definedName>
-    <definedName name="webcookie">'#system'!$V$2:$V$8</definedName>
-    <definedName name="ws">'#system'!$W$2:$W$16</definedName>
-    <definedName name="xml">'#system'!$X$2:$X$11</definedName>
-    <definedName name="step">'#system'!$S$2:$S$4</definedName>
+    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
+    <definedName name="target">'#system'!$A$2:$A$26</definedName>
+    <definedName name="web">'#system'!$U$2:$U$108</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
+    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sound">'#system'!$Q$2:$Q$5</definedName>
+    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
+    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="ws.async">'#system'!$Y$2:$Y$7</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -60,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7704" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8576" uniqueCount="488">
   <si>
     <t>jira</t>
   </si>
@@ -1603,13 +1605,37 @@
   <si>
     <t>laser(repeats)</t>
   </si>
+  <si>
+    <t>sms</t>
+  </si>
+  <si>
+    <t>sendText(phones,text)</t>
+  </si>
+  <si>
+    <t>ws.async</t>
+  </si>
+  <si>
+    <t>get(url,queryString,output)</t>
+  </si>
+  <si>
+    <t>head(url,output)</t>
+  </si>
+  <si>
+    <t>patch(url,body,output)</t>
+  </si>
+  <si>
+    <t>post(url,body,output)</t>
+  </si>
+  <si>
+    <t>put(url,body,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="219" x14ac:knownFonts="1">
+  <fonts count="249" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3004,8 +3030,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="367">
+  <fills count="421">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5081,8 +5295,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="351">
+  <borders count="407">
     <border>
       <left/>
       <right/>
@@ -8506,6 +9026,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8513,7 +9597,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="245">
+  <cellXfs count="275">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9223,49 +10307,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="342" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="342" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="345" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="345" fontId="206" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="348" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="348" fontId="207" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="208" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="209" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="354" borderId="342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="342" fillId="354" fontId="211" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="357" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="357" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="360" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="360" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="360" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="360" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="363" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="363" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="363" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="363" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="369" fontId="219" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="372" fontId="221" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="375" fontId="222" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="223" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="224" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="225" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="370" fillId="381" fontId="226" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="384" fontId="227" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="387" fontId="228" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="387" fontId="229" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="390" fontId="230" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="231" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="390" fontId="232" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="233" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="396" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="399" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="402" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="408" borderId="398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="411" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="414" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="414" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="417" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="417" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9620,7 +10794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y108"/>
+  <dimension ref="A1:AA108"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9681,27 +10855,33 @@
         <v>455</v>
       </c>
       <c r="Q1" t="s">
+        <v>480</v>
+      </c>
+      <c r="R1" t="s">
         <v>470</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>372</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>451</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>57</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>58</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>59</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>60</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -9755,27 +10935,33 @@
         <v>456</v>
       </c>
       <c r="Q2" t="s">
+        <v>481</v>
+      </c>
+      <c r="R2" t="s">
         <v>479</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>396</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>452</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>100</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>175</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>180</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>187</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z2" t="s">
         <v>233</v>
       </c>
     </row>
@@ -9825,28 +11011,31 @@
       <c r="P3" t="s">
         <v>457</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>473</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>397</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>453</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>101</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>176</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>181</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>379</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
+        <v>483</v>
+      </c>
+      <c r="Z3" t="s">
         <v>234</v>
       </c>
     </row>
@@ -9893,28 +11082,31 @@
       <c r="P4" t="s">
         <v>458</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>476</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>373</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>454</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>365</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>177</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>182</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>188</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
+        <v>484</v>
+      </c>
+      <c r="Z4" t="s">
         <v>235</v>
       </c>
     </row>
@@ -9955,25 +11147,28 @@
       <c r="P5" t="s">
         <v>459</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>477</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>374</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>366</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>178</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>183</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>189</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
+        <v>485</v>
+      </c>
+      <c r="Z5" t="s">
         <v>236</v>
       </c>
     </row>
@@ -10011,22 +11206,25 @@
       <c r="P6" t="s">
         <v>460</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>376</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>102</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>179</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>184</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>190</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
+        <v>486</v>
+      </c>
+      <c r="Z6" t="s">
         <v>237</v>
       </c>
     </row>
@@ -10064,19 +11262,22 @@
       <c r="P7" t="s">
         <v>461</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>375</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>103</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>185</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>191</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
+        <v>487</v>
+      </c>
+      <c r="Z7" t="s">
         <v>238</v>
       </c>
     </row>
@@ -10111,19 +11312,19 @@
       <c r="P8" t="s">
         <v>462</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>377</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>104</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>186</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>192</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Z8" t="s">
         <v>239</v>
       </c>
     </row>
@@ -10155,16 +11356,16 @@
       <c r="P9" t="s">
         <v>463</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>378</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>214</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>193</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Z9" t="s">
         <v>240</v>
       </c>
     </row>
@@ -10193,13 +11394,13 @@
       <c r="P10" t="s">
         <v>464</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>262</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>194</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Z10" t="s">
         <v>241</v>
       </c>
     </row>
@@ -10225,13 +11426,13 @@
       <c r="N11" t="s">
         <v>253</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>263</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>264</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Z11" t="s">
         <v>242</v>
       </c>
     </row>
@@ -10254,10 +11455,10 @@
       <c r="N12" t="s">
         <v>254</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>105</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>195</v>
       </c>
     </row>
@@ -10280,10 +11481,10 @@
       <c r="N13" t="s">
         <v>259</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>331</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>196</v>
       </c>
     </row>
@@ -10306,10 +11507,10 @@
       <c r="N14" t="s">
         <v>255</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>106</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>197</v>
       </c>
     </row>
@@ -10329,10 +11530,10 @@
       <c r="N15" t="s">
         <v>256</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>107</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>198</v>
       </c>
     </row>
@@ -10352,16 +11553,16 @@
       <c r="N16" t="s">
         <v>257</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>78</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="C17" t="s">
         <v>63</v>
@@ -10372,13 +11573,13 @@
       <c r="I17" t="s">
         <v>46</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>372</v>
+        <v>470</v>
       </c>
       <c r="C18" t="s">
         <v>64</v>
@@ -10389,13 +11590,13 @@
       <c r="I18" t="s">
         <v>442</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>451</v>
+        <v>372</v>
       </c>
       <c r="C19" t="s">
         <v>261</v>
@@ -10406,13 +11607,13 @@
       <c r="I19" t="s">
         <v>88</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>451</v>
       </c>
       <c r="C20" t="s">
         <v>65</v>
@@ -10423,13 +11624,13 @@
       <c r="I20" t="s">
         <v>47</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
         <v>326</v>
@@ -10440,13 +11641,13 @@
       <c r="I21" t="s">
         <v>48</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
         <v>66</v>
@@ -10454,13 +11655,13 @@
       <c r="E22" t="s">
         <v>304</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
         <v>230</v>
@@ -10468,13 +11669,13 @@
       <c r="E23" t="s">
         <v>295</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
         <v>231</v>
@@ -10482,29 +11683,35 @@
       <c r="E24" t="s">
         <v>284</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="s">
+        <v>482</v>
+      </c>
       <c r="C25" t="s">
         <v>478</v>
       </c>
       <c r="E25" t="s">
         <v>79</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="s">
+        <v>232</v>
+      </c>
       <c r="C26" t="s">
         <v>67</v>
       </c>
       <c r="E26" t="s">
         <v>287</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>117</v>
       </c>
     </row>
@@ -10515,7 +11722,7 @@
       <c r="E27" t="s">
         <v>271</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>332</v>
       </c>
     </row>
@@ -10526,7 +11733,7 @@
       <c r="E28" t="s">
         <v>288</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>118</v>
       </c>
     </row>
@@ -10537,7 +11744,7 @@
       <c r="E29" t="s">
         <v>289</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>119</v>
       </c>
     </row>
@@ -10548,7 +11755,7 @@
       <c r="E30" t="s">
         <v>221</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>120</v>
       </c>
     </row>
@@ -10559,7 +11766,7 @@
       <c r="E31" t="s">
         <v>280</v>
       </c>
-      <c r="T31" t="s">
+      <c r="U31" t="s">
         <v>121</v>
       </c>
     </row>
@@ -10570,7 +11777,7 @@
       <c r="E32" t="s">
         <v>290</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>122</v>
       </c>
     </row>
@@ -10581,7 +11788,7 @@
       <c r="E33" t="s">
         <v>265</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>123</v>
       </c>
     </row>
@@ -10589,7 +11796,7 @@
       <c r="E34" t="s">
         <v>335</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10597,7 +11804,7 @@
       <c r="E35" t="s">
         <v>312</v>
       </c>
-      <c r="T35" t="s">
+      <c r="U35" t="s">
         <v>124</v>
       </c>
     </row>
@@ -10605,7 +11812,7 @@
       <c r="E36" t="s">
         <v>266</v>
       </c>
-      <c r="T36" t="s">
+      <c r="U36" t="s">
         <v>343</v>
       </c>
     </row>
@@ -10613,7 +11820,7 @@
       <c r="E37" t="s">
         <v>313</v>
       </c>
-      <c r="T37" t="s">
+      <c r="U37" t="s">
         <v>443</v>
       </c>
     </row>
@@ -10621,7 +11828,7 @@
       <c r="E38" t="s">
         <v>272</v>
       </c>
-      <c r="T38" t="s">
+      <c r="U38" t="s">
         <v>125</v>
       </c>
     </row>
@@ -10629,7 +11836,7 @@
       <c r="E39" t="s">
         <v>81</v>
       </c>
-      <c r="T39" t="s">
+      <c r="U39" t="s">
         <v>126</v>
       </c>
     </row>
@@ -10637,7 +11844,7 @@
       <c r="E40" t="s">
         <v>217</v>
       </c>
-      <c r="T40" t="s">
+      <c r="U40" t="s">
         <v>127</v>
       </c>
     </row>
@@ -10645,7 +11852,7 @@
       <c r="E41" t="s">
         <v>294</v>
       </c>
-      <c r="T41" t="s">
+      <c r="U41" t="s">
         <v>128</v>
       </c>
     </row>
@@ -10653,7 +11860,7 @@
       <c r="E42" t="s">
         <v>305</v>
       </c>
-      <c r="T42" t="s">
+      <c r="U42" t="s">
         <v>129</v>
       </c>
     </row>
@@ -10661,7 +11868,7 @@
       <c r="E43" t="s">
         <v>306</v>
       </c>
-      <c r="T43" t="s">
+      <c r="U43" t="s">
         <v>130</v>
       </c>
     </row>
@@ -10669,7 +11876,7 @@
       <c r="E44" t="s">
         <v>348</v>
       </c>
-      <c r="T44" t="s">
+      <c r="U44" t="s">
         <v>218</v>
       </c>
     </row>
@@ -10677,7 +11884,7 @@
       <c r="E45" t="s">
         <v>347</v>
       </c>
-      <c r="T45" t="s">
+      <c r="U45" t="s">
         <v>80</v>
       </c>
     </row>
@@ -10685,7 +11892,7 @@
       <c r="E46" t="s">
         <v>216</v>
       </c>
-      <c r="T46" t="s">
+      <c r="U46" t="s">
         <v>131</v>
       </c>
     </row>
@@ -10693,7 +11900,7 @@
       <c r="E47" t="s">
         <v>325</v>
       </c>
-      <c r="T47" t="s">
+      <c r="U47" t="s">
         <v>132</v>
       </c>
     </row>
@@ -10701,7 +11908,7 @@
       <c r="E48" t="s">
         <v>344</v>
       </c>
-      <c r="T48" t="s">
+      <c r="U48" t="s">
         <v>133</v>
       </c>
     </row>
@@ -10709,7 +11916,7 @@
       <c r="E49" t="s">
         <v>383</v>
       </c>
-      <c r="T49" t="s">
+      <c r="U49" t="s">
         <v>134</v>
       </c>
     </row>
@@ -10717,7 +11924,7 @@
       <c r="E50" t="s">
         <v>307</v>
       </c>
-      <c r="T50" t="s">
+      <c r="U50" t="s">
         <v>357</v>
       </c>
     </row>
@@ -10725,7 +11932,7 @@
       <c r="E51" t="s">
         <v>369</v>
       </c>
-      <c r="T51" t="s">
+      <c r="U51" t="s">
         <v>135</v>
       </c>
     </row>
@@ -10733,7 +11940,7 @@
       <c r="E52" t="s">
         <v>336</v>
       </c>
-      <c r="T52" t="s">
+      <c r="U52" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10741,7 +11948,7 @@
       <c r="E53" t="s">
         <v>273</v>
       </c>
-      <c r="T53" t="s">
+      <c r="U53" t="s">
         <v>137</v>
       </c>
     </row>
@@ -10749,7 +11956,7 @@
       <c r="E54" t="s">
         <v>297</v>
       </c>
-      <c r="T54" t="s">
+      <c r="U54" t="s">
         <v>138</v>
       </c>
     </row>
@@ -10757,7 +11964,7 @@
       <c r="E55" t="s">
         <v>298</v>
       </c>
-      <c r="T55" t="s">
+      <c r="U55" t="s">
         <v>139</v>
       </c>
     </row>
@@ -10765,7 +11972,7 @@
       <c r="E56" t="s">
         <v>299</v>
       </c>
-      <c r="T56" t="s">
+      <c r="U56" t="s">
         <v>140</v>
       </c>
     </row>
@@ -10773,7 +11980,7 @@
       <c r="E57" t="s">
         <v>308</v>
       </c>
-      <c r="T57" t="s">
+      <c r="U57" t="s">
         <v>141</v>
       </c>
     </row>
@@ -10781,7 +11988,7 @@
       <c r="E58" t="s">
         <v>317</v>
       </c>
-      <c r="T58" t="s">
+      <c r="U58" t="s">
         <v>219</v>
       </c>
     </row>
@@ -10789,7 +11996,7 @@
       <c r="E59" t="s">
         <v>342</v>
       </c>
-      <c r="T59" t="s">
+      <c r="U59" t="s">
         <v>423</v>
       </c>
     </row>
@@ -10797,7 +12004,7 @@
       <c r="E60" t="s">
         <v>314</v>
       </c>
-      <c r="T60" t="s">
+      <c r="U60" t="s">
         <v>142</v>
       </c>
     </row>
@@ -10805,7 +12012,7 @@
       <c r="E61" t="s">
         <v>315</v>
       </c>
-      <c r="T61" t="s">
+      <c r="U61" t="s">
         <v>143</v>
       </c>
     </row>
@@ -10813,7 +12020,7 @@
       <c r="E62" t="s">
         <v>384</v>
       </c>
-      <c r="T62" t="s">
+      <c r="U62" t="s">
         <v>144</v>
       </c>
     </row>
@@ -10821,7 +12028,7 @@
       <c r="E63" t="s">
         <v>385</v>
       </c>
-      <c r="T63" t="s">
+      <c r="U63" t="s">
         <v>145</v>
       </c>
     </row>
@@ -10829,7 +12036,7 @@
       <c r="E64" t="s">
         <v>350</v>
       </c>
-      <c r="T64" t="s">
+      <c r="U64" t="s">
         <v>202</v>
       </c>
     </row>
@@ -10837,7 +12044,7 @@
       <c r="E65" t="s">
         <v>318</v>
       </c>
-      <c r="T65" t="s">
+      <c r="U65" t="s">
         <v>203</v>
       </c>
     </row>
@@ -10845,7 +12052,7 @@
       <c r="E66" t="s">
         <v>274</v>
       </c>
-      <c r="T66" t="s">
+      <c r="U66" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10853,7 +12060,7 @@
       <c r="E67" t="s">
         <v>364</v>
       </c>
-      <c r="T67" t="s">
+      <c r="U67" t="s">
         <v>147</v>
       </c>
     </row>
@@ -10861,7 +12068,7 @@
       <c r="E68" t="s">
         <v>319</v>
       </c>
-      <c r="T68" t="s">
+      <c r="U68" t="s">
         <v>148</v>
       </c>
     </row>
@@ -10869,7 +12076,7 @@
       <c r="E69" t="s">
         <v>465</v>
       </c>
-      <c r="T69" t="s">
+      <c r="U69" t="s">
         <v>149</v>
       </c>
     </row>
@@ -10877,7 +12084,7 @@
       <c r="E70" t="s">
         <v>309</v>
       </c>
-      <c r="T70" t="s">
+      <c r="U70" t="s">
         <v>150</v>
       </c>
     </row>
@@ -10885,7 +12092,7 @@
       <c r="E71" t="s">
         <v>466</v>
       </c>
-      <c r="T71" t="s">
+      <c r="U71" t="s">
         <v>204</v>
       </c>
     </row>
@@ -10893,7 +12100,7 @@
       <c r="E72" t="s">
         <v>267</v>
       </c>
-      <c r="T72" t="s">
+      <c r="U72" t="s">
         <v>205</v>
       </c>
     </row>
@@ -10901,7 +12108,7 @@
       <c r="E73" t="s">
         <v>349</v>
       </c>
-      <c r="T73" t="s">
+      <c r="U73" t="s">
         <v>206</v>
       </c>
     </row>
@@ -10909,7 +12116,7 @@
       <c r="E74" t="s">
         <v>285</v>
       </c>
-      <c r="T74" t="s">
+      <c r="U74" t="s">
         <v>207</v>
       </c>
     </row>
@@ -10917,7 +12124,7 @@
       <c r="E75" t="s">
         <v>291</v>
       </c>
-      <c r="T75" t="s">
+      <c r="U75" t="s">
         <v>220</v>
       </c>
     </row>
@@ -10925,7 +12132,7 @@
       <c r="E76" t="s">
         <v>296</v>
       </c>
-      <c r="T76" t="s">
+      <c r="U76" t="s">
         <v>151</v>
       </c>
     </row>
@@ -10933,7 +12140,7 @@
       <c r="E77" t="s">
         <v>337</v>
       </c>
-      <c r="T77" t="s">
+      <c r="U77" t="s">
         <v>208</v>
       </c>
     </row>
@@ -10941,7 +12148,7 @@
       <c r="E78" t="s">
         <v>275</v>
       </c>
-      <c r="T78" t="s">
+      <c r="U78" t="s">
         <v>152</v>
       </c>
     </row>
@@ -10949,7 +12156,7 @@
       <c r="E79" t="s">
         <v>286</v>
       </c>
-      <c r="T79" t="s">
+      <c r="U79" t="s">
         <v>209</v>
       </c>
     </row>
@@ -10957,7 +12164,7 @@
       <c r="E80" t="s">
         <v>292</v>
       </c>
-      <c r="T80" t="s">
+      <c r="U80" t="s">
         <v>210</v>
       </c>
     </row>
@@ -10965,7 +12172,7 @@
       <c r="E81" t="s">
         <v>281</v>
       </c>
-      <c r="T81" t="s">
+      <c r="U81" t="s">
         <v>211</v>
       </c>
     </row>
@@ -10973,7 +12180,7 @@
       <c r="E82" t="s">
         <v>276</v>
       </c>
-      <c r="T82" t="s">
+      <c r="U82" t="s">
         <v>212</v>
       </c>
     </row>
@@ -10981,7 +12188,7 @@
       <c r="E83" t="s">
         <v>293</v>
       </c>
-      <c r="T83" t="s">
+      <c r="U83" t="s">
         <v>228</v>
       </c>
     </row>
@@ -10989,7 +12196,7 @@
       <c r="E84" t="s">
         <v>277</v>
       </c>
-      <c r="T84" t="s">
+      <c r="U84" t="s">
         <v>213</v>
       </c>
     </row>
@@ -10997,7 +12204,7 @@
       <c r="E85" t="s">
         <v>278</v>
       </c>
-      <c r="T85" t="s">
+      <c r="U85" t="s">
         <v>153</v>
       </c>
     </row>
@@ -11005,7 +12212,7 @@
       <c r="E86" t="s">
         <v>310</v>
       </c>
-      <c r="T86" t="s">
+      <c r="U86" t="s">
         <v>398</v>
       </c>
     </row>
@@ -11013,7 +12220,7 @@
       <c r="E87" t="s">
         <v>316</v>
       </c>
-      <c r="T87" t="s">
+      <c r="U87" t="s">
         <v>154</v>
       </c>
     </row>
@@ -11021,7 +12228,7 @@
       <c r="E88" t="s">
         <v>300</v>
       </c>
-      <c r="T88" t="s">
+      <c r="U88" t="s">
         <v>155</v>
       </c>
     </row>
@@ -11029,7 +12236,7 @@
       <c r="E89" t="s">
         <v>345</v>
       </c>
-      <c r="T89" t="s">
+      <c r="U89" t="s">
         <v>156</v>
       </c>
     </row>
@@ -11037,7 +12244,7 @@
       <c r="E90" t="s">
         <v>282</v>
       </c>
-      <c r="T90" t="s">
+      <c r="U90" t="s">
         <v>157</v>
       </c>
     </row>
@@ -11045,92 +12252,92 @@
       <c r="E91" t="s">
         <v>283</v>
       </c>
-      <c r="T91" t="s">
+      <c r="U91" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="92">
-      <c r="T92" t="s">
+      <c r="U92" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="93">
-      <c r="T93" t="s">
+      <c r="U93" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="94">
-      <c r="T94" t="s">
+      <c r="U94" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="95">
-      <c r="T95" t="s">
+      <c r="U95" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="96">
-      <c r="T96" t="s">
+      <c r="U96" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="97">
-      <c r="T97" t="s">
+      <c r="U97" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="98">
-      <c r="T98" t="s">
+      <c r="U98" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="99">
-      <c r="T99" t="s">
+      <c r="U99" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="100">
-      <c r="T100" t="s">
+      <c r="U100" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="101">
-      <c r="T101" t="s">
+      <c r="U101" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="102">
-      <c r="T102" t="s">
+      <c r="U102" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="103">
-      <c r="T103" t="s">
+      <c r="U103" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="104">
-      <c r="T104" t="s">
+      <c r="U104" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="105">
-      <c r="T105" t="s">
+      <c r="U105" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="106">
-      <c r="T106" t="s">
+      <c r="U106" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="107">
-      <c r="T107" t="s">
+      <c r="U107" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="108">
-      <c r="T108" t="s">
+      <c r="U108" t="s">
         <v>174</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2852" uniqueCount="504">
   <si>
     <t>description</t>
   </si>
@@ -1633,13 +1633,16 @@
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
   </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="71" x14ac:knownFonts="1">
+  <fonts count="86" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2093,8 +2096,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2725,8 +2822,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="143">
     <border>
       <left/>
       <right/>
@@ -3892,6 +4142,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3899,7 +4431,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="113">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4168,49 +4700,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="58" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="59" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="99" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="99" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="102" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="102" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="126" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="129" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4565,7 +5142,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5777,7 +6354,7 @@
         <v>339</v>
       </c>
       <c r="U59" t="s">
-        <v>216</v>
+        <v>503</v>
       </c>
     </row>
     <row r="60">
@@ -5785,7 +6362,7 @@
         <v>311</v>
       </c>
       <c r="U60" t="s">
-        <v>408</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61">
@@ -5793,7 +6370,7 @@
         <v>312</v>
       </c>
       <c r="U61" t="s">
-        <v>140</v>
+        <v>408</v>
       </c>
     </row>
     <row r="62">
@@ -5801,7 +6378,7 @@
         <v>375</v>
       </c>
       <c r="U62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63">
@@ -5809,7 +6386,7 @@
         <v>376</v>
       </c>
       <c r="U63" t="s">
-        <v>499</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64">
@@ -5817,7 +6394,7 @@
         <v>347</v>
       </c>
       <c r="U64" t="s">
-        <v>142</v>
+        <v>499</v>
       </c>
     </row>
     <row r="65">
@@ -5825,7 +6402,7 @@
         <v>315</v>
       </c>
       <c r="U65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66">
@@ -5833,7 +6410,7 @@
         <v>271</v>
       </c>
       <c r="U66" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67">
@@ -5841,7 +6418,7 @@
         <v>358</v>
       </c>
       <c r="U67" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68">
@@ -5849,7 +6426,7 @@
         <v>316</v>
       </c>
       <c r="U68" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69">
@@ -5857,7 +6434,7 @@
         <v>448</v>
       </c>
       <c r="U69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70">
@@ -5865,7 +6442,7 @@
         <v>306</v>
       </c>
       <c r="U70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71">
@@ -5873,7 +6450,7 @@
         <v>449</v>
       </c>
       <c r="U71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72">
@@ -5881,7 +6458,7 @@
         <v>264</v>
       </c>
       <c r="U72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73">
@@ -5889,7 +6466,7 @@
         <v>346</v>
       </c>
       <c r="U73" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74">
@@ -5897,7 +6474,7 @@
         <v>282</v>
       </c>
       <c r="U74" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75">
@@ -5905,7 +6482,7 @@
         <v>288</v>
       </c>
       <c r="U75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76">
@@ -5913,7 +6490,7 @@
         <v>293</v>
       </c>
       <c r="U76" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77">
@@ -5921,7 +6498,7 @@
         <v>467</v>
       </c>
       <c r="U77" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78">
@@ -5929,7 +6506,7 @@
         <v>334</v>
       </c>
       <c r="U78" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79">
@@ -5937,7 +6514,7 @@
         <v>272</v>
       </c>
       <c r="U79" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80">
@@ -5945,7 +6522,7 @@
         <v>283</v>
       </c>
       <c r="U80" t="s">
-        <v>500</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81">
@@ -5953,7 +6530,7 @@
         <v>289</v>
       </c>
       <c r="U81" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="82">
@@ -5961,7 +6538,7 @@
         <v>278</v>
       </c>
       <c r="U82" t="s">
-        <v>206</v>
+        <v>502</v>
       </c>
     </row>
     <row r="83">
@@ -5969,7 +6546,7 @@
         <v>273</v>
       </c>
       <c r="U83" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84">
@@ -5977,7 +6554,7 @@
         <v>290</v>
       </c>
       <c r="U84" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85">
@@ -5985,7 +6562,7 @@
         <v>274</v>
       </c>
       <c r="U85" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86">
@@ -5993,7 +6570,7 @@
         <v>275</v>
       </c>
       <c r="U86" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87">
@@ -6001,7 +6578,7 @@
         <v>307</v>
       </c>
       <c r="U87" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88">
@@ -6009,7 +6586,7 @@
         <v>313</v>
       </c>
       <c r="U88" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
     </row>
     <row r="89">
@@ -6017,7 +6594,7 @@
         <v>297</v>
       </c>
       <c r="U89" t="s">
-        <v>389</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90">
@@ -6025,7 +6602,7 @@
         <v>342</v>
       </c>
       <c r="U90" t="s">
-        <v>152</v>
+        <v>389</v>
       </c>
     </row>
     <row r="91">
@@ -6033,7 +6610,7 @@
         <v>279</v>
       </c>
       <c r="U91" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92">
@@ -6041,101 +6618,106 @@
         <v>280</v>
       </c>
       <c r="U92" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -20,16 +20,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -43,8 +43,8 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2852" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3307" uniqueCount="512">
   <si>
     <t>description</t>
   </si>
@@ -1636,13 +1636,37 @@
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="86" x14ac:knownFonts="1">
+  <fonts count="101" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2190,8 +2214,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2975,8 +3093,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="143">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -4424,6 +4695,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4431,7 +4984,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="128">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4745,49 +5298,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="73" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="74" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="76" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="126" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="126" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="129" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="129" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5142,7 +5740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5468,6 +6066,9 @@
       <c r="C5" t="s">
         <v>226</v>
       </c>
+      <c r="D5" t="s">
+        <v>504</v>
+      </c>
       <c r="E5" t="s">
         <v>338</v>
       </c>
@@ -5561,7 +6162,7 @@
         <v>100</v>
       </c>
       <c r="V6" t="s">
-        <v>177</v>
+        <v>510</v>
       </c>
       <c r="W6" t="s">
         <v>182</v>
@@ -5616,6 +6217,9 @@
       <c r="U7" t="s">
         <v>101</v>
       </c>
+      <c r="V7" t="s">
+        <v>511</v>
+      </c>
       <c r="W7" t="s">
         <v>183</v>
       </c>
@@ -5666,6 +6270,9 @@
       <c r="U8" t="s">
         <v>102</v>
       </c>
+      <c r="V8" t="s">
+        <v>177</v>
+      </c>
       <c r="W8" t="s">
         <v>184</v>
       </c>
@@ -5734,7 +6341,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>506</v>
       </c>
       <c r="M10" t="s">
         <v>472</v>
@@ -5769,7 +6376,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
         <v>94</v>
@@ -5801,7 +6408,7 @@
         <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -5829,6 +6436,9 @@
       <c r="I13" t="s">
         <v>83</v>
       </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
       <c r="M13" t="s">
         <v>95</v>
       </c>
@@ -5979,7 +6589,7 @@
         <v>299</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>505</v>
       </c>
       <c r="U20" t="s">
         <v>109</v>
@@ -5996,7 +6606,7 @@
         <v>300</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
@@ -6012,6 +6622,9 @@
       <c r="E22" t="s">
         <v>301</v>
       </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
       <c r="U22" t="s">
         <v>111</v>
       </c>
@@ -6242,7 +6855,7 @@
         <v>344</v>
       </c>
       <c r="U45" t="s">
-        <v>215</v>
+        <v>507</v>
       </c>
     </row>
     <row r="46">
@@ -6250,7 +6863,7 @@
         <v>213</v>
       </c>
       <c r="U46" t="s">
-        <v>78</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47">
@@ -6258,7 +6871,7 @@
         <v>322</v>
       </c>
       <c r="U47" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
@@ -6266,7 +6879,7 @@
         <v>341</v>
       </c>
       <c r="U48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49">
@@ -6274,7 +6887,7 @@
         <v>374</v>
       </c>
       <c r="U49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50">
@@ -6282,7 +6895,7 @@
         <v>304</v>
       </c>
       <c r="U50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51">
@@ -6290,7 +6903,7 @@
         <v>362</v>
       </c>
       <c r="U51" t="s">
-        <v>351</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52">
@@ -6298,7 +6911,7 @@
         <v>333</v>
       </c>
       <c r="U52" t="s">
-        <v>133</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53">
@@ -6306,7 +6919,7 @@
         <v>270</v>
       </c>
       <c r="U53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54">
@@ -6314,7 +6927,7 @@
         <v>294</v>
       </c>
       <c r="U54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55">
@@ -6322,7 +6935,7 @@
         <v>295</v>
       </c>
       <c r="U55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56">
@@ -6330,7 +6943,7 @@
         <v>296</v>
       </c>
       <c r="U56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57">
@@ -6338,7 +6951,7 @@
         <v>305</v>
       </c>
       <c r="U57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58">
@@ -6346,7 +6959,7 @@
         <v>314</v>
       </c>
       <c r="U58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59">
@@ -6354,7 +6967,7 @@
         <v>339</v>
       </c>
       <c r="U59" t="s">
-        <v>503</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60">
@@ -6362,7 +6975,7 @@
         <v>311</v>
       </c>
       <c r="U60" t="s">
-        <v>216</v>
+        <v>503</v>
       </c>
     </row>
     <row r="61">
@@ -6370,7 +6983,7 @@
         <v>312</v>
       </c>
       <c r="U61" t="s">
-        <v>408</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62">
@@ -6378,7 +6991,7 @@
         <v>375</v>
       </c>
       <c r="U62" t="s">
-        <v>140</v>
+        <v>408</v>
       </c>
     </row>
     <row r="63">
@@ -6386,7 +6999,7 @@
         <v>376</v>
       </c>
       <c r="U63" t="s">
-        <v>141</v>
+        <v>508</v>
       </c>
     </row>
     <row r="64">
@@ -6394,7 +7007,7 @@
         <v>347</v>
       </c>
       <c r="U64" t="s">
-        <v>499</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65">
@@ -6402,7 +7015,7 @@
         <v>315</v>
       </c>
       <c r="U65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66">
@@ -6410,7 +7023,7 @@
         <v>271</v>
       </c>
       <c r="U66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67">
@@ -6418,7 +7031,7 @@
         <v>358</v>
       </c>
       <c r="U67" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68">
@@ -6426,7 +7039,7 @@
         <v>316</v>
       </c>
       <c r="U68" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69">
@@ -6434,7 +7047,7 @@
         <v>448</v>
       </c>
       <c r="U69" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70">
@@ -6442,7 +7055,7 @@
         <v>306</v>
       </c>
       <c r="U70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71">
@@ -6450,7 +7063,7 @@
         <v>449</v>
       </c>
       <c r="U71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72">
@@ -6458,7 +7071,7 @@
         <v>264</v>
       </c>
       <c r="U72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73">
@@ -6466,7 +7079,7 @@
         <v>346</v>
       </c>
       <c r="U73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74">
@@ -6474,7 +7087,7 @@
         <v>282</v>
       </c>
       <c r="U74" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75">
@@ -6482,7 +7095,7 @@
         <v>288</v>
       </c>
       <c r="U75" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76">
@@ -6490,7 +7103,7 @@
         <v>293</v>
       </c>
       <c r="U76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77">
@@ -6498,7 +7111,7 @@
         <v>467</v>
       </c>
       <c r="U77" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78">
@@ -6506,7 +7119,7 @@
         <v>334</v>
       </c>
       <c r="U78" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79">
@@ -6514,7 +7127,7 @@
         <v>272</v>
       </c>
       <c r="U79" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80">
@@ -6522,7 +7135,7 @@
         <v>283</v>
       </c>
       <c r="U80" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81">
@@ -6530,7 +7143,7 @@
         <v>289</v>
       </c>
       <c r="U81" t="s">
-        <v>500</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82">
@@ -6538,7 +7151,7 @@
         <v>278</v>
       </c>
       <c r="U82" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="83">
@@ -6546,7 +7159,7 @@
         <v>273</v>
       </c>
       <c r="U83" t="s">
-        <v>206</v>
+        <v>502</v>
       </c>
     </row>
     <row r="84">
@@ -6554,7 +7167,7 @@
         <v>290</v>
       </c>
       <c r="U84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85">
@@ -6562,7 +7175,7 @@
         <v>274</v>
       </c>
       <c r="U85" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86">
@@ -6570,7 +7183,7 @@
         <v>275</v>
       </c>
       <c r="U86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87">
@@ -6578,7 +7191,7 @@
         <v>307</v>
       </c>
       <c r="U87" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88">
@@ -6586,7 +7199,7 @@
         <v>313</v>
       </c>
       <c r="U88" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89">
@@ -6594,7 +7207,7 @@
         <v>297</v>
       </c>
       <c r="U89" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
     </row>
     <row r="90">
@@ -6602,7 +7215,7 @@
         <v>342</v>
       </c>
       <c r="U90" t="s">
-        <v>389</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91">
@@ -6610,7 +7223,7 @@
         <v>279</v>
       </c>
       <c r="U91" t="s">
-        <v>152</v>
+        <v>389</v>
       </c>
     </row>
     <row r="92">
@@ -6618,106 +7231,116 @@
         <v>280</v>
       </c>
       <c r="U92" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>166</v>
+        <v>509</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3307" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3762" uniqueCount="512">
   <si>
     <t>description</t>
   </si>
@@ -1666,7 +1666,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="101" x14ac:knownFonts="1">
+  <fonts count="116" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2308,8 +2308,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3246,8 +3340,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -4977,6 +5224,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4984,7 +5513,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="143">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5343,49 +5872,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="88" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="89" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="91" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="153" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="156" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3762" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4217" uniqueCount="512">
   <si>
     <t>description</t>
   </si>
@@ -1666,7 +1666,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="116" x14ac:knownFonts="1">
+  <fonts count="131" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2402,8 +2402,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3493,8 +3587,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5506,6 +5753,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5513,7 +6042,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="158">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5917,49 +6446,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="103" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="104" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="106" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="180" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="183" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="207" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="210" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -29,7 +29,7 @@
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4217" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4673" uniqueCount="512">
   <si>
     <t>description</t>
   </si>
@@ -1666,7 +1666,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="131" x14ac:knownFonts="1">
+  <fonts count="146" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2496,8 +2496,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3740,8 +3834,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="255">
     <border>
       <left/>
       <right/>
@@ -6035,6 +6282,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6042,7 +6571,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="173">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6491,49 +7020,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="118" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="119" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="121" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="207" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="207" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="210" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="210" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7345,7 +7919,7 @@
         <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>317</v>
       </c>
       <c r="M7" t="s">
         <v>33</v>
@@ -7401,7 +7975,7 @@
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
         <v>92</v>
@@ -7451,7 +8025,7 @@
         <v>409</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
         <v>93</v>
@@ -7489,7 +8063,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>506</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
         <v>472</v>
@@ -7524,7 +8098,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>506</v>
       </c>
       <c r="M11" t="s">
         <v>94</v>
@@ -7556,7 +8130,7 @@
         <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -7585,7 +8159,7 @@
         <v>83</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M13" t="s">
         <v>95</v>
@@ -7612,6 +8186,9 @@
       </c>
       <c r="I14" t="s">
         <v>84</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
       </c>
       <c r="M14" t="s">
         <v>96</v>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -24,7 +24,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4673" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5131" uniqueCount="514">
   <si>
     <t>description</t>
   </si>
@@ -1660,13 +1660,19 @@
   <si>
     <t>replyOK(text)</t>
   </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="146" x14ac:knownFonts="1">
+  <fonts count="161" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2590,8 +2596,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3987,8 +4087,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="255">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -6564,6 +6817,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6571,7 +7106,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="188">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7065,49 +7600,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="133" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="134" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="136" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="234" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="237" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7650,7 +8230,7 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>330</v>
+        <v>512</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -7724,7 +8304,7 @@
         <v>406</v>
       </c>
       <c r="F4" t="s">
-        <v>331</v>
+        <v>513</v>
       </c>
       <c r="H4" t="s">
         <v>356</v>
@@ -7795,7 +8375,7 @@
         <v>338</v>
       </c>
       <c r="F5" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="H5" t="s">
         <v>353</v>
@@ -7857,7 +8437,7 @@
         <v>407</v>
       </c>
       <c r="F6" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -7913,7 +8493,7 @@
         <v>372</v>
       </c>
       <c r="F7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -7969,7 +8549,7 @@
         <v>373</v>
       </c>
       <c r="F8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -8021,6 +8601,9 @@
       <c r="E9" t="s">
         <v>308</v>
       </c>
+      <c r="F9" t="s">
+        <v>326</v>
+      </c>
       <c r="I9" t="s">
         <v>409</v>
       </c>
@@ -8058,6 +8641,9 @@
       </c>
       <c r="E10" t="s">
         <v>357</v>
+      </c>
+      <c r="F10" t="s">
+        <v>327</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -19,12 +19,12 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5131" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6055" uniqueCount="519">
   <si>
     <t>description</t>
   </si>
@@ -1666,13 +1666,28 @@
   <si>
     <t>json(file,worksheet,range,header,output)</t>
   </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="161" x14ac:knownFonts="1">
+  <fonts count="191" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2690,8 +2705,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="274">
+  <fills count="328">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4240,8 +4443,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="283">
+  <borders count="339">
     <border>
       <left/>
       <right/>
@@ -7099,6 +7608,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7106,7 +8179,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="218">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7645,49 +8718,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="148" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="149" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="150" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="151" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="261" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="264" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="276" fontId="161" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="279" fontId="163" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="282" fontId="164" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="165" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="166" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="288" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="291" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="173" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="174" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="303" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="306" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="309" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="315" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="318" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8150,7 +9313,7 @@
         <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>515</v>
       </c>
       <c r="G2" t="s">
         <v>80</v>
@@ -8230,7 +9393,7 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>512</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -8304,7 +9467,7 @@
         <v>406</v>
       </c>
       <c r="F4" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="H4" t="s">
         <v>356</v>
@@ -8375,7 +9538,7 @@
         <v>338</v>
       </c>
       <c r="F5" t="s">
-        <v>330</v>
+        <v>517</v>
       </c>
       <c r="H5" t="s">
         <v>353</v>
@@ -8437,7 +9600,7 @@
         <v>407</v>
       </c>
       <c r="F6" t="s">
-        <v>331</v>
+        <v>513</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -8493,7 +9656,7 @@
         <v>372</v>
       </c>
       <c r="F7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -8549,7 +9712,7 @@
         <v>373</v>
       </c>
       <c r="F8" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -8602,7 +9765,7 @@
         <v>308</v>
       </c>
       <c r="F9" t="s">
-        <v>326</v>
+        <v>518</v>
       </c>
       <c r="I9" t="s">
         <v>409</v>
@@ -8643,7 +9806,7 @@
         <v>357</v>
       </c>
       <c r="F10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -8680,6 +9843,9 @@
       <c r="E11" t="s">
         <v>276</v>
       </c>
+      <c r="F11" t="s">
+        <v>325</v>
+      </c>
       <c r="I11" t="s">
         <v>42</v>
       </c>
@@ -8712,6 +9878,9 @@
       <c r="E12" t="s">
         <v>265</v>
       </c>
+      <c r="F12" t="s">
+        <v>326</v>
+      </c>
       <c r="I12" t="s">
         <v>82</v>
       </c>
@@ -8741,6 +9910,9 @@
       <c r="E13" t="s">
         <v>318</v>
       </c>
+      <c r="F13" t="s">
+        <v>327</v>
+      </c>
       <c r="I13" t="s">
         <v>83</v>
       </c>
@@ -8945,7 +10117,7 @@
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>227</v>
+        <v>514</v>
       </c>
       <c r="E23" t="s">
         <v>292</v>
@@ -8959,7 +10131,7 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E24" t="s">
         <v>281</v>
@@ -8973,7 +10145,7 @@
         <v>461</v>
       </c>
       <c r="C25" t="s">
-        <v>457</v>
+        <v>228</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -8987,7 +10159,7 @@
         <v>229</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>457</v>
       </c>
       <c r="E26" t="s">
         <v>284</v>
@@ -8998,7 +10170,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
         <v>268</v>
@@ -9009,7 +10181,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
         <v>285</v>
@@ -9020,7 +10192,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
         <v>286</v>
@@ -9031,7 +10203,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
         <v>218</v>
@@ -9042,7 +10214,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
         <v>277</v>
@@ -9053,7 +10225,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
         <v>287</v>
@@ -9064,7 +10236,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
         <v>262</v>
@@ -9074,6 +10246,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
       <c r="E34" t="s">
         <v>332</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6055" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6981" uniqueCount="521">
   <si>
     <t>description</t>
   </si>
@@ -1681,13 +1681,19 @@
   <si>
     <t>setPassword(file,password)</t>
   </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="191" x14ac:knownFonts="1">
+  <fonts count="221" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2893,8 +2899,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="328">
+  <fills count="382">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4749,8 +4943,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="339">
+  <borders count="395">
     <border>
       <left/>
       <right/>
@@ -8172,6 +8672,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8179,7 +9243,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="248">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8808,49 +9872,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="303" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="303" fontId="176" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="306" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="306" fontId="178" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="309" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="309" fontId="179" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="180" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="181" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="315" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="315" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="318" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="318" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="330" fontId="191" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="333" fontId="193" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="336" fontId="194" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="196" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="197" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="342" fontId="198" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="345" fontId="199" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="201" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="204" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="369" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="372" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9205,7 +10359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -10597,7 +11751,7 @@
         <v>467</v>
       </c>
       <c r="U77" t="s">
-        <v>203</v>
+        <v>520</v>
       </c>
     </row>
     <row r="78">
@@ -10605,7 +11759,7 @@
         <v>334</v>
       </c>
       <c r="U78" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79">
@@ -10613,7 +11767,7 @@
         <v>272</v>
       </c>
       <c r="U79" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80">
@@ -10621,7 +11775,7 @@
         <v>283</v>
       </c>
       <c r="U80" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
     </row>
     <row r="81">
@@ -10629,7 +11783,7 @@
         <v>289</v>
       </c>
       <c r="U81" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82">
@@ -10637,7 +11791,7 @@
         <v>278</v>
       </c>
       <c r="U82" t="s">
-        <v>500</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83">
@@ -10645,7 +11799,7 @@
         <v>273</v>
       </c>
       <c r="U83" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="84">
@@ -10653,7 +11807,7 @@
         <v>290</v>
       </c>
       <c r="U84" t="s">
-        <v>206</v>
+        <v>502</v>
       </c>
     </row>
     <row r="85">
@@ -10661,7 +11815,7 @@
         <v>274</v>
       </c>
       <c r="U85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86">
@@ -10669,7 +11823,7 @@
         <v>275</v>
       </c>
       <c r="U86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87">
@@ -10677,7 +11831,7 @@
         <v>307</v>
       </c>
       <c r="U87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88">
@@ -10685,7 +11839,7 @@
         <v>313</v>
       </c>
       <c r="U88" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89">
@@ -10693,7 +11847,7 @@
         <v>297</v>
       </c>
       <c r="U89" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90">
@@ -10701,7 +11855,7 @@
         <v>342</v>
       </c>
       <c r="U90" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91">
@@ -10709,7 +11863,7 @@
         <v>279</v>
       </c>
       <c r="U91" t="s">
-        <v>389</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92">
@@ -10717,116 +11871,121 @@
         <v>280</v>
       </c>
       <c r="U92" t="s">
-        <v>152</v>
+        <v>389</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>509</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>165</v>
+        <v>509</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6981" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7445" uniqueCount="522">
   <si>
     <t>description</t>
   </si>
@@ -1687,13 +1687,16 @@
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="221" x14ac:knownFonts="1">
+  <fonts count="236" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3087,8 +3090,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="382">
+  <fills count="409">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5249,8 +5346,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="395">
+  <borders count="423">
     <border>
       <left/>
       <right/>
@@ -9236,6 +9486,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9243,7 +9775,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="263">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9962,49 +10494,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="357" fontId="206" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="360" fontId="208" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="363" fontId="209" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="211" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="369" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="369" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="372" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="372" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="375" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="375" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="384" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="387" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="390" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="396" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="399" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10359,7 +10936,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11695,7 +12272,7 @@
         <v>306</v>
       </c>
       <c r="U70" t="s">
-        <v>144</v>
+        <v>521</v>
       </c>
     </row>
     <row r="71">
@@ -11703,7 +12280,7 @@
         <v>449</v>
       </c>
       <c r="U71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72">
@@ -11711,7 +12288,7 @@
         <v>264</v>
       </c>
       <c r="U72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73">
@@ -11719,7 +12296,7 @@
         <v>346</v>
       </c>
       <c r="U73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74">
@@ -11727,7 +12304,7 @@
         <v>282</v>
       </c>
       <c r="U74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75">
@@ -11735,7 +12312,7 @@
         <v>288</v>
       </c>
       <c r="U75" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76">
@@ -11743,7 +12320,7 @@
         <v>293</v>
       </c>
       <c r="U76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77">
@@ -11751,7 +12328,7 @@
         <v>467</v>
       </c>
       <c r="U77" t="s">
-        <v>520</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78">
@@ -11759,7 +12336,7 @@
         <v>334</v>
       </c>
       <c r="U78" t="s">
-        <v>203</v>
+        <v>520</v>
       </c>
     </row>
     <row r="79">
@@ -11767,7 +12344,7 @@
         <v>272</v>
       </c>
       <c r="U79" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80">
@@ -11775,7 +12352,7 @@
         <v>283</v>
       </c>
       <c r="U80" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81">
@@ -11783,7 +12360,7 @@
         <v>289</v>
       </c>
       <c r="U81" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82">
@@ -11791,7 +12368,7 @@
         <v>278</v>
       </c>
       <c r="U82" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83">
@@ -11799,7 +12376,7 @@
         <v>273</v>
       </c>
       <c r="U83" t="s">
-        <v>500</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84">
@@ -11807,7 +12384,7 @@
         <v>290</v>
       </c>
       <c r="U84" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="85">
@@ -11815,7 +12392,7 @@
         <v>274</v>
       </c>
       <c r="U85" t="s">
-        <v>206</v>
+        <v>502</v>
       </c>
     </row>
     <row r="86">
@@ -11823,7 +12400,7 @@
         <v>275</v>
       </c>
       <c r="U86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87">
@@ -11831,7 +12408,7 @@
         <v>307</v>
       </c>
       <c r="U87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88">
@@ -11839,7 +12416,7 @@
         <v>313</v>
       </c>
       <c r="U88" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89">
@@ -11847,7 +12424,7 @@
         <v>297</v>
       </c>
       <c r="U89" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90">
@@ -11855,7 +12432,7 @@
         <v>342</v>
       </c>
       <c r="U90" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91">
@@ -11863,7 +12440,7 @@
         <v>279</v>
       </c>
       <c r="U91" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
     </row>
     <row r="92">
@@ -11871,121 +12448,126 @@
         <v>280</v>
       </c>
       <c r="U92" t="s">
-        <v>389</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>152</v>
+        <v>389</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>509</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>165</v>
+        <v>509</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="U116" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -24,7 +24,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7445" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7910" uniqueCount="523">
   <si>
     <t>description</t>
   </si>
@@ -1690,13 +1690,16 @@
   <si>
     <t>openHttpBasic(url,username,password)</t>
   </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="236" x14ac:knownFonts="1">
+  <fonts count="251" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3184,8 +3187,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="409">
+  <fills count="436">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5499,8 +5596,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="423">
+  <borders count="451">
     <border>
       <left/>
       <right/>
@@ -9768,6 +10018,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9775,7 +10307,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="278">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10539,49 +11071,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="384" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="384" fontId="221" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="222" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="387" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="387" fontId="223" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="390" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="390" fontId="224" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="225" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="226" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="396" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="396" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="399" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="399" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="402" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="402" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="411" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="414" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="423" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="426" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11269,7 +11846,7 @@
         <v>338</v>
       </c>
       <c r="F5" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="H5" t="s">
         <v>353</v>
@@ -11331,7 +11908,7 @@
         <v>407</v>
       </c>
       <c r="F6" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -11387,7 +11964,7 @@
         <v>372</v>
       </c>
       <c r="F7" t="s">
-        <v>330</v>
+        <v>513</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -11443,7 +12020,7 @@
         <v>373</v>
       </c>
       <c r="F8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -11496,7 +12073,7 @@
         <v>308</v>
       </c>
       <c r="F9" t="s">
-        <v>518</v>
+        <v>331</v>
       </c>
       <c r="I9" t="s">
         <v>409</v>
@@ -11537,7 +12114,7 @@
         <v>357</v>
       </c>
       <c r="F10" t="s">
-        <v>324</v>
+        <v>518</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -11575,7 +12152,7 @@
         <v>276</v>
       </c>
       <c r="F11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I11" t="s">
         <v>42</v>
@@ -11610,7 +12187,7 @@
         <v>265</v>
       </c>
       <c r="F12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I12" t="s">
         <v>82</v>
@@ -11642,7 +12219,7 @@
         <v>318</v>
       </c>
       <c r="F13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I13" t="s">
         <v>83</v>
@@ -11672,6 +12249,9 @@
       </c>
       <c r="E14" t="s">
         <v>266</v>
+      </c>
+      <c r="F14" t="s">
+        <v>327</v>
       </c>
       <c r="I14" t="s">
         <v>84</v>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -27,7 +27,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7910" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8841" uniqueCount="524">
   <si>
     <t>description</t>
   </si>
@@ -1693,13 +1693,16 @@
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
+  <si>
+    <t>rename(target,newName)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="251" x14ac:knownFonts="1">
+  <fonts count="281" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3281,8 +3284,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="436">
+  <fills count="490">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5749,8 +5940,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="451">
+  <borders count="507">
     <border>
       <left/>
       <right/>
@@ -10300,6 +10797,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10307,7 +11368,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="278">
+  <cellXfs count="308">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11116,49 +12177,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="411" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="411" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="237" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="414" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="414" fontId="238" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="417" fontId="239" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="241" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="423" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="423" fontId="243" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="426" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="426" fontId="244" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="429" fontId="245" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="429" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="438" fontId="251" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="441" fontId="253" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="444" fontId="254" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="255" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="256" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="257" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="450" fontId="258" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="453" fontId="259" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="456" fontId="260" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="456" fontId="261" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="262" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="263" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="264" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="265" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="465" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="468" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="471" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="477" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="480" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12254,7 +13405,7 @@
         <v>327</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>523</v>
       </c>
       <c r="K14" t="s">
         <v>43</v>
@@ -12283,7 +13434,7 @@
         <v>267</v>
       </c>
       <c r="I15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M15" t="s">
         <v>97</v>
@@ -12309,7 +13460,7 @@
         <v>319</v>
       </c>
       <c r="I16" t="s">
-        <v>386</v>
+        <v>85</v>
       </c>
       <c r="N16" t="s">
         <v>254</v>
@@ -12332,7 +13483,7 @@
         <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>386</v>
       </c>
       <c r="U17" t="s">
         <v>106</v>
@@ -12349,7 +13500,7 @@
         <v>91</v>
       </c>
       <c r="I18" t="s">
-        <v>426</v>
+        <v>44</v>
       </c>
       <c r="U18" t="s">
         <v>107</v>
@@ -12366,7 +13517,7 @@
         <v>298</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>426</v>
       </c>
       <c r="U19" t="s">
         <v>108</v>
@@ -12383,7 +13534,7 @@
         <v>299</v>
       </c>
       <c r="I20" t="s">
-        <v>505</v>
+        <v>86</v>
       </c>
       <c r="U20" t="s">
         <v>109</v>
@@ -12400,7 +13551,7 @@
         <v>300</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>505</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
@@ -12417,7 +13568,7 @@
         <v>301</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U22" t="s">
         <v>111</v>
@@ -12432,6 +13583,9 @@
       </c>
       <c r="E23" t="s">
         <v>292</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
       </c>
       <c r="U23" t="s">
         <v>112</v>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8841" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9309" uniqueCount="526">
   <si>
     <t>description</t>
   </si>
@@ -1696,13 +1696,19 @@
   <si>
     <t>rename(target,newName)</t>
   </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="281" x14ac:knownFonts="1">
+  <fonts count="296" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3472,8 +3478,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="490">
+  <fills count="517">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6246,8 +6346,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="507">
+  <borders count="535">
     <border>
       <left/>
       <right/>
@@ -11361,6 +11614,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11368,7 +11903,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="308">
+  <cellXfs count="323">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12267,49 +12802,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="465" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="465" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="267" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="468" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="468" fontId="268" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="471" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="471" fontId="269" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="270" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="271" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="272" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="477" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="477" fontId="273" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="274" fillId="480" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="480" fontId="274" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="483" fontId="275" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="483" fontId="276" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="277" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="279" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="504" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="507" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12843,7 +13423,7 @@
         <v>379</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>524</v>
       </c>
       <c r="D3" t="s">
         <v>371</v>
@@ -12917,7 +13497,7 @@
         <v>380</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>74</v>
@@ -12988,7 +13568,7 @@
         <v>381</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>525</v>
       </c>
       <c r="D5" t="s">
         <v>504</v>
@@ -13053,7 +13633,7 @@
         <v>382</v>
       </c>
       <c r="C6" t="s">
-        <v>320</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>407</v>
@@ -13109,7 +13689,7 @@
         <v>383</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="E7" t="s">
         <v>372</v>
@@ -13165,7 +13745,7 @@
         <v>384</v>
       </c>
       <c r="C8" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E8" t="s">
         <v>373</v>
@@ -13218,7 +13798,7 @@
         <v>385</v>
       </c>
       <c r="C9" t="s">
-        <v>257</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>308</v>
@@ -13259,7 +13839,7 @@
         <v>335</v>
       </c>
       <c r="C10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E10" t="s">
         <v>357</v>
@@ -13297,7 +13877,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>343</v>
+        <v>257</v>
       </c>
       <c r="E11" t="s">
         <v>276</v>
@@ -13332,7 +13912,7 @@
         <v>198</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>321</v>
       </c>
       <c r="E12" t="s">
         <v>265</v>
@@ -13364,7 +13944,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>343</v>
       </c>
       <c r="E13" t="s">
         <v>318</v>
@@ -13396,7 +13976,7 @@
         <v>241</v>
       </c>
       <c r="C14" t="s">
-        <v>404</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
         <v>266</v>
@@ -13428,7 +14008,7 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>405</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
         <v>267</v>
@@ -13454,7 +14034,7 @@
         <v>438</v>
       </c>
       <c r="C16" t="s">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="E16" t="s">
         <v>319</v>
@@ -13477,7 +14057,7 @@
         <v>459</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>405</v>
       </c>
       <c r="E17" t="s">
         <v>90</v>
@@ -13494,7 +14074,7 @@
         <v>452</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>450</v>
       </c>
       <c r="E18" t="s">
         <v>91</v>
@@ -13511,7 +14091,7 @@
         <v>363</v>
       </c>
       <c r="C19" t="s">
-        <v>258</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
         <v>298</v>
@@ -13528,7 +14108,7 @@
         <v>434</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
         <v>299</v>
@@ -13545,7 +14125,7 @@
         <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>323</v>
+        <v>258</v>
       </c>
       <c r="E21" t="s">
         <v>300</v>
@@ -13562,7 +14142,7 @@
         <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
         <v>301</v>
@@ -13579,7 +14159,7 @@
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>514</v>
+        <v>323</v>
       </c>
       <c r="E23" t="s">
         <v>292</v>
@@ -13596,7 +14176,7 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>227</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
         <v>281</v>
@@ -13610,7 +14190,7 @@
         <v>461</v>
       </c>
       <c r="C25" t="s">
-        <v>228</v>
+        <v>514</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -13624,7 +14204,7 @@
         <v>229</v>
       </c>
       <c r="C26" t="s">
-        <v>457</v>
+        <v>227</v>
       </c>
       <c r="E26" t="s">
         <v>284</v>
@@ -13635,7 +14215,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="E27" t="s">
         <v>268</v>
@@ -13646,7 +14226,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>66</v>
+        <v>457</v>
       </c>
       <c r="E28" t="s">
         <v>285</v>
@@ -13657,7 +14237,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
         <v>286</v>
@@ -13668,7 +14248,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
         <v>218</v>
@@ -13679,7 +14259,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
         <v>277</v>
@@ -13690,7 +14270,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
         <v>287</v>
@@ -13701,7 +14281,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
         <v>262</v>
@@ -13712,7 +14292,7 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
         <v>332</v>
@@ -13722,6 +14302,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
       <c r="E35" t="s">
         <v>309</v>
       </c>
@@ -13730,6 +14313,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
       <c r="E36" t="s">
         <v>263</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9309" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9778" uniqueCount="527">
   <si>
     <t>description</t>
   </si>
@@ -1702,13 +1702,16 @@
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
   </si>
+  <si>
+    <t>deselect(locator,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="296" x14ac:knownFonts="1">
+  <fonts count="311" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3572,8 +3575,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="517">
+  <fills count="544">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6499,8 +6596,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="535">
+  <borders count="563">
     <border>
       <left/>
       <right/>
@@ -11896,6 +12146,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11903,7 +12435,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="323">
+  <cellXfs count="338">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12847,49 +13379,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="280" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="492" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="495" fontId="283" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="498" fontId="284" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="285" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="286" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="287" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="504" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="504" fontId="288" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="507" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="507" fontId="289" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="510" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="510" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="292" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="295" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="519" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="522" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="525" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="531" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="534" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13244,7 +13821,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -14456,7 +15033,7 @@
         <v>270</v>
       </c>
       <c r="U53" t="s">
-        <v>133</v>
+        <v>526</v>
       </c>
     </row>
     <row r="54">
@@ -14464,7 +15041,7 @@
         <v>294</v>
       </c>
       <c r="U54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55">
@@ -14472,7 +15049,7 @@
         <v>295</v>
       </c>
       <c r="U55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56">
@@ -14480,7 +15057,7 @@
         <v>296</v>
       </c>
       <c r="U56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57">
@@ -14488,7 +15065,7 @@
         <v>305</v>
       </c>
       <c r="U57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58">
@@ -14496,7 +15073,7 @@
         <v>314</v>
       </c>
       <c r="U58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59">
@@ -14504,7 +15081,7 @@
         <v>339</v>
       </c>
       <c r="U59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60">
@@ -14512,7 +15089,7 @@
         <v>311</v>
       </c>
       <c r="U60" t="s">
-        <v>503</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61">
@@ -14520,7 +15097,7 @@
         <v>312</v>
       </c>
       <c r="U61" t="s">
-        <v>216</v>
+        <v>503</v>
       </c>
     </row>
     <row r="62">
@@ -14528,7 +15105,7 @@
         <v>375</v>
       </c>
       <c r="U62" t="s">
-        <v>408</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63">
@@ -14536,7 +15113,7 @@
         <v>376</v>
       </c>
       <c r="U63" t="s">
-        <v>508</v>
+        <v>408</v>
       </c>
     </row>
     <row r="64">
@@ -14544,7 +15121,7 @@
         <v>347</v>
       </c>
       <c r="U64" t="s">
-        <v>140</v>
+        <v>508</v>
       </c>
     </row>
     <row r="65">
@@ -14552,7 +15129,7 @@
         <v>315</v>
       </c>
       <c r="U65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66">
@@ -14560,7 +15137,7 @@
         <v>271</v>
       </c>
       <c r="U66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67">
@@ -14568,7 +15145,7 @@
         <v>358</v>
       </c>
       <c r="U67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68">
@@ -14576,7 +15153,7 @@
         <v>316</v>
       </c>
       <c r="U68" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69">
@@ -14584,7 +15161,7 @@
         <v>448</v>
       </c>
       <c r="U69" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70">
@@ -14592,7 +15169,7 @@
         <v>306</v>
       </c>
       <c r="U70" t="s">
-        <v>521</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71">
@@ -14600,7 +15177,7 @@
         <v>449</v>
       </c>
       <c r="U71" t="s">
-        <v>144</v>
+        <v>521</v>
       </c>
     </row>
     <row r="72">
@@ -14608,7 +15185,7 @@
         <v>264</v>
       </c>
       <c r="U72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73">
@@ -14616,7 +15193,7 @@
         <v>346</v>
       </c>
       <c r="U73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74">
@@ -14624,7 +15201,7 @@
         <v>282</v>
       </c>
       <c r="U74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75">
@@ -14632,7 +15209,7 @@
         <v>288</v>
       </c>
       <c r="U75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76">
@@ -14640,7 +15217,7 @@
         <v>293</v>
       </c>
       <c r="U76" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77">
@@ -14648,7 +15225,7 @@
         <v>467</v>
       </c>
       <c r="U77" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78">
@@ -14656,7 +15233,7 @@
         <v>334</v>
       </c>
       <c r="U78" t="s">
-        <v>520</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79">
@@ -14664,7 +15241,7 @@
         <v>272</v>
       </c>
       <c r="U79" t="s">
-        <v>203</v>
+        <v>520</v>
       </c>
     </row>
     <row r="80">
@@ -14672,7 +15249,7 @@
         <v>283</v>
       </c>
       <c r="U80" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81">
@@ -14680,7 +15257,7 @@
         <v>289</v>
       </c>
       <c r="U81" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82">
@@ -14688,7 +15265,7 @@
         <v>278</v>
       </c>
       <c r="U82" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
     </row>
     <row r="83">
@@ -14696,7 +15273,7 @@
         <v>273</v>
       </c>
       <c r="U83" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84">
@@ -14704,7 +15281,7 @@
         <v>290</v>
       </c>
       <c r="U84" t="s">
-        <v>500</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85">
@@ -14712,7 +15289,7 @@
         <v>274</v>
       </c>
       <c r="U85" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="86">
@@ -14720,7 +15297,7 @@
         <v>275</v>
       </c>
       <c r="U86" t="s">
-        <v>206</v>
+        <v>502</v>
       </c>
     </row>
     <row r="87">
@@ -14728,7 +15305,7 @@
         <v>307</v>
       </c>
       <c r="U87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88">
@@ -14736,7 +15313,7 @@
         <v>313</v>
       </c>
       <c r="U88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89">
@@ -14744,7 +15321,7 @@
         <v>297</v>
       </c>
       <c r="U89" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90">
@@ -14752,7 +15329,7 @@
         <v>342</v>
       </c>
       <c r="U90" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91">
@@ -14760,7 +15337,7 @@
         <v>279</v>
       </c>
       <c r="U91" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="92">
@@ -14768,126 +15345,131 @@
         <v>280</v>
       </c>
       <c r="U92" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>389</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>152</v>
+        <v>389</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>509</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>165</v>
+        <v>509</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -27,7 +27,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
+    <definedName name="io">'#system'!$I$2:$I$24</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -46,7 +46,7 @@
     <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="ws">'#system'!$X$2:$X$17</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
   </definedNames>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9778" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10249" uniqueCount="529">
   <si>
     <t>description</t>
   </si>
@@ -1705,13 +1705,19 @@
   <si>
     <t>deselect(locator,text)</t>
   </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="311" x14ac:knownFonts="1">
+  <fonts count="327" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3669,8 +3675,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="544">
+  <fills count="571">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6749,8 +6856,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="563">
+  <borders count="591">
     <border>
       <left/>
       <right/>
@@ -12428,6 +12688,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12435,7 +12977,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="338">
+  <cellXfs count="354">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13424,49 +13966,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="519" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="519" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="522" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="522" fontId="298" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="525" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="525" fontId="299" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="300" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="301" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="302" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="531" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="531" fontId="303" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="534" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="534" fontId="304" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="537" fontId="305" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="537" fontId="306" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="307" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="308" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="309" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="546" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="549" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="552" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="555" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="558" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="561" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="564" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="567" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="567" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14160,7 +14750,7 @@
         <v>353</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>527</v>
       </c>
       <c r="K5" t="s">
         <v>88</v>
@@ -14219,7 +14809,7 @@
         <v>517</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s">
         <v>29</v>
@@ -14275,7 +14865,7 @@
         <v>513</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
         <v>317</v>
@@ -14331,7 +14921,7 @@
         <v>330</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s">
         <v>34</v>
@@ -14384,7 +14974,7 @@
         <v>331</v>
       </c>
       <c r="I9" t="s">
-        <v>409</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s">
         <v>35</v>
@@ -14425,7 +15015,7 @@
         <v>518</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>409</v>
       </c>
       <c r="K10" t="s">
         <v>36</v>
@@ -14463,7 +15053,7 @@
         <v>324</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
         <v>506</v>
@@ -14498,7 +15088,7 @@
         <v>325</v>
       </c>
       <c r="I12" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="K12" t="s">
         <v>39</v>
@@ -14530,7 +15120,7 @@
         <v>326</v>
       </c>
       <c r="I13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s">
         <v>40</v>
@@ -14562,7 +15152,7 @@
         <v>327</v>
       </c>
       <c r="I14" t="s">
-        <v>523</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s">
         <v>43</v>
@@ -14591,7 +15181,7 @@
         <v>267</v>
       </c>
       <c r="I15" t="s">
-        <v>84</v>
+        <v>523</v>
       </c>
       <c r="M15" t="s">
         <v>97</v>
@@ -14617,7 +15207,7 @@
         <v>319</v>
       </c>
       <c r="I16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N16" t="s">
         <v>254</v>
@@ -14640,10 +15230,13 @@
         <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>386</v>
+        <v>85</v>
       </c>
       <c r="U17" t="s">
         <v>106</v>
+      </c>
+      <c r="X17" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="18">
@@ -14657,7 +15250,7 @@
         <v>91</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>386</v>
       </c>
       <c r="U18" t="s">
         <v>107</v>
@@ -14674,7 +15267,7 @@
         <v>298</v>
       </c>
       <c r="I19" t="s">
-        <v>426</v>
+        <v>44</v>
       </c>
       <c r="U19" t="s">
         <v>108</v>
@@ -14691,7 +15284,7 @@
         <v>299</v>
       </c>
       <c r="I20" t="s">
-        <v>86</v>
+        <v>426</v>
       </c>
       <c r="U20" t="s">
         <v>109</v>
@@ -14708,7 +15301,7 @@
         <v>300</v>
       </c>
       <c r="I21" t="s">
-        <v>505</v>
+        <v>86</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
@@ -14725,7 +15318,7 @@
         <v>301</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>505</v>
       </c>
       <c r="U22" t="s">
         <v>111</v>
@@ -14742,7 +15335,7 @@
         <v>292</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U23" t="s">
         <v>112</v>
@@ -14757,6 +15350,9 @@
       </c>
       <c r="E24" t="s">
         <v>281</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
       </c>
       <c r="U24" t="s">
         <v>113</v>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -19,36 +19,37 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$24</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$17</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10249" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10724" uniqueCount="532">
   <si>
     <t>description</t>
   </si>
@@ -1711,13 +1712,22 @@
   <si>
     <t>upload(url,body,fileParams,var)</t>
   </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="327" x14ac:knownFonts="1">
+  <fonts count="343" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3776,8 +3786,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="571">
+  <fills count="598">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7009,8 +7120,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="591">
+  <borders count="619">
     <border>
       <left/>
       <right/>
@@ -12970,6 +13234,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12977,7 +13523,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="354">
+  <cellXfs count="370">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14011,52 +14557,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="310" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="546" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="546" fontId="311" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="549" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="549" fontId="313" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="552" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="552" fontId="314" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="555" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="555" fontId="315" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="316" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="558" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="558" fontId="317" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="318" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="561" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="561" fontId="319" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="564" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="564" fontId="320" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="567" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="567" fontId="321" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="567" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="567" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="326" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="573" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="576" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="579" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="582" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="588" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="591" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="594" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="594" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14411,7 +15005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -14430,75 +15024,78 @@
         <v>377</v>
       </c>
       <c r="C1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>352</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>335</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>198</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>53</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>241</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>438</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>459</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>452</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>363</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>434</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>55</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>56</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>57</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>461</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>229</v>
       </c>
     </row>
@@ -14510,1562 +15107,1571 @@
         <v>378</v>
       </c>
       <c r="C2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>73</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>75</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>515</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>80</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>354</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>317</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>403</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>468</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>451</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>469</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>255</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>219</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>439</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>460</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>458</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>387</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>435</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>98</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>173</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>178</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>185</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>471</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>529</v>
       </c>
       <c r="B3" t="s">
         <v>379</v>
       </c>
       <c r="C3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D3" t="s">
         <v>524</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>371</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>89</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>50</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>355</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>343</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>336</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>470</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>242</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>220</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>440</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>454</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>388</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>436</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>99</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>174</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>179</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>370</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>186</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>380</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>74</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>406</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>516</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>356</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>240</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>337</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>243</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>221</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>441</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>455</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>364</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>437</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>359</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>175</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>180</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>186</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>462</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>381</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>525</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>504</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>338</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>522</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>353</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>527</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>30</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>244</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>222</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>442</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>456</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>365</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>360</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>176</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>181</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>187</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>463</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>382</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>407</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>517</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>73</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>245</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>425</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>443</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>367</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>100</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>510</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>182</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>188</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>464</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>383</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>226</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>372</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>513</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>16</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>317</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>33</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>246</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>453</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>444</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>366</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>101</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>511</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>183</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>189</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>465</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>352</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>384</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>320</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>373</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>330</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>81</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>92</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>247</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>445</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>368</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>102</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>177</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>184</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>190</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>466</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>352</v>
       </c>
       <c r="B9" t="s">
         <v>385</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>308</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>331</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>38</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>93</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>248</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>446</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>369</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>211</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>191</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>317</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>357</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>518</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>409</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>472</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>249</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>447</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>259</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>192</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
+        <v>335</v>
+      </c>
+      <c r="D11" t="s">
         <v>257</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>276</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>324</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>17</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>506</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>94</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>250</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>260</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>261</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>321</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>265</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>325</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>42</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>39</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>251</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>103</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" t="s">
         <v>343</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>318</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>326</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>82</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>40</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>95</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>256</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>328</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>241</v>
-      </c>
-      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>266</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>327</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>83</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>43</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>96</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>252</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>104</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
+        <v>241</v>
+      </c>
+      <c r="D15" t="s">
         <v>60</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>267</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>523</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>97</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>253</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>105</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>438</v>
-      </c>
-      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
         <v>404</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>319</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>84</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>254</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>76</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>459</v>
-      </c>
-      <c r="C17" t="s">
+        <v>438</v>
+      </c>
+      <c r="D17" t="s">
         <v>405</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>90</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>85</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>106</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>452</v>
-      </c>
-      <c r="C18" t="s">
+        <v>459</v>
+      </c>
+      <c r="D18" t="s">
         <v>450</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>91</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>386</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>363</v>
-      </c>
-      <c r="C19" t="s">
+        <v>452</v>
+      </c>
+      <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>298</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>44</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>434</v>
-      </c>
-      <c r="C20" t="s">
+        <v>363</v>
+      </c>
+      <c r="D20" t="s">
         <v>62</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>299</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>426</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
+        <v>434</v>
+      </c>
+      <c r="D21" t="s">
         <v>258</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>300</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>86</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
         <v>63</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>301</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>505</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
         <v>323</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>292</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>45</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>281</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>46</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>461</v>
-      </c>
-      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
         <v>514</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>77</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>461</v>
+      </c>
+      <c r="D26" t="s">
+        <v>227</v>
+      </c>
+      <c r="F26" t="s">
+        <v>284</v>
+      </c>
+      <c r="V26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>229</v>
       </c>
-      <c r="C26" t="s">
-        <v>227</v>
-      </c>
-      <c r="E26" t="s">
-        <v>284</v>
-      </c>
-      <c r="U26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>228</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>268</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>457</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>285</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>65</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>286</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>66</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>218</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>67</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>277</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>68</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>287</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>69</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>262</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>70</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>332</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>71</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>309</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>72</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>263</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>310</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>269</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>79</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>214</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>291</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>302</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>303</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>345</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>344</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>213</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>322</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>341</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>374</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>304</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>362</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="52">
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>333</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="53">
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>270</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="54">
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>294</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="55">
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>295</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="56">
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>296</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="57">
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>305</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="58">
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>314</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="59">
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>339</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="60">
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>311</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="61">
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>312</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="62">
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>375</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="63">
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>376</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="64">
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>347</v>
       </c>
-      <c r="U64" t="s">
+      <c r="V64" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="65">
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>315</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="66">
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>271</v>
       </c>
-      <c r="U66" t="s">
+      <c r="V66" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="67">
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>358</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="68">
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>316</v>
       </c>
-      <c r="U68" t="s">
+      <c r="V68" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="69">
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>448</v>
       </c>
-      <c r="U69" t="s">
+      <c r="V69" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="70">
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>306</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="71">
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>449</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="72">
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>264</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="73">
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>346</v>
       </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="74">
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>282</v>
       </c>
-      <c r="U74" t="s">
+      <c r="V74" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="75">
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>288</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="76">
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>293</v>
       </c>
-      <c r="U76" t="s">
+      <c r="V76" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="77">
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>467</v>
       </c>
-      <c r="U77" t="s">
+      <c r="V77" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="78">
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>334</v>
       </c>
-      <c r="U78" t="s">
+      <c r="V78" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="79">
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>272</v>
       </c>
-      <c r="U79" t="s">
+      <c r="V79" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="80">
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>283</v>
       </c>
-      <c r="U80" t="s">
+      <c r="V80" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="81">
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>289</v>
       </c>
-      <c r="U81" t="s">
+      <c r="V81" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="82">
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>278</v>
       </c>
-      <c r="U82" t="s">
+      <c r="V82" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="83">
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>273</v>
       </c>
-      <c r="U83" t="s">
+      <c r="V83" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="84">
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>290</v>
       </c>
-      <c r="U84" t="s">
+      <c r="V84" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="85">
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>274</v>
       </c>
-      <c r="U85" t="s">
+      <c r="V85" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="86">
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>275</v>
       </c>
-      <c r="U86" t="s">
+      <c r="V86" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="87">
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>307</v>
       </c>
-      <c r="U87" t="s">
+      <c r="V87" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="88">
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>313</v>
       </c>
-      <c r="U88" t="s">
+      <c r="V88" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="89">
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>297</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="90">
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>342</v>
       </c>
-      <c r="U90" t="s">
+      <c r="V90" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="91">
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>279</v>
       </c>
-      <c r="U91" t="s">
+      <c r="V91" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="92">
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>280</v>
       </c>
-      <c r="U92" t="s">
+      <c r="V92" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="93">
-      <c r="U93" t="s">
+      <c r="V93" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="94">
-      <c r="U94" t="s">
+      <c r="V94" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="95">
-      <c r="U95" t="s">
+      <c r="V95" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="96">
-      <c r="U96" t="s">
+      <c r="V96" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="97">
-      <c r="U97" t="s">
+      <c r="V97" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="98">
-      <c r="U98" t="s">
+      <c r="V98" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="99">
-      <c r="U99" t="s">
+      <c r="V99" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="100">
-      <c r="U100" t="s">
+      <c r="V100" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="101">
-      <c r="U101" t="s">
+      <c r="V101" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="102">
-      <c r="U102" t="s">
+      <c r="V102" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="103">
-      <c r="U103" t="s">
+      <c r="V103" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="104">
-      <c r="U104" t="s">
+      <c r="V104" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="105">
-      <c r="U105" t="s">
+      <c r="V105" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="106">
-      <c r="U106" t="s">
+      <c r="V106" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="107">
-      <c r="U107" t="s">
+      <c r="V107" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="108">
-      <c r="U108" t="s">
+      <c r="V108" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="109">
-      <c r="U109" t="s">
+      <c r="V109" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="110">
-      <c r="U110" t="s">
+      <c r="V110" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="111">
-      <c r="U111" t="s">
+      <c r="V111" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="112">
-      <c r="U112" t="s">
+      <c r="V112" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="113">
-      <c r="U113" t="s">
+      <c r="V113" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="114">
-      <c r="U114" t="s">
+      <c r="V114" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="115">
-      <c r="U115" t="s">
+      <c r="V115" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="116">
-      <c r="U116" t="s">
+      <c r="V116" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="117">
-      <c r="U117" t="s">
+      <c r="V117" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10724" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11200" uniqueCount="534">
   <si>
     <t>description</t>
   </si>
@@ -1721,13 +1721,19 @@
   <si>
     <t>sendTextMail(profile,to,subject,body)</t>
   </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="343" x14ac:knownFonts="1">
+  <fonts count="359" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3887,8 +3893,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="598">
+  <fills count="625">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7273,8 +7380,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="619">
+  <borders count="647">
     <border>
       <left/>
       <right/>
@@ -13516,6 +13776,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13523,7 +14065,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="370">
+  <cellXfs count="386">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14605,52 +15147,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="573" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="573" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="328" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="576" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="576" fontId="329" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="579" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="579" fontId="330" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="582" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="582" fontId="331" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="332" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="585" fontId="333" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="334" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="588" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="588" fontId="335" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="591" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="591" fontId="336" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="594" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="594" fontId="337" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="594" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="594" fontId="338" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="339" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="597" fontId="340" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="342" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="600" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="603" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="606" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="609" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="612" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="615" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="618" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="621" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="621" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15005,7 +15595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15107,7 +15697,7 @@
         <v>378</v>
       </c>
       <c r="C2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
@@ -16219,7 +16809,7 @@
         <v>362</v>
       </c>
       <c r="V51" t="s">
-        <v>132</v>
+        <v>533</v>
       </c>
     </row>
     <row r="52">
@@ -16227,7 +16817,7 @@
         <v>333</v>
       </c>
       <c r="V52" t="s">
-        <v>351</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53">
@@ -16235,7 +16825,7 @@
         <v>270</v>
       </c>
       <c r="V53" t="s">
-        <v>526</v>
+        <v>351</v>
       </c>
     </row>
     <row r="54">
@@ -16243,7 +16833,7 @@
         <v>294</v>
       </c>
       <c r="V54" t="s">
-        <v>133</v>
+        <v>526</v>
       </c>
     </row>
     <row r="55">
@@ -16251,7 +16841,7 @@
         <v>295</v>
       </c>
       <c r="V55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56">
@@ -16259,7 +16849,7 @@
         <v>296</v>
       </c>
       <c r="V56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57">
@@ -16267,7 +16857,7 @@
         <v>305</v>
       </c>
       <c r="V57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58">
@@ -16275,7 +16865,7 @@
         <v>314</v>
       </c>
       <c r="V58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59">
@@ -16283,7 +16873,7 @@
         <v>339</v>
       </c>
       <c r="V59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60">
@@ -16291,7 +16881,7 @@
         <v>311</v>
       </c>
       <c r="V60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61">
@@ -16299,7 +16889,7 @@
         <v>312</v>
       </c>
       <c r="V61" t="s">
-        <v>503</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62">
@@ -16307,7 +16897,7 @@
         <v>375</v>
       </c>
       <c r="V62" t="s">
-        <v>216</v>
+        <v>503</v>
       </c>
     </row>
     <row r="63">
@@ -16315,7 +16905,7 @@
         <v>376</v>
       </c>
       <c r="V63" t="s">
-        <v>408</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64">
@@ -16323,7 +16913,7 @@
         <v>347</v>
       </c>
       <c r="V64" t="s">
-        <v>508</v>
+        <v>408</v>
       </c>
     </row>
     <row r="65">
@@ -16331,7 +16921,7 @@
         <v>315</v>
       </c>
       <c r="V65" t="s">
-        <v>140</v>
+        <v>508</v>
       </c>
     </row>
     <row r="66">
@@ -16339,7 +16929,7 @@
         <v>271</v>
       </c>
       <c r="V66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67">
@@ -16347,7 +16937,7 @@
         <v>358</v>
       </c>
       <c r="V67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68">
@@ -16355,7 +16945,7 @@
         <v>316</v>
       </c>
       <c r="V68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69">
@@ -16363,7 +16953,7 @@
         <v>448</v>
       </c>
       <c r="V69" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70">
@@ -16371,7 +16961,7 @@
         <v>306</v>
       </c>
       <c r="V70" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71">
@@ -16379,7 +16969,7 @@
         <v>449</v>
       </c>
       <c r="V71" t="s">
-        <v>521</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72">
@@ -16387,7 +16977,7 @@
         <v>264</v>
       </c>
       <c r="V72" t="s">
-        <v>144</v>
+        <v>521</v>
       </c>
     </row>
     <row r="73">
@@ -16395,7 +16985,7 @@
         <v>346</v>
       </c>
       <c r="V73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74">
@@ -16403,7 +16993,7 @@
         <v>282</v>
       </c>
       <c r="V74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75">
@@ -16411,7 +17001,7 @@
         <v>288</v>
       </c>
       <c r="V75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76">
@@ -16419,7 +17009,7 @@
         <v>293</v>
       </c>
       <c r="V76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77">
@@ -16427,7 +17017,7 @@
         <v>467</v>
       </c>
       <c r="V77" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78">
@@ -16435,7 +17025,7 @@
         <v>334</v>
       </c>
       <c r="V78" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79">
@@ -16443,7 +17033,7 @@
         <v>272</v>
       </c>
       <c r="V79" t="s">
-        <v>520</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80">
@@ -16451,7 +17041,7 @@
         <v>283</v>
       </c>
       <c r="V80" t="s">
-        <v>203</v>
+        <v>520</v>
       </c>
     </row>
     <row r="81">
@@ -16459,7 +17049,7 @@
         <v>289</v>
       </c>
       <c r="V81" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82">
@@ -16467,7 +17057,7 @@
         <v>278</v>
       </c>
       <c r="V82" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83">
@@ -16475,7 +17065,7 @@
         <v>273</v>
       </c>
       <c r="V83" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
     </row>
     <row r="84">
@@ -16483,7 +17073,7 @@
         <v>290</v>
       </c>
       <c r="V84" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85">
@@ -16491,7 +17081,7 @@
         <v>274</v>
       </c>
       <c r="V85" t="s">
-        <v>500</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86">
@@ -16499,7 +17089,7 @@
         <v>275</v>
       </c>
       <c r="V86" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="87">
@@ -16507,7 +17097,7 @@
         <v>307</v>
       </c>
       <c r="V87" t="s">
-        <v>206</v>
+        <v>502</v>
       </c>
     </row>
     <row r="88">
@@ -16515,7 +17105,7 @@
         <v>313</v>
       </c>
       <c r="V88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89">
@@ -16523,7 +17113,7 @@
         <v>297</v>
       </c>
       <c r="V89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90">
@@ -16531,7 +17121,7 @@
         <v>342</v>
       </c>
       <c r="V90" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91">
@@ -16539,7 +17129,7 @@
         <v>279</v>
       </c>
       <c r="V91" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92">
@@ -16547,131 +17137,136 @@
         <v>280</v>
       </c>
       <c r="V92" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>389</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>152</v>
+        <v>389</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>509</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>165</v>
+        <v>509</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="V118" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -26,7 +26,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11200" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12632" uniqueCount="537">
   <si>
     <t>description</t>
   </si>
@@ -1727,13 +1727,22 @@
   <si>
     <t>clickWithKeys(locator,keys)</t>
   </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>saveDiff(baseline,actual,saveTo)</t>
+  </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="359" x14ac:knownFonts="1">
+  <fonts count="407" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3994,8 +4003,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="625">
+  <fills count="706">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7533,8 +7845,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="647">
+  <borders count="731">
     <border>
       <left/>
       <right/>
@@ -14058,6 +14829,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14065,7 +15682,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="386">
+  <cellXfs count="434">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15195,52 +16812,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="342" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="600" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="600" fontId="343" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="344" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="603" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="603" fontId="345" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="606" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="606" fontId="346" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="609" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="609" fontId="347" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="348" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="612" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="612" fontId="349" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="350" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="615" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="615" fontId="351" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="618" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="618" fontId="352" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="621" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="621" fontId="353" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="621" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="621" fontId="354" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="355" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="624" fontId="356" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="357" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="358" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="627" fontId="359" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="360" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="630" fontId="361" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="633" fontId="362" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="636" fontId="363" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="364" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="639" fontId="365" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="366" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="642" fontId="367" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="645" fontId="368" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="648" fontId="369" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="648" fontId="370" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="371" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="651" fontId="372" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="373" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="374" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="654" fontId="375" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="376" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="657" fontId="377" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="660" fontId="378" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="663" fontId="379" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="380" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="666" fontId="381" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="382" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="669" fontId="383" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="672" fontId="384" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="675" fontId="385" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="675" fontId="386" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="387" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="678" fontId="388" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="389" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="390" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="681" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="684" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="687" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="690" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="696" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="699" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15715,7 +17476,7 @@
         <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>354</v>
+        <v>536</v>
       </c>
       <c r="J2" t="s">
         <v>317</v>
@@ -15798,7 +17559,7 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J3" t="s">
         <v>343</v>
@@ -15869,7 +17630,7 @@
         <v>516</v>
       </c>
       <c r="I4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J4" t="s">
         <v>240</v>
@@ -15940,7 +17701,7 @@
         <v>522</v>
       </c>
       <c r="I5" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="J5" t="s">
         <v>527</v>
@@ -16000,6 +17761,9 @@
       </c>
       <c r="G6" t="s">
         <v>517</v>
+      </c>
+      <c r="I6" t="s">
+        <v>353</v>
       </c>
       <c r="J6" t="s">
         <v>73</v>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12632" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13110" uniqueCount="538">
   <si>
     <t>description</t>
   </si>
@@ -1736,13 +1736,16 @@
   <si>
     <t>colorbit(source,bit,saveTo)</t>
   </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="407" x14ac:knownFonts="1">
+  <fonts count="423" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4306,8 +4309,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="706">
+  <fills count="733">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8304,8 +8408,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="731">
+  <borders count="759">
     <border>
       <left/>
       <right/>
@@ -15675,6 +15932,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -15682,7 +16221,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="434">
+  <cellXfs count="450">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16956,52 +17495,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="390" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="681" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="681" fontId="391" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="392" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="684" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="684" fontId="393" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="687" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="687" fontId="394" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="690" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="690" fontId="395" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="396" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="693" fontId="397" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="398" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="696" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="696" fontId="399" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="699" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="699" fontId="400" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="702" fontId="401" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="402" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="702" fontId="402" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="403" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="705" fontId="404" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="405" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="406" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="708" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="711" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="714" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="717" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="720" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="723" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="726" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="729" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="729" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17356,7 +17943,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -18749,7 +19336,7 @@
         <v>346</v>
       </c>
       <c r="V73" t="s">
-        <v>144</v>
+        <v>537</v>
       </c>
     </row>
     <row r="74">
@@ -18757,7 +19344,7 @@
         <v>282</v>
       </c>
       <c r="V74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75">
@@ -18765,7 +19352,7 @@
         <v>288</v>
       </c>
       <c r="V75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76">
@@ -18773,7 +19360,7 @@
         <v>293</v>
       </c>
       <c r="V76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77">
@@ -18781,7 +19368,7 @@
         <v>467</v>
       </c>
       <c r="V77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78">
@@ -18789,7 +19376,7 @@
         <v>334</v>
       </c>
       <c r="V78" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79">
@@ -18797,7 +19384,7 @@
         <v>272</v>
       </c>
       <c r="V79" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80">
@@ -18805,7 +19392,7 @@
         <v>283</v>
       </c>
       <c r="V80" t="s">
-        <v>520</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81">
@@ -18813,7 +19400,7 @@
         <v>289</v>
       </c>
       <c r="V81" t="s">
-        <v>203</v>
+        <v>520</v>
       </c>
     </row>
     <row r="82">
@@ -18821,7 +19408,7 @@
         <v>278</v>
       </c>
       <c r="V82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83">
@@ -18829,7 +19416,7 @@
         <v>273</v>
       </c>
       <c r="V83" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84">
@@ -18837,7 +19424,7 @@
         <v>290</v>
       </c>
       <c r="V84" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85">
@@ -18845,7 +19432,7 @@
         <v>274</v>
       </c>
       <c r="V85" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86">
@@ -18853,7 +19440,7 @@
         <v>275</v>
       </c>
       <c r="V86" t="s">
-        <v>500</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87">
@@ -18861,7 +19448,7 @@
         <v>307</v>
       </c>
       <c r="V87" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="88">
@@ -18869,7 +19456,7 @@
         <v>313</v>
       </c>
       <c r="V88" t="s">
-        <v>206</v>
+        <v>502</v>
       </c>
     </row>
     <row r="89">
@@ -18877,7 +19464,7 @@
         <v>297</v>
       </c>
       <c r="V89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90">
@@ -18885,7 +19472,7 @@
         <v>342</v>
       </c>
       <c r="V90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91">
@@ -18893,7 +19480,7 @@
         <v>279</v>
       </c>
       <c r="V91" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92">
@@ -18901,136 +19488,141 @@
         <v>280</v>
       </c>
       <c r="V92" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>389</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>152</v>
+        <v>389</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>509</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>165</v>
+        <v>509</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -27,7 +27,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13110" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14549" uniqueCount="541">
   <si>
     <t>description</t>
   </si>
@@ -1739,13 +1739,22 @@
   <si>
     <t>openIgnoreTimeout(url)</t>
   </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="423" x14ac:knownFonts="1">
+  <fonts count="471" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4410,8 +4419,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="733">
+  <fills count="814">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8561,8 +8873,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="759">
+  <borders count="843">
     <border>
       <left/>
       <right/>
@@ -16214,6 +16985,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -16221,7 +17838,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="450">
+  <cellXfs count="498">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17543,52 +19160,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="406" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="708" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="708" fontId="407" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="408" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="711" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="711" fontId="409" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="714" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="714" fontId="410" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="717" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="717" fontId="411" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="412" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="720" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="720" fontId="413" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="414" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="415" fillId="723" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="723" fontId="415" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="416" fillId="726" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="726" fontId="416" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="417" fillId="729" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="729" fontId="417" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="418" fillId="729" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="729" fontId="418" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="419" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="419" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="420" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="732" fontId="420" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="421" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="421" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="422" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="766" fillId="735" fontId="423" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="424" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="738" fontId="425" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="741" fontId="426" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="744" fontId="427" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="428" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="747" fontId="429" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="430" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="778" fillId="750" fontId="431" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="782" fillId="753" fontId="432" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="756" fontId="433" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="756" fontId="434" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="435" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="759" fontId="436" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="437" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="438" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="762" fontId="439" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="440" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="765" fontId="441" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="768" fontId="442" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="771" fontId="443" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="444" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="774" fontId="445" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="446" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="806" fillId="777" fontId="447" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="810" fillId="780" fontId="448" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="783" fontId="449" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="783" fontId="450" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="451" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="786" fontId="452" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="453" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="454" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="789" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="792" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="795" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="798" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="801" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="804" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="807" borderId="838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="810" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="810" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="813" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18811,7 +20572,7 @@
         <v>298</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>540</v>
       </c>
       <c r="V19" t="s">
         <v>108</v>
@@ -18828,7 +20589,7 @@
         <v>299</v>
       </c>
       <c r="J20" t="s">
-        <v>426</v>
+        <v>44</v>
       </c>
       <c r="V20" t="s">
         <v>109</v>
@@ -18845,7 +20606,7 @@
         <v>300</v>
       </c>
       <c r="J21" t="s">
-        <v>86</v>
+        <v>426</v>
       </c>
       <c r="V21" t="s">
         <v>110</v>
@@ -18862,7 +20623,7 @@
         <v>301</v>
       </c>
       <c r="J22" t="s">
-        <v>505</v>
+        <v>86</v>
       </c>
       <c r="V22" t="s">
         <v>111</v>
@@ -18879,7 +20640,7 @@
         <v>292</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>505</v>
       </c>
       <c r="V23" t="s">
         <v>112</v>
@@ -18896,7 +20657,7 @@
         <v>281</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V24" t="s">
         <v>113</v>
@@ -18912,6 +20673,9 @@
       <c r="F25" t="s">
         <v>77</v>
       </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
       <c r="V25" t="s">
         <v>114</v>
       </c>
@@ -18946,7 +20710,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>457</v>
+        <v>538</v>
       </c>
       <c r="F28" t="s">
         <v>285</v>
@@ -18957,7 +20721,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>65</v>
+        <v>539</v>
       </c>
       <c r="F29" t="s">
         <v>286</v>
@@ -18968,7 +20732,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>66</v>
+        <v>457</v>
       </c>
       <c r="F30" t="s">
         <v>218</v>
@@ -18979,7 +20743,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F31" t="s">
         <v>277</v>
@@ -18990,7 +20754,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F32" t="s">
         <v>287</v>
@@ -19001,7 +20765,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F33" t="s">
         <v>262</v>
@@ -19012,7 +20776,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F34" t="s">
         <v>332</v>
@@ -19023,7 +20787,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F35" t="s">
         <v>309</v>
@@ -19034,7 +20798,7 @@
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
         <v>263</v>
@@ -19044,6 +20808,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
       <c r="F37" t="s">
         <v>310</v>
       </c>
@@ -19052,6 +20819,9 @@
       </c>
     </row>
     <row r="38">
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
       <c r="F38" t="s">
         <v>269</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -29,7 +29,7 @@
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14549" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15514" uniqueCount="543">
   <si>
     <t>description</t>
   </si>
@@ -1748,13 +1748,19 @@
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
   </si>
+  <si>
+    <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>beautify(json,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="471" x14ac:knownFonts="1">
+  <fonts count="503" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4722,8 +4728,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="814">
+  <fills count="868">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9332,8 +9540,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="843">
+  <borders count="899">
     <border>
       <left/>
       <right/>
@@ -17831,6 +18345,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -17838,7 +18916,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="498">
+  <cellXfs count="530">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19304,52 +20382,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="454" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="455" fillId="789" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="822" fillId="789" fontId="455" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="456" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="457" fillId="792" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="826" fillId="792" fontId="457" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="795" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="795" fontId="458" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="459" fillId="798" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="798" fontId="459" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="460" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="461" fillId="801" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="801" fontId="461" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="462" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="463" fillId="804" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="834" fillId="804" fontId="463" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="464" fillId="807" borderId="838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="838" fillId="807" fontId="464" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="465" fillId="810" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="810" fontId="465" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="466" fillId="810" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="810" fontId="466" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="467" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="467" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="468" fillId="813" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="813" fontId="468" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="469" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="469" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="470" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="470" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="850" fillId="816" fontId="471" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="472" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="854" fillId="819" fontId="473" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="822" fontId="474" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="825" fontId="475" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="476" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="828" fontId="477" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="478" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="862" fillId="831" fontId="479" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="866" fillId="834" fontId="480" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="837" fontId="481" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="837" fontId="482" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="483" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="840" fontId="484" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="485" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="486" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="843" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="846" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="849" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="852" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="858" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="861" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="867" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20361,7 +21535,7 @@
         <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>506</v>
+        <v>542</v>
       </c>
       <c r="N11" t="s">
         <v>94</v>
@@ -20396,7 +21570,7 @@
         <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
+        <v>506</v>
       </c>
       <c r="N12" t="s">
         <v>41</v>
@@ -20428,7 +21602,7 @@
         <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>40</v>
+        <v>541</v>
       </c>
       <c r="N13" t="s">
         <v>95</v>
@@ -20460,7 +21634,7 @@
         <v>83</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N14" t="s">
         <v>96</v>
@@ -20488,6 +21662,9 @@
       <c r="J15" t="s">
         <v>523</v>
       </c>
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
       <c r="N15" t="s">
         <v>97</v>
       </c>
@@ -20513,6 +21690,9 @@
       </c>
       <c r="J16" t="s">
         <v>84</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
       </c>
       <c r="O16" t="s">
         <v>254</v>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -43,12 +43,12 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
+    <definedName name="web">'#system'!$V$2:$V$120</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
     <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15514" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16000" uniqueCount="546">
   <si>
     <t>description</t>
   </si>
@@ -1754,13 +1754,22 @@
   <si>
     <t>beautify(json,var)</t>
   </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="503" x14ac:knownFonts="1">
+  <fonts count="519" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4930,8 +4939,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="868">
+  <fills count="895">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9846,8 +9956,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="899">
+  <borders count="927">
     <border>
       <left/>
       <right/>
@@ -18909,6 +19172,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -18916,7 +19461,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="530">
+  <cellXfs count="546">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20478,52 +21023,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="486" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="487" fillId="843" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="878" fillId="843" fontId="487" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="488" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="488" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="489" fillId="846" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="882" fillId="846" fontId="489" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="490" fillId="849" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="849" fontId="490" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="491" fillId="852" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="852" fontId="491" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="492" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="492" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="493" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="855" fontId="493" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="494" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="494" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="495" fillId="858" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="890" fillId="858" fontId="495" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="496" fillId="861" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="894" fillId="861" fontId="496" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="497" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="864" fontId="497" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="498" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="864" fontId="498" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="499" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="499" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="500" fillId="867" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="867" fontId="500" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="501" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="501" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="502" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="502" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="870" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="873" borderId="910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="876" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="879" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="882" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="885" borderId="918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="888" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="891" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="891" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="894" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20878,7 +21471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AB120"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -21477,7 +22070,7 @@
         <v>191</v>
       </c>
       <c r="AA9" t="s">
-        <v>237</v>
+        <v>544</v>
       </c>
     </row>
     <row r="10">
@@ -21515,7 +22108,7 @@
         <v>192</v>
       </c>
       <c r="AA10" t="s">
-        <v>238</v>
+        <v>545</v>
       </c>
     </row>
     <row r="11">
@@ -21550,7 +22143,7 @@
         <v>261</v>
       </c>
       <c r="AA11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12">
@@ -21584,6 +22177,9 @@
       <c r="Y12" t="s">
         <v>193</v>
       </c>
+      <c r="AA12" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -21616,6 +22212,9 @@
       <c r="Y13" t="s">
         <v>194</v>
       </c>
+      <c r="AA13" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -22206,7 +22805,7 @@
         <v>376</v>
       </c>
       <c r="V63" t="s">
-        <v>216</v>
+        <v>543</v>
       </c>
     </row>
     <row r="64">
@@ -22214,7 +22813,7 @@
         <v>347</v>
       </c>
       <c r="V64" t="s">
-        <v>408</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65">
@@ -22222,7 +22821,7 @@
         <v>315</v>
       </c>
       <c r="V65" t="s">
-        <v>508</v>
+        <v>408</v>
       </c>
     </row>
     <row r="66">
@@ -22230,7 +22829,7 @@
         <v>271</v>
       </c>
       <c r="V66" t="s">
-        <v>140</v>
+        <v>508</v>
       </c>
     </row>
     <row r="67">
@@ -22238,7 +22837,7 @@
         <v>358</v>
       </c>
       <c r="V67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68">
@@ -22246,7 +22845,7 @@
         <v>316</v>
       </c>
       <c r="V68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69">
@@ -22254,7 +22853,7 @@
         <v>448</v>
       </c>
       <c r="V69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70">
@@ -22262,7 +22861,7 @@
         <v>306</v>
       </c>
       <c r="V70" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71">
@@ -22270,7 +22869,7 @@
         <v>449</v>
       </c>
       <c r="V71" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72">
@@ -22278,7 +22877,7 @@
         <v>264</v>
       </c>
       <c r="V72" t="s">
-        <v>521</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73">
@@ -22286,7 +22885,7 @@
         <v>346</v>
       </c>
       <c r="V73" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
     </row>
     <row r="74">
@@ -22294,7 +22893,7 @@
         <v>282</v>
       </c>
       <c r="V74" t="s">
-        <v>144</v>
+        <v>537</v>
       </c>
     </row>
     <row r="75">
@@ -22302,7 +22901,7 @@
         <v>288</v>
       </c>
       <c r="V75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76">
@@ -22310,7 +22909,7 @@
         <v>293</v>
       </c>
       <c r="V76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77">
@@ -22318,7 +22917,7 @@
         <v>467</v>
       </c>
       <c r="V77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78">
@@ -22326,7 +22925,7 @@
         <v>334</v>
       </c>
       <c r="V78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79">
@@ -22334,7 +22933,7 @@
         <v>272</v>
       </c>
       <c r="V79" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80">
@@ -22342,7 +22941,7 @@
         <v>283</v>
       </c>
       <c r="V80" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81">
@@ -22350,7 +22949,7 @@
         <v>289</v>
       </c>
       <c r="V81" t="s">
-        <v>520</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82">
@@ -22358,7 +22957,7 @@
         <v>278</v>
       </c>
       <c r="V82" t="s">
-        <v>203</v>
+        <v>520</v>
       </c>
     </row>
     <row r="83">
@@ -22366,7 +22965,7 @@
         <v>273</v>
       </c>
       <c r="V83" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84">
@@ -22374,7 +22973,7 @@
         <v>290</v>
       </c>
       <c r="V84" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85">
@@ -22382,7 +22981,7 @@
         <v>274</v>
       </c>
       <c r="V85" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86">
@@ -22390,7 +22989,7 @@
         <v>275</v>
       </c>
       <c r="V86" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87">
@@ -22398,7 +22997,7 @@
         <v>307</v>
       </c>
       <c r="V87" t="s">
-        <v>500</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88">
@@ -22406,7 +23005,7 @@
         <v>313</v>
       </c>
       <c r="V88" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="89">
@@ -22414,7 +23013,7 @@
         <v>297</v>
       </c>
       <c r="V89" t="s">
-        <v>206</v>
+        <v>502</v>
       </c>
     </row>
     <row r="90">
@@ -22422,7 +23021,7 @@
         <v>342</v>
       </c>
       <c r="V90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91">
@@ -22430,7 +23029,7 @@
         <v>279</v>
       </c>
       <c r="V91" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92">
@@ -22438,141 +23037,146 @@
         <v>280</v>
       </c>
       <c r="V92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>389</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>152</v>
+        <v>389</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>509</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>165</v>
+        <v>509</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="119">
       <c r="V119" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="V120" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -25,31 +25,32 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$120</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16000" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16494" uniqueCount="554">
   <si>
     <t>description</t>
   </si>
@@ -1763,13 +1764,37 @@
   <si>
     <t>minify(xml,var)</t>
   </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="519" x14ac:knownFonts="1">
+  <fonts count="535" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5040,8 +5065,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="895">
+  <fills count="922">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10109,8 +10235,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="927">
+  <borders count="955">
     <border>
       <left/>
       <right/>
@@ -19454,6 +19733,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -19461,7 +20022,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="546">
+  <cellXfs count="562">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21071,52 +21632,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="502" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="503" fillId="870" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="906" fillId="870" fontId="503" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="504" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="504" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="505" fillId="873" borderId="910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="910" fillId="873" fontId="505" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="506" fillId="876" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="876" fontId="506" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="507" fillId="879" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="879" fontId="507" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="508" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="508" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="509" fillId="882" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="882" fontId="509" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="510" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="511" fillId="885" borderId="918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="918" fillId="885" fontId="511" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="512" fillId="888" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="922" fillId="888" fontId="512" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="513" fillId="891" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="891" fontId="513" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="514" fillId="891" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="891" fontId="514" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="515" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="879" fontId="515" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="516" fillId="894" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="894" fontId="516" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="517" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="879" fontId="517" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="518" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="518" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="897" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="900" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="903" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="906" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="912" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="915" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="921" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21471,7 +22080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB120"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -21520,48 +22129,51 @@
         <v>24</v>
       </c>
       <c r="M1" t="s">
+        <v>546</v>
+      </c>
+      <c r="N1" t="s">
         <v>198</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>241</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>438</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>459</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>452</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>363</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>434</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>55</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>56</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>461</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>229</v>
       </c>
     </row>
@@ -21603,48 +22215,51 @@
         <v>468</v>
       </c>
       <c r="M2" t="s">
+        <v>549</v>
+      </c>
+      <c r="N2" t="s">
         <v>451</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>469</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>255</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>219</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>439</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>460</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>458</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>387</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>435</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>98</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>173</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>178</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>185</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>471</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>230</v>
       </c>
     </row>
@@ -21671,7 +22286,7 @@
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>547</v>
       </c>
       <c r="I3" t="s">
         <v>354</v>
@@ -21685,43 +22300,46 @@
       <c r="L3" t="s">
         <v>87</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>550</v>
+      </c>
+      <c r="O3" t="s">
         <v>470</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>242</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>220</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>440</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>454</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>388</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>436</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>99</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>174</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>179</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>370</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>186</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>231</v>
       </c>
     </row>
@@ -21744,6 +22362,9 @@
       <c r="G4" t="s">
         <v>516</v>
       </c>
+      <c r="H4" t="s">
+        <v>548</v>
+      </c>
       <c r="I4" t="s">
         <v>355</v>
       </c>
@@ -21756,43 +22377,46 @@
       <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>551</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>243</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>221</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>441</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>455</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>364</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>437</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>359</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>175</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>180</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>186</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>462</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>232</v>
       </c>
     </row>
@@ -21824,40 +22448,40 @@
       <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>244</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>222</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>442</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>456</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>365</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>360</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>176</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>181</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>187</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>463</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>233</v>
       </c>
     </row>
@@ -21886,37 +22510,37 @@
       <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>245</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>425</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>443</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>367</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>100</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>510</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>182</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>188</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>464</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>234</v>
       </c>
     </row>
@@ -21942,37 +22566,37 @@
       <c r="L7" t="s">
         <v>317</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>33</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>246</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>453</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>444</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>366</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>101</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>511</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>183</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>189</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>465</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>235</v>
       </c>
     </row>
@@ -21998,34 +22622,34 @@
       <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>92</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>247</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>445</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>368</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>102</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>177</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>184</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>190</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>466</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>236</v>
       </c>
     </row>
@@ -22051,25 +22675,25 @@
       <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>93</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>248</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>446</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>369</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>211</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>191</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>544</v>
       </c>
     </row>
@@ -22092,22 +22716,22 @@
       <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>472</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>249</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>447</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>259</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>192</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>545</v>
       </c>
     </row>
@@ -22130,19 +22754,19 @@
       <c r="L11" t="s">
         <v>542</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>94</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>250</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>260</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>261</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>237</v>
       </c>
     </row>
@@ -22165,25 +22789,25 @@
       <c r="L12" t="s">
         <v>506</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>251</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>103</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>193</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>198</v>
+        <v>546</v>
       </c>
       <c r="D13" t="s">
         <v>343</v>
@@ -22200,25 +22824,25 @@
       <c r="L13" t="s">
         <v>541</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>95</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>256</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>328</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>194</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>198</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -22235,22 +22859,22 @@
       <c r="L14" t="s">
         <v>39</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>96</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>252</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>104</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>241</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
@@ -22264,22 +22888,22 @@
       <c r="L15" t="s">
         <v>40</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>97</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>253</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>105</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>241</v>
       </c>
       <c r="D16" t="s">
         <v>404</v>
@@ -22293,19 +22917,19 @@
       <c r="L16" t="s">
         <v>43</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>254</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>76</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>438</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
         <v>405</v>
@@ -22316,16 +22940,16 @@
       <c r="J17" t="s">
         <v>85</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>106</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="D18" t="s">
         <v>450</v>
@@ -22336,13 +22960,13 @@
       <c r="J18" t="s">
         <v>386</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="D19" t="s">
         <v>61</v>
@@ -22353,13 +22977,13 @@
       <c r="J19" t="s">
         <v>540</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>363</v>
+        <v>452</v>
       </c>
       <c r="D20" t="s">
         <v>62</v>
@@ -22370,13 +22994,13 @@
       <c r="J20" t="s">
         <v>44</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>434</v>
+        <v>363</v>
       </c>
       <c r="D21" t="s">
         <v>258</v>
@@ -22387,13 +23011,13 @@
       <c r="J21" t="s">
         <v>426</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>434</v>
       </c>
       <c r="D22" t="s">
         <v>63</v>
@@ -22404,13 +23028,13 @@
       <c r="J22" t="s">
         <v>86</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>323</v>
@@ -22421,13 +23045,13 @@
       <c r="J23" t="s">
         <v>505</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>64</v>
@@ -22438,13 +23062,13 @@
       <c r="J24" t="s">
         <v>45</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
         <v>514</v>
@@ -22455,13 +23079,13 @@
       <c r="J25" t="s">
         <v>46</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>461</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
         <v>227</v>
@@ -22469,13 +23093,13 @@
       <c r="F26" t="s">
         <v>284</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>229</v>
+        <v>461</v>
       </c>
       <c r="D27" t="s">
         <v>228</v>
@@ -22483,18 +23107,21 @@
       <c r="F27" t="s">
         <v>268</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>229</v>
+      </c>
       <c r="D28" t="s">
         <v>538</v>
       </c>
       <c r="F28" t="s">
         <v>285</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>116</v>
       </c>
     </row>
@@ -22505,7 +23132,7 @@
       <c r="F29" t="s">
         <v>286</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -22516,7 +23143,7 @@
       <c r="F30" t="s">
         <v>218</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>118</v>
       </c>
     </row>
@@ -22527,7 +23154,7 @@
       <c r="F31" t="s">
         <v>277</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>119</v>
       </c>
     </row>
@@ -22538,7 +23165,7 @@
       <c r="F32" t="s">
         <v>287</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>120</v>
       </c>
     </row>
@@ -22549,7 +23176,7 @@
       <c r="F33" t="s">
         <v>262</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>121</v>
       </c>
     </row>
@@ -22560,7 +23187,7 @@
       <c r="F34" t="s">
         <v>332</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>212</v>
       </c>
     </row>
@@ -22571,7 +23198,7 @@
       <c r="F35" t="s">
         <v>309</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>122</v>
       </c>
     </row>
@@ -22582,7 +23209,7 @@
       <c r="F36" t="s">
         <v>263</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>340</v>
       </c>
     </row>
@@ -22593,7 +23220,7 @@
       <c r="F37" t="s">
         <v>310</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>498</v>
       </c>
     </row>
@@ -22604,7 +23231,7 @@
       <c r="F38" t="s">
         <v>269</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>427</v>
       </c>
     </row>
@@ -22612,7 +23239,7 @@
       <c r="F39" t="s">
         <v>79</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>123</v>
       </c>
     </row>
@@ -22620,7 +23247,7 @@
       <c r="F40" t="s">
         <v>214</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>124</v>
       </c>
     </row>
@@ -22628,7 +23255,7 @@
       <c r="F41" t="s">
         <v>291</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>125</v>
       </c>
     </row>
@@ -22636,7 +23263,7 @@
       <c r="F42" t="s">
         <v>302</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>126</v>
       </c>
     </row>
@@ -22644,7 +23271,7 @@
       <c r="F43" t="s">
         <v>303</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>127</v>
       </c>
     </row>
@@ -22652,7 +23279,7 @@
       <c r="F44" t="s">
         <v>345</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>128</v>
       </c>
     </row>
@@ -22660,7 +23287,7 @@
       <c r="F45" t="s">
         <v>344</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>507</v>
       </c>
     </row>
@@ -22668,7 +23295,7 @@
       <c r="F46" t="s">
         <v>213</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>215</v>
       </c>
     </row>
@@ -22676,7 +23303,7 @@
       <c r="F47" t="s">
         <v>322</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>78</v>
       </c>
     </row>
@@ -22684,7 +23311,7 @@
       <c r="F48" t="s">
         <v>341</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>129</v>
       </c>
     </row>
@@ -22692,7 +23319,7 @@
       <c r="F49" t="s">
         <v>374</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>130</v>
       </c>
     </row>
@@ -22700,7 +23327,7 @@
       <c r="F50" t="s">
         <v>304</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>131</v>
       </c>
     </row>
@@ -22708,475 +23335,485 @@
       <c r="F51" t="s">
         <v>362</v>
       </c>
-      <c r="V51" t="s">
-        <v>533</v>
+      <c r="W51" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>333</v>
       </c>
-      <c r="V52" t="s">
-        <v>132</v>
+      <c r="W52" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>270</v>
       </c>
-      <c r="V53" t="s">
-        <v>351</v>
+      <c r="W53" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>294</v>
       </c>
-      <c r="V54" t="s">
-        <v>526</v>
+      <c r="W54" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>295</v>
       </c>
-      <c r="V55" t="s">
-        <v>133</v>
+      <c r="W55" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>296</v>
       </c>
-      <c r="V56" t="s">
-        <v>134</v>
+      <c r="W56" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>305</v>
       </c>
-      <c r="V57" t="s">
-        <v>135</v>
+      <c r="W57" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>314</v>
       </c>
-      <c r="V58" t="s">
-        <v>136</v>
+      <c r="W58" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>339</v>
       </c>
-      <c r="V59" t="s">
-        <v>137</v>
+      <c r="W59" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>311</v>
       </c>
-      <c r="V60" t="s">
-        <v>138</v>
+      <c r="W60" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>312</v>
       </c>
-      <c r="V61" t="s">
-        <v>139</v>
+      <c r="W61" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>375</v>
       </c>
-      <c r="V62" t="s">
-        <v>503</v>
+      <c r="W62" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>376</v>
       </c>
-      <c r="V63" t="s">
-        <v>543</v>
+      <c r="W63" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>347</v>
       </c>
-      <c r="V64" t="s">
-        <v>216</v>
+      <c r="W64" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>315</v>
       </c>
-      <c r="V65" t="s">
-        <v>408</v>
+      <c r="W65" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>271</v>
       </c>
-      <c r="V66" t="s">
-        <v>508</v>
+      <c r="W66" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>358</v>
       </c>
-      <c r="V67" t="s">
-        <v>140</v>
+      <c r="W67" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>316</v>
       </c>
-      <c r="V68" t="s">
-        <v>141</v>
+      <c r="W68" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>448</v>
       </c>
-      <c r="V69" t="s">
-        <v>142</v>
+      <c r="W69" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>306</v>
       </c>
-      <c r="V70" t="s">
-        <v>143</v>
+      <c r="W70" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>449</v>
       </c>
-      <c r="V71" t="s">
-        <v>199</v>
+      <c r="W71" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>264</v>
       </c>
-      <c r="V72" t="s">
-        <v>200</v>
+      <c r="W72" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>346</v>
       </c>
-      <c r="V73" t="s">
-        <v>521</v>
+      <c r="W73" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>282</v>
       </c>
-      <c r="V74" t="s">
-        <v>537</v>
+      <c r="W74" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>288</v>
       </c>
-      <c r="V75" t="s">
-        <v>144</v>
+      <c r="W75" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>293</v>
       </c>
-      <c r="V76" t="s">
-        <v>145</v>
+      <c r="W76" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>467</v>
       </c>
-      <c r="V77" t="s">
-        <v>146</v>
+      <c r="W77" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>334</v>
       </c>
-      <c r="V78" t="s">
-        <v>147</v>
+      <c r="W78" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>272</v>
       </c>
-      <c r="V79" t="s">
-        <v>148</v>
+      <c r="W79" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>283</v>
       </c>
-      <c r="V80" t="s">
-        <v>201</v>
+      <c r="W80" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>289</v>
       </c>
-      <c r="V81" t="s">
-        <v>202</v>
+      <c r="W81" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>278</v>
       </c>
-      <c r="V82" t="s">
-        <v>520</v>
+      <c r="W82" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>273</v>
       </c>
-      <c r="V83" t="s">
-        <v>203</v>
+      <c r="W83" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>290</v>
       </c>
-      <c r="V84" t="s">
-        <v>204</v>
+      <c r="W84" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>274</v>
       </c>
-      <c r="V85" t="s">
-        <v>217</v>
+      <c r="W85" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>275</v>
       </c>
-      <c r="V86" t="s">
-        <v>149</v>
+      <c r="W86" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>307</v>
       </c>
-      <c r="V87" t="s">
-        <v>205</v>
+      <c r="W87" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>313</v>
       </c>
-      <c r="V88" t="s">
-        <v>500</v>
+      <c r="W88" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>297</v>
       </c>
-      <c r="V89" t="s">
-        <v>502</v>
+      <c r="W89" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>342</v>
       </c>
-      <c r="V90" t="s">
-        <v>206</v>
+      <c r="W90" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>279</v>
       </c>
-      <c r="V91" t="s">
-        <v>207</v>
+      <c r="W91" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>280</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="95">
+      <c r="W95" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="120">
-      <c r="V120" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16494" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16988" uniqueCount="555">
   <si>
     <t>description</t>
   </si>
@@ -1788,13 +1788,16 @@
   <si>
     <t>saveAttributeList(var,locator,attrName)</t>
   </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="535" x14ac:knownFonts="1">
+  <fonts count="551" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5166,8 +5169,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="922">
+  <fills count="949">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10388,8 +10492,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="955">
+  <borders count="983">
     <border>
       <left/>
       <right/>
@@ -20015,6 +20272,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -20022,7 +20561,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="562">
+  <cellXfs count="578">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21680,52 +22219,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="518" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="519" fillId="897" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="934" fillId="897" fontId="519" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="520" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="520" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="521" fillId="900" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="938" fillId="900" fontId="521" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="522" fillId="903" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="942" fillId="903" fontId="522" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="523" fillId="906" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="942" fillId="906" fontId="523" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="524" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="524" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="525" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="909" fontId="525" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="526" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="526" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="527" fillId="912" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="946" fillId="912" fontId="527" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="528" fillId="915" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="950" fillId="915" fontId="528" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="529" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="918" fontId="529" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="530" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="918" fontId="530" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="531" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="906" fontId="531" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="532" fillId="921" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="921" fontId="532" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="533" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="906" fontId="533" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="534" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="534" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="924" borderId="962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="927" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="930" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="933" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="936" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="939" borderId="974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="942" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="945" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="945" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="948" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -23012,7 +23599,7 @@
         <v>426</v>
       </c>
       <c r="W21" t="s">
-        <v>110</v>
+        <v>554</v>
       </c>
     </row>
     <row r="22">

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16988" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17482" uniqueCount="555">
   <si>
     <t>description</t>
   </si>
@@ -1797,7 +1797,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="551" x14ac:knownFonts="1">
+  <fonts count="567" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5270,8 +5270,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="949">
+  <fills count="976">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10645,8 +10746,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="983">
+  <borders count="1011">
     <border>
       <left/>
       <right/>
@@ -20554,6 +20808,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -20561,7 +21097,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="578">
+  <cellXfs count="594">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22267,52 +22803,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="534" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="535" fillId="924" borderId="962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="962" fillId="924" fontId="535" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="536" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="536" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="537" fillId="927" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="966" fillId="927" fontId="537" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="538" fillId="930" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="970" fillId="930" fontId="538" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="539" fillId="933" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="970" fillId="933" fontId="539" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="540" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="540" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="541" fillId="936" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="936" fontId="541" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="542" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="542" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="543" fillId="939" borderId="974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="974" fillId="939" fontId="543" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="544" fillId="942" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="978" fillId="942" fontId="544" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="545" fillId="945" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="982" fillId="945" fontId="545" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="546" fillId="945" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="982" fillId="945" fontId="546" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="547" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="933" fontId="547" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="548" fillId="948" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="948" fontId="548" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="549" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="933" fontId="549" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="550" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="550" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="951" borderId="990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="954" borderId="994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="957" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="555" fillId="960" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="963" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="966" borderId="1002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="969" borderId="1006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="972" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="972" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="960" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="564" fillId="975" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="565" fillId="960" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="566" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -19,38 +19,39 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17482" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18970" uniqueCount="560">
   <si>
     <t>description</t>
   </si>
@@ -1791,13 +1792,28 @@
   <si>
     <t>assertIENativeMode()</t>
   </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="567" x14ac:knownFonts="1">
+  <fonts count="615" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5371,8 +5387,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="976">
+  <fills count="1057">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10899,8 +11218,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1011">
+  <borders count="1095">
     <border>
       <left/>
       <right/>
@@ -21090,6 +21868,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -21097,7 +22721,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="594">
+  <cellXfs count="642">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22851,52 +24475,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="550" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="551" fillId="951" borderId="990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="990" fillId="951" fontId="551" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="552" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="552" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="553" fillId="954" borderId="994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="994" fillId="954" fontId="553" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="554" fillId="957" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="998" fillId="957" fontId="554" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="555" fillId="960" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="998" fillId="960" fontId="555" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="556" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="556" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="557" fillId="963" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="963" fontId="557" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="558" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="558" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="559" fillId="966" borderId="1002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1002" fillId="966" fontId="559" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="560" fillId="969" borderId="1006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1006" fillId="969" fontId="560" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="561" fillId="972" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="972" fontId="561" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="562" fillId="972" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="972" fontId="562" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="563" fillId="960" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="960" fontId="563" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="564" fillId="975" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="975" fontId="564" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="565" fillId="960" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="960" fontId="565" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="566" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="566" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1018" fillId="978" fontId="567" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="568" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1022" fillId="981" fontId="569" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1026" fillId="984" fontId="570" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1026" fillId="987" fontId="571" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="572" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="990" fontId="573" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="574" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1030" fillId="993" fontId="575" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1034" fillId="996" fontId="576" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1038" fillId="999" fontId="577" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1038" fillId="999" fontId="578" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="987" fontId="579" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1002" fontId="580" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="987" fontId="581" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="582" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1046" fillId="1005" fontId="583" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="584" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1050" fillId="1008" fontId="585" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1054" fillId="1011" fontId="586" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1054" fillId="1014" fontId="587" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="588" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1017" fontId="589" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="590" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1058" fillId="1020" fontId="591" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1062" fillId="1023" fontId="592" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1066" fillId="1026" fontId="593" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1066" fillId="1026" fontId="594" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1014" fontId="595" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1029" fontId="596" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1014" fontId="597" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="598" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="1032" borderId="1074" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="600" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="601" fillId="1035" borderId="1078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="602" fillId="1038" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="603" fillId="1041" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="604" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="605" fillId="1044" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="606" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="607" fillId="1047" borderId="1086" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="1050" borderId="1090" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="1053" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="610" fillId="1053" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="611" fillId="1041" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="1056" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="613" fillId="1041" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="614" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -23251,7 +25019,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -23273,78 +25041,81 @@
         <v>529</v>
       </c>
       <c r="D1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>352</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>335</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>546</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>198</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>53</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>241</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>54</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>438</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>459</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>452</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>363</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>434</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>461</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>229</v>
       </c>
     </row>
@@ -23359,78 +25130,81 @@
         <v>532</v>
       </c>
       <c r="D2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>75</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>515</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>80</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>536</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>317</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>403</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>468</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>549</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>451</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>469</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>255</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>219</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>439</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>460</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>458</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>387</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>435</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>98</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>173</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>178</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>185</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>471</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>230</v>
       </c>
     </row>
@@ -23445,1546 +25219,1558 @@
         <v>531</v>
       </c>
       <c r="D3" t="s">
+        <v>557</v>
+      </c>
+      <c r="E3" t="s">
         <v>524</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>371</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>89</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>547</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>354</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>343</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>336</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>550</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>470</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>242</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>220</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>440</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>454</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>388</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>436</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>99</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>174</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>179</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>370</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>186</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>555</v>
       </c>
       <c r="B4" t="s">
         <v>380</v>
       </c>
       <c r="D4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>74</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>406</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>516</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>548</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>355</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>240</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>337</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>551</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>243</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>221</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>441</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>455</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>364</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>437</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>359</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>175</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>180</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>186</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>462</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>381</v>
       </c>
       <c r="D5" t="s">
+        <v>559</v>
+      </c>
+      <c r="E5" t="s">
         <v>525</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>504</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>338</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>522</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>356</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>527</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>88</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>30</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>244</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>222</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>442</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>456</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>365</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>360</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>176</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>181</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>187</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>463</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>382</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>407</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>517</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>353</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>73</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>245</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>425</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>443</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>367</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>100</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>510</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>182</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>188</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>464</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>383</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>226</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>372</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>513</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>317</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>33</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>246</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>453</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>444</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>366</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>101</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>511</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>183</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>189</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>465</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>384</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>320</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>373</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>330</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>81</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>92</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>247</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>445</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>368</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>102</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>177</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>184</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>190</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>466</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>352</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>385</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>308</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>331</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>93</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>248</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>446</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>369</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>211</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>191</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+        <v>352</v>
+      </c>
+      <c r="E10" t="s">
         <v>317</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>357</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>518</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>409</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>472</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>249</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>447</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>259</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>192</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>335</v>
-      </c>
-      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>257</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>276</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>324</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>542</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>94</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>250</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>260</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>261</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
+        <v>335</v>
+      </c>
+      <c r="E12" t="s">
         <v>321</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>265</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>325</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>42</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>506</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>41</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>251</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>103</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>193</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>546</v>
-      </c>
-      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>343</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>318</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>326</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>82</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>541</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>95</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>256</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>328</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>194</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D14" t="s">
+        <v>546</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>266</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>327</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>83</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>96</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>252</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>104</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" t="s">
         <v>60</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>267</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>523</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>97</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>253</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>105</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>241</v>
-      </c>
-      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
         <v>404</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>319</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>84</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>254</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>76</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
+        <v>241</v>
+      </c>
+      <c r="E17" t="s">
         <v>405</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>90</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>85</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>106</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>438</v>
-      </c>
-      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
         <v>450</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>91</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>386</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>459</v>
-      </c>
-      <c r="D19" t="s">
+        <v>438</v>
+      </c>
+      <c r="E19" t="s">
         <v>61</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>298</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>540</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>452</v>
-      </c>
-      <c r="D20" t="s">
+        <v>459</v>
+      </c>
+      <c r="E20" t="s">
         <v>62</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>299</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>44</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>363</v>
-      </c>
-      <c r="D21" t="s">
+        <v>452</v>
+      </c>
+      <c r="E21" t="s">
         <v>258</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>300</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>426</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>434</v>
-      </c>
-      <c r="D22" t="s">
+        <v>363</v>
+      </c>
+      <c r="E22" t="s">
         <v>63</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>301</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>86</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" t="s">
+        <v>434</v>
+      </c>
+      <c r="E23" t="s">
         <v>323</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>292</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>505</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
         <v>64</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>281</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>45</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
         <v>514</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>77</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>46</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
         <v>227</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>284</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>461</v>
-      </c>
-      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
         <v>228</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>268</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>461</v>
+      </c>
+      <c r="E28" t="s">
+        <v>538</v>
+      </c>
+      <c r="G28" t="s">
+        <v>285</v>
+      </c>
+      <c r="X28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>229</v>
       </c>
-      <c r="D28" t="s">
-        <v>538</v>
-      </c>
-      <c r="F28" t="s">
-        <v>285</v>
-      </c>
-      <c r="W28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>539</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>286</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>457</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>218</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>65</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>277</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>66</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>287</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>67</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>262</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>68</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>332</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>69</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>309</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>70</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>263</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>71</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>310</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>72</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>269</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>79</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>214</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>291</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>302</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>303</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>345</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>344</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>213</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>322</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>341</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>374</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>304</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>362</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>333</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>270</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>294</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>295</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>296</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>305</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>314</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>339</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>311</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>312</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X61" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>375</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>376</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X63" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>347</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>315</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X65" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>271</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>358</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>316</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>448</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>306</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>449</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>264</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>346</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>282</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>288</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>293</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>467</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>334</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>272</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>283</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>289</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>278</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>273</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>290</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>274</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>275</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>307</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>313</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>297</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>342</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>279</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X91" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>280</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="93">
-      <c r="W93" t="s">
+      <c r="X93" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="94">
-      <c r="W94" t="s">
+      <c r="X94" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="95">
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="96">
-      <c r="W96" t="s">
+      <c r="X96" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="97">
-      <c r="W97" t="s">
+      <c r="X97" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="98">
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="99">
-      <c r="W99" t="s">
+      <c r="X99" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="100">
-      <c r="W100" t="s">
+      <c r="X100" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="101">
-      <c r="W101" t="s">
+      <c r="X101" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="102">
-      <c r="W102" t="s">
+      <c r="X102" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="103">
-      <c r="W103" t="s">
+      <c r="X103" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="104">
-      <c r="W104" t="s">
+      <c r="X104" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="105">
-      <c r="W105" t="s">
+      <c r="X105" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="106">
-      <c r="W106" t="s">
+      <c r="X106" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="107">
-      <c r="W107" t="s">
+      <c r="X107" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="108">
-      <c r="W108" t="s">
+      <c r="X108" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="109">
-      <c r="W109" t="s">
+      <c r="X109" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="110">
-      <c r="W110" t="s">
+      <c r="X110" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="111">
-      <c r="W111" t="s">
+      <c r="X111" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="112">
-      <c r="W112" t="s">
+      <c r="X112" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="113">
-      <c r="W113" t="s">
+      <c r="X113" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="114">
-      <c r="W114" t="s">
+      <c r="X114" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="115">
-      <c r="W115" t="s">
+      <c r="X115" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="116">
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="117">
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="118">
-      <c r="W118" t="s">
+      <c r="X118" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="119">
-      <c r="W119" t="s">
+      <c r="X119" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="120">
-      <c r="W120" t="s">
+      <c r="X120" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="121">
-      <c r="W121" t="s">
+      <c r="X121" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="122">
-      <c r="W122" t="s">
+      <c r="X122" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -48,7 +48,7 @@
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$13</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18970" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19475" uniqueCount="565">
   <si>
     <t>description</t>
   </si>
@@ -1807,13 +1807,28 @@
   <si>
     <t>sendMessage(profile,queue,message,var)</t>
   </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="615" x14ac:knownFonts="1">
+  <fonts count="631" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5690,8 +5705,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1057">
+  <fills count="1084">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11677,8 +11793,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1095">
+  <borders count="1123">
     <border>
       <left/>
       <right/>
@@ -22714,6 +22983,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -22721,7 +23272,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="642">
+  <cellXfs count="658">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -24619,52 +25170,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="598" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="599" fillId="1032" borderId="1074" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1074" fillId="1032" fontId="599" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="600" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="600" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="601" fillId="1035" borderId="1078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1078" fillId="1035" fontId="601" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="602" fillId="1038" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1082" fillId="1038" fontId="602" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="603" fillId="1041" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1082" fillId="1041" fontId="603" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="604" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="604" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="605" fillId="1044" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1044" fontId="605" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="606" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="606" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="607" fillId="1047" borderId="1086" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1086" fillId="1047" fontId="607" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="608" fillId="1050" borderId="1090" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1090" fillId="1050" fontId="608" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="609" fillId="1053" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1094" fillId="1053" fontId="609" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="610" fillId="1053" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1094" fillId="1053" fontId="610" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="611" fillId="1041" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1041" fontId="611" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="612" fillId="1056" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1056" fontId="612" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="613" fillId="1041" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1041" fontId="613" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="614" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="614" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="615" fillId="1059" borderId="1102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="616" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="1062" borderId="1106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="1065" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="1068" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="1071" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="623" fillId="1074" borderId="1114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="624" fillId="1077" borderId="1118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="625" fillId="1080" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="626" fillId="1080" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="627" fillId="1068" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="628" fillId="1083" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="629" fillId="1068" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="630" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -25205,7 +25804,7 @@
         <v>471</v>
       </c>
       <c r="AC2" t="s">
-        <v>230</v>
+        <v>560</v>
       </c>
     </row>
     <row r="3">
@@ -25288,7 +25887,7 @@
         <v>186</v>
       </c>
       <c r="AC3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4">
@@ -25368,7 +25967,7 @@
         <v>462</v>
       </c>
       <c r="AC4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5">
@@ -25436,7 +26035,7 @@
         <v>463</v>
       </c>
       <c r="AC5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6">
@@ -25495,7 +26094,7 @@
         <v>464</v>
       </c>
       <c r="AC6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7">
@@ -25551,7 +26150,7 @@
         <v>465</v>
       </c>
       <c r="AC7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8">
@@ -25604,7 +26203,7 @@
         <v>466</v>
       </c>
       <c r="AC8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
@@ -25648,7 +26247,7 @@
         <v>191</v>
       </c>
       <c r="AC9" t="s">
-        <v>544</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10">
@@ -25686,7 +26285,7 @@
         <v>192</v>
       </c>
       <c r="AC10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11">
@@ -25721,7 +26320,7 @@
         <v>261</v>
       </c>
       <c r="AC11" t="s">
-        <v>237</v>
+        <v>561</v>
       </c>
     </row>
     <row r="12">
@@ -25756,7 +26355,7 @@
         <v>193</v>
       </c>
       <c r="AC12" t="s">
-        <v>238</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13">
@@ -25791,7 +26390,7 @@
         <v>194</v>
       </c>
       <c r="AC13" t="s">
-        <v>239</v>
+        <v>545</v>
       </c>
     </row>
     <row r="14">
@@ -25825,6 +26424,9 @@
       <c r="AA14" t="s">
         <v>195</v>
       </c>
+      <c r="AC14" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -25854,6 +26456,9 @@
       <c r="AA15" t="s">
         <v>196</v>
       </c>
+      <c r="AC15" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -25880,6 +26485,9 @@
       <c r="AA16" t="s">
         <v>197</v>
       </c>
+      <c r="AC16" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -25900,6 +26508,9 @@
       <c r="AA17" t="s">
         <v>528</v>
       </c>
+      <c r="AC17" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -25916,6 +26527,9 @@
       </c>
       <c r="X18" t="s">
         <v>107</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="19">

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -43,12 +43,12 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="web">'#system'!$X$2:$X$123</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19475" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19984" uniqueCount="569">
   <si>
     <t>description</t>
   </si>
@@ -1822,13 +1822,25 @@
   <si>
     <t>replace(xml,xpath,content,var)</t>
   </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="631" x14ac:knownFonts="1">
+  <fonts count="647" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5806,8 +5818,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1084">
+  <fills count="1111">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11946,8 +12059,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1123">
+  <borders count="1151">
     <border>
       <left/>
       <right/>
@@ -23265,6 +23531,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -23272,7 +23820,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="658">
+  <cellXfs count="674">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -25218,52 +25766,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="614" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="615" fillId="1059" borderId="1102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1102" fillId="1059" fontId="615" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="616" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="616" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="617" fillId="1062" borderId="1106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1106" fillId="1062" fontId="617" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="618" fillId="1065" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1110" fillId="1065" fontId="618" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="619" fillId="1068" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1110" fillId="1068" fontId="619" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="620" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="620" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="621" fillId="1071" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1071" fontId="621" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="622" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="622" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="623" fillId="1074" borderId="1114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1114" fillId="1074" fontId="623" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="624" fillId="1077" borderId="1118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1118" fillId="1077" fontId="624" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="625" fillId="1080" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1122" fillId="1080" fontId="625" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="626" fillId="1080" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1122" fillId="1080" fontId="626" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="627" fillId="1068" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1068" fontId="627" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="628" fillId="1083" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1083" fontId="628" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="629" fillId="1068" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1068" fontId="629" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="630" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="630" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="631" fillId="1086" borderId="1130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="632" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="633" fillId="1089" borderId="1134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="634" fillId="1092" borderId="1138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="635" fillId="1095" borderId="1138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="636" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="637" fillId="1098" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="638" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="639" fillId="1101" borderId="1142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="640" fillId="1104" borderId="1146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="641" fillId="1107" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="642" fillId="1107" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="643" fillId="1095" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="644" fillId="1110" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="645" fillId="1095" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="646" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -25618,7 +26214,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD122"/>
+  <dimension ref="A1:AD123"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -26390,7 +26986,7 @@
         <v>194</v>
       </c>
       <c r="AC13" t="s">
-        <v>545</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14">
@@ -26425,7 +27021,7 @@
         <v>195</v>
       </c>
       <c r="AC14" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15">
@@ -26457,7 +27053,7 @@
         <v>196</v>
       </c>
       <c r="AC15" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
     </row>
     <row r="16">
@@ -26486,7 +27082,7 @@
         <v>197</v>
       </c>
       <c r="AC16" t="s">
-        <v>237</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17">
@@ -26509,7 +27105,7 @@
         <v>528</v>
       </c>
       <c r="AC17" t="s">
-        <v>238</v>
+        <v>564</v>
       </c>
     </row>
     <row r="18">
@@ -26529,7 +27125,7 @@
         <v>107</v>
       </c>
       <c r="AC18" t="s">
-        <v>239</v>
+        <v>568</v>
       </c>
     </row>
     <row r="19">
@@ -26548,6 +27144,9 @@
       <c r="X19" t="s">
         <v>108</v>
       </c>
+      <c r="AC19" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -26565,6 +27164,9 @@
       <c r="X20" t="s">
         <v>109</v>
       </c>
+      <c r="AC20" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -26582,6 +27184,9 @@
       <c r="X21" t="s">
         <v>554</v>
       </c>
+      <c r="AC21" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -27131,7 +27736,7 @@
         <v>272</v>
       </c>
       <c r="X79" t="s">
-        <v>147</v>
+        <v>565</v>
       </c>
     </row>
     <row r="80">
@@ -27139,7 +27744,7 @@
         <v>283</v>
       </c>
       <c r="X80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81">
@@ -27147,7 +27752,7 @@
         <v>289</v>
       </c>
       <c r="X81" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82">
@@ -27155,7 +27760,7 @@
         <v>278</v>
       </c>
       <c r="X82" t="s">
-        <v>553</v>
+        <v>201</v>
       </c>
     </row>
     <row r="83">
@@ -27163,7 +27768,7 @@
         <v>273</v>
       </c>
       <c r="X83" t="s">
-        <v>202</v>
+        <v>553</v>
       </c>
     </row>
     <row r="84">
@@ -27171,7 +27776,7 @@
         <v>290</v>
       </c>
       <c r="X84" t="s">
-        <v>520</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85">
@@ -27179,7 +27784,7 @@
         <v>274</v>
       </c>
       <c r="X85" t="s">
-        <v>203</v>
+        <v>520</v>
       </c>
     </row>
     <row r="86">
@@ -27187,7 +27792,7 @@
         <v>275</v>
       </c>
       <c r="X86" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87">
@@ -27195,7 +27800,7 @@
         <v>307</v>
       </c>
       <c r="X87" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88">
@@ -27203,7 +27808,7 @@
         <v>313</v>
       </c>
       <c r="X88" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
     </row>
     <row r="89">
@@ -27211,7 +27816,7 @@
         <v>297</v>
       </c>
       <c r="X89" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90">
@@ -27219,7 +27824,7 @@
         <v>342</v>
       </c>
       <c r="X90" t="s">
-        <v>500</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91">
@@ -27227,7 +27832,7 @@
         <v>279</v>
       </c>
       <c r="X91" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="92">
@@ -27235,156 +27840,161 @@
         <v>280</v>
       </c>
       <c r="X92" t="s">
-        <v>206</v>
+        <v>502</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>389</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>152</v>
+        <v>389</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>509</v>
+        <v>164</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>165</v>
+        <v>509</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="X123" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -34,7 +34,7 @@
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
     <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="redis">'#system'!$S$2:$S$10</definedName>
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$123</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19984" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21005" uniqueCount="572">
   <si>
     <t>description</t>
   </si>
@@ -1834,13 +1834,22 @@
   <si>
     <t>replaceIn(xml,xpath,content,var)</t>
   </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="647" x14ac:knownFonts="1">
+  <fonts count="679" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5919,8 +5928,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1111">
+  <fills count="1165">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12212,8 +12423,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1151">
+  <borders count="1207">
     <border>
       <left/>
       <right/>
@@ -23813,6 +24330,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -23820,7 +24901,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="674">
+  <cellXfs count="706">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -25814,52 +26895,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="630" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="631" fillId="1086" borderId="1130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1130" fillId="1086" fontId="631" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="632" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="632" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="633" fillId="1089" borderId="1134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1134" fillId="1089" fontId="633" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="634" fillId="1092" borderId="1138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1138" fillId="1092" fontId="634" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="635" fillId="1095" borderId="1138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1138" fillId="1095" fontId="635" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="636" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="636" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="637" fillId="1098" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1098" fontId="637" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="638" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="638" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="639" fillId="1101" borderId="1142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1142" fillId="1101" fontId="639" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="640" fillId="1104" borderId="1146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1146" fillId="1104" fontId="640" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="641" fillId="1107" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1150" fillId="1107" fontId="641" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="642" fillId="1107" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1150" fillId="1107" fontId="642" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="643" fillId="1095" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1095" fontId="643" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="644" fillId="1110" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1110" fontId="644" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="645" fillId="1095" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1095" fontId="645" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="646" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="646" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1158" fillId="1113" fontId="647" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="648" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1162" fillId="1116" fontId="649" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1166" fillId="1119" fontId="650" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1166" fillId="1122" fontId="651" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="652" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1125" fontId="653" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="654" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1170" fillId="1128" fontId="655" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1174" fillId="1131" fontId="656" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1178" fillId="1134" fontId="657" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1178" fillId="1134" fontId="658" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1122" fontId="659" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1137" fontId="660" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1122" fontId="661" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="662" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="663" fillId="1140" borderId="1186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="664" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="665" fillId="1143" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="666" fillId="1146" borderId="1194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="667" fillId="1149" borderId="1194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="668" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="669" fillId="1152" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="670" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="671" fillId="1155" borderId="1198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="672" fillId="1158" borderId="1202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="673" fillId="1161" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="674" fillId="1161" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="675" fillId="1149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="676" fillId="1164" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="677" fillId="1149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="678" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -26214,7 +27391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD123"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -27041,7 +28218,7 @@
         <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>97</v>
+        <v>569</v>
       </c>
       <c r="Q15" t="s">
         <v>253</v>
@@ -27072,6 +28249,9 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
+      <c r="P16" t="s">
+        <v>570</v>
+      </c>
       <c r="Q16" t="s">
         <v>254</v>
       </c>
@@ -27099,7 +28279,7 @@
         <v>85</v>
       </c>
       <c r="X17" t="s">
-        <v>106</v>
+        <v>571</v>
       </c>
       <c r="AA17" t="s">
         <v>528</v>
@@ -27122,7 +28302,7 @@
         <v>386</v>
       </c>
       <c r="X18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC18" t="s">
         <v>568</v>
@@ -27142,7 +28322,7 @@
         <v>540</v>
       </c>
       <c r="X19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC19" t="s">
         <v>237</v>
@@ -27162,7 +28342,7 @@
         <v>44</v>
       </c>
       <c r="X20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC20" t="s">
         <v>238</v>
@@ -27182,7 +28362,7 @@
         <v>426</v>
       </c>
       <c r="X21" t="s">
-        <v>554</v>
+        <v>109</v>
       </c>
       <c r="AC21" t="s">
         <v>239</v>
@@ -27202,7 +28382,7 @@
         <v>86</v>
       </c>
       <c r="X22" t="s">
-        <v>111</v>
+        <v>554</v>
       </c>
     </row>
     <row r="23">
@@ -27219,7 +28399,7 @@
         <v>505</v>
       </c>
       <c r="X23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
@@ -27236,7 +28416,7 @@
         <v>45</v>
       </c>
       <c r="X24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
@@ -27253,7 +28433,7 @@
         <v>46</v>
       </c>
       <c r="X25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
@@ -27267,7 +28447,7 @@
         <v>284</v>
       </c>
       <c r="X26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -27281,7 +28461,7 @@
         <v>268</v>
       </c>
       <c r="X27" t="s">
-        <v>329</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
@@ -27295,7 +28475,7 @@
         <v>285</v>
       </c>
       <c r="X28" t="s">
-        <v>116</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29">
@@ -27309,7 +28489,7 @@
         <v>286</v>
       </c>
       <c r="X29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -27320,7 +28500,7 @@
         <v>218</v>
       </c>
       <c r="X30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -27331,7 +28511,7 @@
         <v>277</v>
       </c>
       <c r="X31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -27342,7 +28522,7 @@
         <v>287</v>
       </c>
       <c r="X32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -27353,7 +28533,7 @@
         <v>262</v>
       </c>
       <c r="X33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
@@ -27364,7 +28544,7 @@
         <v>332</v>
       </c>
       <c r="X34" t="s">
-        <v>212</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
@@ -27375,7 +28555,7 @@
         <v>309</v>
       </c>
       <c r="X35" t="s">
-        <v>122</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36">
@@ -27386,7 +28566,7 @@
         <v>263</v>
       </c>
       <c r="X36" t="s">
-        <v>340</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
@@ -27397,7 +28577,7 @@
         <v>310</v>
       </c>
       <c r="X37" t="s">
-        <v>498</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38">
@@ -27408,7 +28588,7 @@
         <v>269</v>
       </c>
       <c r="X38" t="s">
-        <v>427</v>
+        <v>498</v>
       </c>
     </row>
     <row r="39">
@@ -27416,7 +28596,7 @@
         <v>79</v>
       </c>
       <c r="X39" t="s">
-        <v>123</v>
+        <v>427</v>
       </c>
     </row>
     <row r="40">
@@ -27424,7 +28604,7 @@
         <v>214</v>
       </c>
       <c r="X40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
@@ -27432,7 +28612,7 @@
         <v>291</v>
       </c>
       <c r="X41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
@@ -27440,7 +28620,7 @@
         <v>302</v>
       </c>
       <c r="X42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
@@ -27448,7 +28628,7 @@
         <v>303</v>
       </c>
       <c r="X43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
@@ -27456,7 +28636,7 @@
         <v>345</v>
       </c>
       <c r="X44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
@@ -27464,7 +28644,7 @@
         <v>344</v>
       </c>
       <c r="X45" t="s">
-        <v>507</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
@@ -27472,7 +28652,7 @@
         <v>213</v>
       </c>
       <c r="X46" t="s">
-        <v>215</v>
+        <v>507</v>
       </c>
     </row>
     <row r="47">
@@ -27480,7 +28660,7 @@
         <v>322</v>
       </c>
       <c r="X47" t="s">
-        <v>78</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48">
@@ -27488,7 +28668,7 @@
         <v>341</v>
       </c>
       <c r="X48" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
@@ -27496,7 +28676,7 @@
         <v>374</v>
       </c>
       <c r="X49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50">
@@ -27504,7 +28684,7 @@
         <v>304</v>
       </c>
       <c r="X50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51">
@@ -27512,7 +28692,7 @@
         <v>362</v>
       </c>
       <c r="X51" t="s">
-        <v>552</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52">
@@ -27520,7 +28700,7 @@
         <v>333</v>
       </c>
       <c r="X52" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
     </row>
     <row r="53">
@@ -27528,7 +28708,7 @@
         <v>270</v>
       </c>
       <c r="X53" t="s">
-        <v>132</v>
+        <v>533</v>
       </c>
     </row>
     <row r="54">
@@ -27536,7 +28716,7 @@
         <v>294</v>
       </c>
       <c r="X54" t="s">
-        <v>351</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55">
@@ -27544,7 +28724,7 @@
         <v>295</v>
       </c>
       <c r="X55" t="s">
-        <v>526</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56">
@@ -27552,7 +28732,7 @@
         <v>296</v>
       </c>
       <c r="X56" t="s">
-        <v>133</v>
+        <v>526</v>
       </c>
     </row>
     <row r="57">
@@ -27560,7 +28740,7 @@
         <v>305</v>
       </c>
       <c r="X57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58">
@@ -27568,7 +28748,7 @@
         <v>314</v>
       </c>
       <c r="X58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59">
@@ -27576,7 +28756,7 @@
         <v>339</v>
       </c>
       <c r="X59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60">
@@ -27584,7 +28764,7 @@
         <v>311</v>
       </c>
       <c r="X60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61">
@@ -27592,7 +28772,7 @@
         <v>312</v>
       </c>
       <c r="X61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62">
@@ -27600,7 +28780,7 @@
         <v>375</v>
       </c>
       <c r="X62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63">
@@ -27608,7 +28788,7 @@
         <v>376</v>
       </c>
       <c r="X63" t="s">
-        <v>503</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64">
@@ -27616,7 +28796,7 @@
         <v>347</v>
       </c>
       <c r="X64" t="s">
-        <v>543</v>
+        <v>503</v>
       </c>
     </row>
     <row r="65">
@@ -27624,7 +28804,7 @@
         <v>315</v>
       </c>
       <c r="X65" t="s">
-        <v>216</v>
+        <v>543</v>
       </c>
     </row>
     <row r="66">
@@ -27632,7 +28812,7 @@
         <v>271</v>
       </c>
       <c r="X66" t="s">
-        <v>408</v>
+        <v>216</v>
       </c>
     </row>
     <row r="67">
@@ -27640,7 +28820,7 @@
         <v>358</v>
       </c>
       <c r="X67" t="s">
-        <v>508</v>
+        <v>408</v>
       </c>
     </row>
     <row r="68">
@@ -27648,7 +28828,7 @@
         <v>316</v>
       </c>
       <c r="X68" t="s">
-        <v>140</v>
+        <v>508</v>
       </c>
     </row>
     <row r="69">
@@ -27656,7 +28836,7 @@
         <v>448</v>
       </c>
       <c r="X69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70">
@@ -27664,7 +28844,7 @@
         <v>306</v>
       </c>
       <c r="X70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71">
@@ -27672,7 +28852,7 @@
         <v>449</v>
       </c>
       <c r="X71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72">
@@ -27680,7 +28860,7 @@
         <v>264</v>
       </c>
       <c r="X72" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73">
@@ -27688,7 +28868,7 @@
         <v>346</v>
       </c>
       <c r="X73" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74">
@@ -27696,7 +28876,7 @@
         <v>282</v>
       </c>
       <c r="X74" t="s">
-        <v>521</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75">
@@ -27704,7 +28884,7 @@
         <v>288</v>
       </c>
       <c r="X75" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
     </row>
     <row r="76">
@@ -27712,7 +28892,7 @@
         <v>293</v>
       </c>
       <c r="X76" t="s">
-        <v>144</v>
+        <v>537</v>
       </c>
     </row>
     <row r="77">
@@ -27720,7 +28900,7 @@
         <v>467</v>
       </c>
       <c r="X77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78">
@@ -27728,7 +28908,7 @@
         <v>334</v>
       </c>
       <c r="X78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79">
@@ -27736,7 +28916,7 @@
         <v>272</v>
       </c>
       <c r="X79" t="s">
-        <v>565</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80">
@@ -27744,7 +28924,7 @@
         <v>283</v>
       </c>
       <c r="X80" t="s">
-        <v>147</v>
+        <v>565</v>
       </c>
     </row>
     <row r="81">
@@ -27752,7 +28932,7 @@
         <v>289</v>
       </c>
       <c r="X81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82">
@@ -27760,7 +28940,7 @@
         <v>278</v>
       </c>
       <c r="X82" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83">
@@ -27768,7 +28948,7 @@
         <v>273</v>
       </c>
       <c r="X83" t="s">
-        <v>553</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84">
@@ -27776,7 +28956,7 @@
         <v>290</v>
       </c>
       <c r="X84" t="s">
-        <v>202</v>
+        <v>553</v>
       </c>
     </row>
     <row r="85">
@@ -27784,7 +28964,7 @@
         <v>274</v>
       </c>
       <c r="X85" t="s">
-        <v>520</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86">
@@ -27792,7 +28972,7 @@
         <v>275</v>
       </c>
       <c r="X86" t="s">
-        <v>203</v>
+        <v>520</v>
       </c>
     </row>
     <row r="87">
@@ -27800,7 +28980,7 @@
         <v>307</v>
       </c>
       <c r="X87" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88">
@@ -27808,7 +28988,7 @@
         <v>313</v>
       </c>
       <c r="X88" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="89">
@@ -27816,7 +28996,7 @@
         <v>297</v>
       </c>
       <c r="X89" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
     </row>
     <row r="90">
@@ -27824,7 +29004,7 @@
         <v>342</v>
       </c>
       <c r="X90" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91">
@@ -27832,7 +29012,7 @@
         <v>279</v>
       </c>
       <c r="X91" t="s">
-        <v>500</v>
+        <v>205</v>
       </c>
     </row>
     <row r="92">
@@ -27840,161 +29020,166 @@
         <v>280</v>
       </c>
       <c r="X92" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>206</v>
+        <v>502</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>389</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>152</v>
+        <v>389</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>509</v>
+        <v>164</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>165</v>
+        <v>509</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="X124" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21005" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22028" uniqueCount="573">
   <si>
     <t>description</t>
   </si>
@@ -1843,13 +1843,16 @@
   <si>
     <t>assertElementsPresent(prefix)</t>
   </si>
+  <si>
+    <t>saveValues(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="679" x14ac:knownFonts="1">
+  <fonts count="711" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6130,8 +6133,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1165">
+  <fills count="1219">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12729,8 +12934,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1207">
+  <borders count="1263">
     <border>
       <left/>
       <right/>
@@ -24894,6 +25405,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -24901,7 +25976,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="706">
+  <cellXfs count="738">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -26991,52 +28066,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="662" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="663" fillId="1140" borderId="1186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1186" fillId="1140" fontId="663" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="664" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="664" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="665" fillId="1143" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1190" fillId="1143" fontId="665" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="666" fillId="1146" borderId="1194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1194" fillId="1146" fontId="666" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="667" fillId="1149" borderId="1194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1194" fillId="1149" fontId="667" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="668" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="668" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="669" fillId="1152" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1152" fontId="669" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="670" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="670" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="671" fillId="1155" borderId="1198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1198" fillId="1155" fontId="671" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="672" fillId="1158" borderId="1202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1202" fillId="1158" fontId="672" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="673" fillId="1161" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1206" fillId="1161" fontId="673" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="674" fillId="1161" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1206" fillId="1161" fontId="674" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="675" fillId="1149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1149" fontId="675" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="676" fillId="1164" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1164" fontId="676" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="677" fillId="1149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1149" fontId="677" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="678" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="678" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1214" fillId="1167" fontId="679" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="680" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1218" fillId="1170" fontId="681" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1222" fillId="1173" fontId="682" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1222" fillId="1176" fontId="683" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="684" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1179" fontId="685" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="686" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1226" fillId="1182" fontId="687" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1230" fillId="1185" fontId="688" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1234" fillId="1188" fontId="689" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1234" fillId="1188" fontId="690" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1176" fontId="691" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1191" fontId="692" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1176" fontId="693" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="694" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="695" fillId="1194" borderId="1242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="696" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="697" fillId="1197" borderId="1246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="698" fillId="1200" borderId="1250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="699" fillId="1203" borderId="1250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="700" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="701" fillId="1206" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="702" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="703" fillId="1209" borderId="1254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="704" fillId="1212" borderId="1258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="705" fillId="1215" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="706" fillId="1215" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="707" fillId="1203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="708" fillId="1218" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="709" fillId="1203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="710" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -27391,7 +28562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -29060,126 +30231,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>151</v>
+        <v>572</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>389</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>152</v>
+        <v>389</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>509</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>165</v>
+        <v>509</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -20,14 +20,14 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22028" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22544" uniqueCount="577">
   <si>
     <t>description</t>
   </si>
@@ -1846,13 +1846,25 @@
   <si>
     <t>saveValues(var,locator)</t>
   </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="711" x14ac:knownFonts="1">
+  <fonts count="727" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6335,8 +6347,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1219">
+  <fills count="1246">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13240,8 +13353,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1263">
+  <borders count="1291">
     <border>
       <left/>
       <right/>
@@ -25969,6 +26235,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -25976,7 +26524,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="738">
+  <cellXfs count="754">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -28162,52 +28710,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="694" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="695" fillId="1194" borderId="1242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1242" fillId="1194" fontId="695" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="696" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="696" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="697" fillId="1197" borderId="1246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1246" fillId="1197" fontId="697" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="698" fillId="1200" borderId="1250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1250" fillId="1200" fontId="698" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="699" fillId="1203" borderId="1250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1250" fillId="1203" fontId="699" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="700" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="700" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="701" fillId="1206" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1206" fontId="701" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="702" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="702" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="703" fillId="1209" borderId="1254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1254" fillId="1209" fontId="703" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="704" fillId="1212" borderId="1258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1258" fillId="1212" fontId="704" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="705" fillId="1215" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1262" fillId="1215" fontId="705" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="706" fillId="1215" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1262" fillId="1215" fontId="706" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="707" fillId="1203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1203" fontId="707" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="708" fillId="1218" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1218" fontId="708" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="709" fillId="1203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1203" fontId="709" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="710" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="710" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="711" fillId="1221" borderId="1270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="712" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="713" fillId="1224" borderId="1274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="714" fillId="1227" borderId="1278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="715" fillId="1230" borderId="1278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="716" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="717" fillId="1233" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="718" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="719" fillId="1236" borderId="1282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="720" fillId="1239" borderId="1286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="721" fillId="1242" borderId="1290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="722" fillId="1242" borderId="1290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="723" fillId="1230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="724" fillId="1245" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="725" fillId="1230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="726" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -28992,6 +29588,9 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
+      <c r="F6" t="s">
+        <v>573</v>
+      </c>
       <c r="G6" t="s">
         <v>407</v>
       </c>
@@ -29114,7 +29713,7 @@
         <v>330</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>574</v>
       </c>
       <c r="M8" t="s">
         <v>34</v>
@@ -29167,7 +29766,7 @@
         <v>331</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="M9" t="s">
         <v>35</v>
@@ -29208,7 +29807,7 @@
         <v>518</v>
       </c>
       <c r="K10" t="s">
-        <v>409</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
         <v>36</v>
@@ -29246,7 +29845,7 @@
         <v>324</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>575</v>
       </c>
       <c r="M11" t="s">
         <v>542</v>
@@ -29281,7 +29880,7 @@
         <v>325</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>409</v>
       </c>
       <c r="M12" t="s">
         <v>506</v>
@@ -29316,7 +29915,7 @@
         <v>326</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
         <v>541</v>
@@ -29351,7 +29950,7 @@
         <v>327</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
         <v>39</v>
@@ -29383,7 +29982,7 @@
         <v>267</v>
       </c>
       <c r="K15" t="s">
-        <v>523</v>
+        <v>576</v>
       </c>
       <c r="M15" t="s">
         <v>40</v>
@@ -29415,7 +30014,7 @@
         <v>319</v>
       </c>
       <c r="K16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M16" t="s">
         <v>43</v>
@@ -29447,7 +30046,7 @@
         <v>90</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X17" t="s">
         <v>571</v>
@@ -29470,7 +30069,7 @@
         <v>91</v>
       </c>
       <c r="K18" t="s">
-        <v>386</v>
+        <v>523</v>
       </c>
       <c r="X18" t="s">
         <v>106</v>
@@ -29490,7 +30089,7 @@
         <v>298</v>
       </c>
       <c r="K19" t="s">
-        <v>540</v>
+        <v>84</v>
       </c>
       <c r="X19" t="s">
         <v>107</v>
@@ -29510,7 +30109,7 @@
         <v>299</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="X20" t="s">
         <v>108</v>
@@ -29530,7 +30129,7 @@
         <v>300</v>
       </c>
       <c r="K21" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="X21" t="s">
         <v>109</v>
@@ -29550,7 +30149,7 @@
         <v>301</v>
       </c>
       <c r="K22" t="s">
-        <v>86</v>
+        <v>540</v>
       </c>
       <c r="X22" t="s">
         <v>554</v>
@@ -29567,7 +30166,7 @@
         <v>292</v>
       </c>
       <c r="K23" t="s">
-        <v>505</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s">
         <v>111</v>
@@ -29584,7 +30183,7 @@
         <v>281</v>
       </c>
       <c r="K24" t="s">
-        <v>45</v>
+        <v>426</v>
       </c>
       <c r="X24" t="s">
         <v>112</v>
@@ -29601,7 +30200,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="X25" t="s">
         <v>113</v>
@@ -29617,6 +30216,9 @@
       <c r="G26" t="s">
         <v>284</v>
       </c>
+      <c r="K26" t="s">
+        <v>505</v>
+      </c>
       <c r="X26" t="s">
         <v>114</v>
       </c>
@@ -29631,6 +30233,9 @@
       <c r="G27" t="s">
         <v>268</v>
       </c>
+      <c r="K27" t="s">
+        <v>45</v>
+      </c>
       <c r="X27" t="s">
         <v>115</v>
       </c>
@@ -29644,6 +30249,9 @@
       </c>
       <c r="G28" t="s">
         <v>285</v>
+      </c>
+      <c r="K28" t="s">
+        <v>46</v>
       </c>
       <c r="X28" t="s">
         <v>329</v>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -23,7 +23,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22544" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23062" uniqueCount="579">
   <si>
     <t>description</t>
   </si>
@@ -1858,13 +1858,19 @@
   <si>
     <t>moveFilesByRegex(sourceDir,regex,target)</t>
   </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="727" x14ac:knownFonts="1">
+  <fonts count="743" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6448,8 +6454,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1246">
+  <fills count="1273">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13506,8 +13613,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1291">
+  <borders count="1319">
     <border>
       <left/>
       <right/>
@@ -26517,6 +26777,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -26524,7 +27066,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="754">
+  <cellXfs count="770">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -28758,52 +29300,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="710" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="711" fillId="1221" borderId="1270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1270" fillId="1221" fontId="711" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="712" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="712" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="713" fillId="1224" borderId="1274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1274" fillId="1224" fontId="713" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="714" fillId="1227" borderId="1278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1278" fillId="1227" fontId="714" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="715" fillId="1230" borderId="1278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1278" fillId="1230" fontId="715" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="716" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="716" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="717" fillId="1233" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1233" fontId="717" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="718" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="718" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="719" fillId="1236" borderId="1282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1282" fillId="1236" fontId="719" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="720" fillId="1239" borderId="1286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1286" fillId="1239" fontId="720" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="721" fillId="1242" borderId="1290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1290" fillId="1242" fontId="721" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="722" fillId="1242" borderId="1290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1290" fillId="1242" fontId="722" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="723" fillId="1230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1230" fontId="723" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="724" fillId="1245" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1245" fontId="724" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="725" fillId="1230" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1230" fontId="725" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="726" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="726" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="727" fillId="1248" borderId="1298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="728" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="729" fillId="1251" borderId="1302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="730" fillId="1254" borderId="1306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="731" fillId="1257" borderId="1306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="732" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="733" fillId="1260" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="734" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="735" fillId="1263" borderId="1310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="736" fillId="1266" borderId="1314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="737" fillId="1269" borderId="1318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="738" fillId="1269" borderId="1318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="739" fillId="1257" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="740" fillId="1272" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="741" fillId="1257" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="742" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -30309,7 +30899,7 @@
         <v>67</v>
       </c>
       <c r="G33" t="s">
-        <v>262</v>
+        <v>577</v>
       </c>
       <c r="X33" t="s">
         <v>120</v>
@@ -30320,7 +30910,7 @@
         <v>68</v>
       </c>
       <c r="G34" t="s">
-        <v>332</v>
+        <v>262</v>
       </c>
       <c r="X34" t="s">
         <v>121</v>
@@ -30331,7 +30921,7 @@
         <v>69</v>
       </c>
       <c r="G35" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="X35" t="s">
         <v>212</v>
@@ -30342,7 +30932,7 @@
         <v>70</v>
       </c>
       <c r="G36" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="X36" t="s">
         <v>122</v>
@@ -30353,7 +30943,7 @@
         <v>71</v>
       </c>
       <c r="G37" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="X37" t="s">
         <v>340</v>
@@ -30364,7 +30954,7 @@
         <v>72</v>
       </c>
       <c r="G38" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="X38" t="s">
         <v>498</v>
@@ -30372,7 +30962,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="X39" t="s">
         <v>427</v>
@@ -30380,7 +30970,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s">
         <v>123</v>
@@ -30388,7 +30978,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>291</v>
+        <v>214</v>
       </c>
       <c r="X41" t="s">
         <v>124</v>
@@ -30396,7 +30986,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="X42" t="s">
         <v>125</v>
@@ -30404,7 +30994,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X43" t="s">
         <v>126</v>
@@ -30412,7 +31002,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>345</v>
+        <v>303</v>
       </c>
       <c r="X44" t="s">
         <v>127</v>
@@ -30420,7 +31010,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X45" t="s">
         <v>128</v>
@@ -30428,7 +31018,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="X46" t="s">
         <v>507</v>
@@ -30436,7 +31026,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>322</v>
+        <v>213</v>
       </c>
       <c r="X47" t="s">
         <v>215</v>
@@ -30444,7 +31034,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="X48" t="s">
         <v>78</v>
@@ -30452,7 +31042,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="X49" t="s">
         <v>129</v>
@@ -30460,7 +31050,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>304</v>
+        <v>374</v>
       </c>
       <c r="X50" t="s">
         <v>130</v>
@@ -30468,7 +31058,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>362</v>
+        <v>304</v>
       </c>
       <c r="X51" t="s">
         <v>131</v>
@@ -30476,7 +31066,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="X52" t="s">
         <v>552</v>
@@ -30484,7 +31074,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="X53" t="s">
         <v>533</v>
@@ -30492,7 +31082,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="X54" t="s">
         <v>132</v>
@@ -30500,7 +31090,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="X55" t="s">
         <v>351</v>
@@ -30508,7 +31098,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="X56" t="s">
         <v>526</v>
@@ -30516,7 +31106,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="X57" t="s">
         <v>133</v>
@@ -30524,7 +31114,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="X58" t="s">
         <v>134</v>
@@ -30532,7 +31122,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="X59" t="s">
         <v>135</v>
@@ -30540,7 +31130,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="X60" t="s">
         <v>136</v>
@@ -30548,7 +31138,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="X61" t="s">
         <v>137</v>
@@ -30556,7 +31146,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>375</v>
+        <v>312</v>
       </c>
       <c r="X62" t="s">
         <v>138</v>
@@ -30564,7 +31154,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="X63" t="s">
         <v>139</v>
@@ -30572,7 +31162,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>347</v>
+        <v>376</v>
       </c>
       <c r="X64" t="s">
         <v>503</v>
@@ -30580,7 +31170,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="X65" t="s">
         <v>543</v>
@@ -30588,7 +31178,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
       <c r="X66" t="s">
         <v>216</v>
@@ -30596,7 +31186,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>358</v>
+        <v>271</v>
       </c>
       <c r="X67" t="s">
         <v>408</v>
@@ -30604,7 +31194,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="X68" t="s">
         <v>508</v>
@@ -30612,7 +31202,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>448</v>
+        <v>316</v>
       </c>
       <c r="X69" t="s">
         <v>140</v>
@@ -30620,7 +31210,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>306</v>
+        <v>448</v>
       </c>
       <c r="X70" t="s">
         <v>141</v>
@@ -30628,7 +31218,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>449</v>
+        <v>306</v>
       </c>
       <c r="X71" t="s">
         <v>142</v>
@@ -30636,7 +31226,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>264</v>
+        <v>449</v>
       </c>
       <c r="X72" t="s">
         <v>143</v>
@@ -30644,7 +31234,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>346</v>
+        <v>264</v>
       </c>
       <c r="X73" t="s">
         <v>199</v>
@@ -30652,7 +31242,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>282</v>
+        <v>578</v>
       </c>
       <c r="X74" t="s">
         <v>200</v>
@@ -30660,7 +31250,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>288</v>
+        <v>346</v>
       </c>
       <c r="X75" t="s">
         <v>521</v>
@@ -30668,7 +31258,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="X76" t="s">
         <v>537</v>
@@ -30676,7 +31266,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>467</v>
+        <v>288</v>
       </c>
       <c r="X77" t="s">
         <v>144</v>
@@ -30684,7 +31274,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>334</v>
+        <v>293</v>
       </c>
       <c r="X78" t="s">
         <v>145</v>
@@ -30692,7 +31282,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>272</v>
+        <v>467</v>
       </c>
       <c r="X79" t="s">
         <v>146</v>
@@ -30700,7 +31290,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="X80" t="s">
         <v>565</v>
@@ -30708,7 +31298,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="X81" t="s">
         <v>147</v>
@@ -30716,7 +31306,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="X82" t="s">
         <v>148</v>
@@ -30724,7 +31314,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="X83" t="s">
         <v>201</v>
@@ -30732,7 +31322,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="X84" t="s">
         <v>553</v>
@@ -30740,7 +31330,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X85" t="s">
         <v>202</v>
@@ -30748,7 +31338,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="X86" t="s">
         <v>520</v>
@@ -30756,7 +31346,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="X87" t="s">
         <v>203</v>
@@ -30764,7 +31354,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="X88" t="s">
         <v>204</v>
@@ -30772,7 +31362,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="X89" t="s">
         <v>217</v>
@@ -30780,7 +31370,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="X90" t="s">
         <v>149</v>
@@ -30788,7 +31378,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="X91" t="s">
         <v>205</v>
@@ -30796,18 +31386,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>280</v>
+        <v>342</v>
       </c>
       <c r="X92" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>279</v>
+      </c>
       <c r="X93" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>280</v>
+      </c>
       <c r="X94" t="s">
         <v>206</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23062" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24102" uniqueCount="581">
   <si>
     <t>description</t>
   </si>
@@ -1864,13 +1864,19 @@
   <si>
     <t>saveTextByLocator(var,locator)</t>
   </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="743" x14ac:knownFonts="1">
+  <fonts count="775" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6555,8 +6561,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1273">
+  <fills count="1333">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13766,8 +13974,348 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1319">
+  <borders count="1375">
     <border>
       <left/>
       <right/>
@@ -27059,6 +27607,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -27066,7 +28178,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="770">
+  <cellXfs count="802">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -29348,52 +30460,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="726" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="727" fillId="1248" borderId="1298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1298" fillId="1248" fontId="727" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="728" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="728" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="729" fillId="1251" borderId="1302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1302" fillId="1251" fontId="729" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="730" fillId="1254" borderId="1306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1306" fillId="1254" fontId="730" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="731" fillId="1257" borderId="1306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1306" fillId="1257" fontId="731" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="732" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="732" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="733" fillId="1260" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1260" fontId="733" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="734" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="734" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="735" fillId="1263" borderId="1310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1310" fillId="1263" fontId="735" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="736" fillId="1266" borderId="1314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1314" fillId="1266" fontId="736" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="737" fillId="1269" borderId="1318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1318" fillId="1269" fontId="737" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="738" fillId="1269" borderId="1318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1318" fillId="1269" fontId="738" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="739" fillId="1257" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1257" fontId="739" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="740" fillId="1272" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1272" fontId="740" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="741" fillId="1257" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1257" fontId="741" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="742" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="742" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1326" fillId="1275" fontId="743" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="744" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1330" fillId="1278" fontId="745" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1334" fillId="1281" fontId="746" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1334" fillId="1284" fontId="747" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="748" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1287" fontId="749" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="750" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1338" fillId="1290" fontId="751" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1342" fillId="1293" fontId="752" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1346" fillId="1296" fontId="753" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1346" fillId="1296" fontId="754" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1284" fontId="755" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1299" fontId="756" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1284" fontId="757" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1302" fontId="758" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="759" fillId="1305" borderId="1354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="760" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="761" fillId="1308" borderId="1358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="762" fillId="1311" borderId="1362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="763" fillId="1314" borderId="1362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="764" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="765" fillId="1317" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="766" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="767" fillId="1320" borderId="1366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="768" fillId="1323" borderId="1370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="769" fillId="1326" borderId="1374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="770" fillId="1326" borderId="1374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="771" fillId="1314" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="772" fillId="1329" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="773" fillId="1314" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="774" fillId="1332" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -29748,7 +30956,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -31440,126 +32648,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>151</v>
+        <v>579</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>389</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>152</v>
+        <v>580</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>153</v>
+        <v>389</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>509</v>
+        <v>163</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>166</v>
+        <v>509</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -30,28 +30,29 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24102" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24630" uniqueCount="588">
   <si>
     <t>description</t>
   </si>
@@ -1870,13 +1871,34 @@
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
   </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="775" x14ac:knownFonts="1">
+  <fonts count="791" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6763,8 +6785,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1333">
+  <fills count="1363">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14314,8 +14437,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1375">
+  <borders count="1403">
     <border>
       <left/>
       <right/>
@@ -28171,6 +28464,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -28178,7 +28753,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="802">
+  <cellXfs count="818">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -30556,52 +31131,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1302" fontId="758" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="759" fillId="1305" borderId="1354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1354" fillId="1305" fontId="759" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="760" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="760" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="761" fillId="1308" borderId="1358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1358" fillId="1308" fontId="761" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="762" fillId="1311" borderId="1362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1362" fillId="1311" fontId="762" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="763" fillId="1314" borderId="1362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1362" fillId="1314" fontId="763" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="764" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="764" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="765" fillId="1317" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1317" fontId="765" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="766" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="766" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="767" fillId="1320" borderId="1366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1366" fillId="1320" fontId="767" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="768" fillId="1323" borderId="1370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1370" fillId="1323" fontId="768" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="769" fillId="1326" borderId="1374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1374" fillId="1326" fontId="769" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="770" fillId="1326" borderId="1374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1374" fillId="1326" fontId="770" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="771" fillId="1314" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1314" fontId="771" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="772" fillId="1329" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1329" fontId="772" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="773" fillId="1314" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1314" fontId="773" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="774" fillId="1332" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1332" fontId="774" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="775" fillId="1335" borderId="1382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="776" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="777" fillId="1338" borderId="1386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="778" fillId="1341" borderId="1390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="779" fillId="1344" borderId="1390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="780" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="781" fillId="1347" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="782" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="783" fillId="1350" borderId="1394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="784" fillId="1353" borderId="1398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="785" fillId="1356" borderId="1402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="786" fillId="1356" borderId="1402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="787" fillId="1344" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="788" fillId="1359" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="789" fillId="1344" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="790" fillId="1362" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -30956,7 +31579,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -31008,51 +31631,54 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
+        <v>581</v>
+      </c>
+      <c r="O1" t="s">
         <v>546</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>198</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>241</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>54</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>438</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>459</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>452</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>363</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>434</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>58</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>461</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>229</v>
       </c>
     </row>
@@ -31097,51 +31723,54 @@
         <v>468</v>
       </c>
       <c r="N2" t="s">
+        <v>582</v>
+      </c>
+      <c r="O2" t="s">
         <v>549</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>451</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>469</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>255</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>219</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>439</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>460</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>458</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>387</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>435</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>98</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>173</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>178</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>185</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>471</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>560</v>
       </c>
     </row>
@@ -31186,45 +31815,48 @@
         <v>87</v>
       </c>
       <c r="N3" t="s">
+        <v>583</v>
+      </c>
+      <c r="O3" t="s">
         <v>550</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>470</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>242</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>220</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>440</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>454</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>388</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>436</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>99</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>174</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>179</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>370</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>186</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>230</v>
       </c>
     </row>
@@ -31266,45 +31898,48 @@
         <v>25</v>
       </c>
       <c r="N4" t="s">
+        <v>584</v>
+      </c>
+      <c r="O4" t="s">
         <v>551</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>243</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>221</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>441</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>455</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>364</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>437</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>359</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>175</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>180</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>186</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>462</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>231</v>
       </c>
     </row>
@@ -31339,40 +31974,43 @@
       <c r="M5" t="s">
         <v>88</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q5" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>244</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>222</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>442</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>456</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>365</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>360</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>176</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>181</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>187</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>463</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>232</v>
       </c>
     </row>
@@ -31404,37 +32042,40 @@
       <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q6" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>245</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>425</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>443</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>367</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>100</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>510</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>182</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>188</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>464</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>233</v>
       </c>
     </row>
@@ -31460,37 +32101,40 @@
       <c r="M7" t="s">
         <v>317</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q7" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>246</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>453</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>444</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>366</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>101</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>511</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>183</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>189</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>465</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>234</v>
       </c>
     </row>
@@ -31516,34 +32160,34 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>92</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>247</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>445</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>368</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>102</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>177</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>184</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>190</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>466</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>235</v>
       </c>
     </row>
@@ -31569,25 +32213,25 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>93</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>248</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>446</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>369</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>211</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>191</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>236</v>
       </c>
     </row>
@@ -31610,22 +32254,22 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>472</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>249</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>447</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>259</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>192</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>544</v>
       </c>
     </row>
@@ -31648,19 +32292,19 @@
       <c r="M11" t="s">
         <v>542</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>94</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>250</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>260</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>261</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>561</v>
       </c>
     </row>
@@ -31683,19 +32327,19 @@
       <c r="M12" t="s">
         <v>506</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>251</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>103</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>193</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>562</v>
       </c>
     </row>
@@ -31718,25 +32362,25 @@
       <c r="M13" t="s">
         <v>541</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>95</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>256</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>328</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>194</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>546</v>
+        <v>581</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -31753,25 +32397,25 @@
       <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>96</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>252</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>104</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>195</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>546</v>
       </c>
       <c r="E15" t="s">
         <v>60</v>
@@ -31785,25 +32429,25 @@
       <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>569</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>253</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>105</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>196</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>198</v>
       </c>
       <c r="E16" t="s">
         <v>404</v>
@@ -31817,25 +32461,25 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>570</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>254</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>76</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>197</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>241</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
         <v>405</v>
@@ -31846,19 +32490,19 @@
       <c r="K17" t="s">
         <v>83</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>571</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>528</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>241</v>
       </c>
       <c r="E18" t="s">
         <v>450</v>
@@ -31869,16 +32513,16 @@
       <c r="K18" t="s">
         <v>523</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>106</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>438</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
         <v>61</v>
@@ -31889,16 +32533,16 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>107</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="E20" t="s">
         <v>62</v>
@@ -31909,16 +32553,16 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>108</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="E21" t="s">
         <v>258</v>
@@ -31929,16 +32573,16 @@
       <c r="K21" t="s">
         <v>386</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>109</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>363</v>
+        <v>452</v>
       </c>
       <c r="E22" t="s">
         <v>63</v>
@@ -31949,13 +32593,13 @@
       <c r="K22" t="s">
         <v>540</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>434</v>
+        <v>363</v>
       </c>
       <c r="E23" t="s">
         <v>323</v>
@@ -31966,13 +32610,13 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>434</v>
       </c>
       <c r="E24" t="s">
         <v>64</v>
@@ -31983,13 +32627,13 @@
       <c r="K24" t="s">
         <v>426</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
         <v>514</v>
@@ -32000,13 +32644,13 @@
       <c r="K25" t="s">
         <v>86</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>227</v>
@@ -32017,13 +32661,13 @@
       <c r="K26" t="s">
         <v>505</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
         <v>228</v>
@@ -32034,13 +32678,13 @@
       <c r="K27" t="s">
         <v>45</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>461</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>538</v>
@@ -32051,13 +32695,13 @@
       <c r="K28" t="s">
         <v>46</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>229</v>
+        <v>461</v>
       </c>
       <c r="E29" t="s">
         <v>539</v>
@@ -32065,18 +32709,21 @@
       <c r="G29" t="s">
         <v>286</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>229</v>
+      </c>
       <c r="E30" t="s">
         <v>457</v>
       </c>
       <c r="G30" t="s">
         <v>218</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>117</v>
       </c>
     </row>
@@ -32087,7 +32734,7 @@
       <c r="G31" t="s">
         <v>277</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>118</v>
       </c>
     </row>
@@ -32098,7 +32745,7 @@
       <c r="G32" t="s">
         <v>287</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>119</v>
       </c>
     </row>
@@ -32109,7 +32756,7 @@
       <c r="G33" t="s">
         <v>577</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>120</v>
       </c>
     </row>
@@ -32120,7 +32767,7 @@
       <c r="G34" t="s">
         <v>262</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>121</v>
       </c>
     </row>
@@ -32131,7 +32778,7 @@
       <c r="G35" t="s">
         <v>332</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>212</v>
       </c>
     </row>
@@ -32142,7 +32789,7 @@
       <c r="G36" t="s">
         <v>309</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -32153,7 +32800,7 @@
       <c r="G37" t="s">
         <v>263</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>340</v>
       </c>
     </row>
@@ -32164,7 +32811,7 @@
       <c r="G38" t="s">
         <v>310</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>498</v>
       </c>
     </row>
@@ -32172,7 +32819,7 @@
       <c r="G39" t="s">
         <v>269</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>427</v>
       </c>
     </row>
@@ -32180,7 +32827,7 @@
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>123</v>
       </c>
     </row>
@@ -32188,7 +32835,7 @@
       <c r="G41" t="s">
         <v>214</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>124</v>
       </c>
     </row>
@@ -32196,7 +32843,7 @@
       <c r="G42" t="s">
         <v>291</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>125</v>
       </c>
     </row>
@@ -32204,7 +32851,7 @@
       <c r="G43" t="s">
         <v>302</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>126</v>
       </c>
     </row>
@@ -32212,7 +32859,7 @@
       <c r="G44" t="s">
         <v>303</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>127</v>
       </c>
     </row>
@@ -32220,7 +32867,7 @@
       <c r="G45" t="s">
         <v>345</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>128</v>
       </c>
     </row>
@@ -32228,7 +32875,7 @@
       <c r="G46" t="s">
         <v>344</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>507</v>
       </c>
     </row>
@@ -32236,7 +32883,7 @@
       <c r="G47" t="s">
         <v>213</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>215</v>
       </c>
     </row>
@@ -32244,7 +32891,7 @@
       <c r="G48" t="s">
         <v>322</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>78</v>
       </c>
     </row>
@@ -32252,7 +32899,7 @@
       <c r="G49" t="s">
         <v>341</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>129</v>
       </c>
     </row>
@@ -32260,7 +32907,7 @@
       <c r="G50" t="s">
         <v>374</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>130</v>
       </c>
     </row>
@@ -32268,7 +32915,7 @@
       <c r="G51" t="s">
         <v>304</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>131</v>
       </c>
     </row>
@@ -32276,7 +32923,7 @@
       <c r="G52" t="s">
         <v>362</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>552</v>
       </c>
     </row>
@@ -32284,7 +32931,7 @@
       <c r="G53" t="s">
         <v>333</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>533</v>
       </c>
     </row>
@@ -32292,7 +32939,7 @@
       <c r="G54" t="s">
         <v>270</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>132</v>
       </c>
     </row>
@@ -32300,7 +32947,7 @@
       <c r="G55" t="s">
         <v>294</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>351</v>
       </c>
     </row>
@@ -32308,7 +32955,7 @@
       <c r="G56" t="s">
         <v>295</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>526</v>
       </c>
     </row>
@@ -32316,7 +32963,7 @@
       <c r="G57" t="s">
         <v>296</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>133</v>
       </c>
     </row>
@@ -32324,7 +32971,7 @@
       <c r="G58" t="s">
         <v>305</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>134</v>
       </c>
     </row>
@@ -32332,7 +32979,7 @@
       <c r="G59" t="s">
         <v>314</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>135</v>
       </c>
     </row>
@@ -32340,7 +32987,7 @@
       <c r="G60" t="s">
         <v>339</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>136</v>
       </c>
     </row>
@@ -32348,7 +32995,7 @@
       <c r="G61" t="s">
         <v>311</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>137</v>
       </c>
     </row>
@@ -32356,7 +33003,7 @@
       <c r="G62" t="s">
         <v>312</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>138</v>
       </c>
     </row>
@@ -32364,7 +33011,7 @@
       <c r="G63" t="s">
         <v>375</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>139</v>
       </c>
     </row>
@@ -32372,7 +33019,7 @@
       <c r="G64" t="s">
         <v>376</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>503</v>
       </c>
     </row>
@@ -32380,7 +33027,7 @@
       <c r="G65" t="s">
         <v>347</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>543</v>
       </c>
     </row>
@@ -32388,7 +33035,7 @@
       <c r="G66" t="s">
         <v>315</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>216</v>
       </c>
     </row>
@@ -32396,7 +33043,7 @@
       <c r="G67" t="s">
         <v>271</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>408</v>
       </c>
     </row>
@@ -32404,7 +33051,7 @@
       <c r="G68" t="s">
         <v>358</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>508</v>
       </c>
     </row>
@@ -32412,7 +33059,7 @@
       <c r="G69" t="s">
         <v>316</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>140</v>
       </c>
     </row>
@@ -32420,7 +33067,7 @@
       <c r="G70" t="s">
         <v>448</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>141</v>
       </c>
     </row>
@@ -32428,7 +33075,7 @@
       <c r="G71" t="s">
         <v>306</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>142</v>
       </c>
     </row>
@@ -32436,7 +33083,7 @@
       <c r="G72" t="s">
         <v>449</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>143</v>
       </c>
     </row>
@@ -32444,7 +33091,7 @@
       <c r="G73" t="s">
         <v>264</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>199</v>
       </c>
     </row>
@@ -32452,7 +33099,7 @@
       <c r="G74" t="s">
         <v>578</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>200</v>
       </c>
     </row>
@@ -32460,7 +33107,7 @@
       <c r="G75" t="s">
         <v>346</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>521</v>
       </c>
     </row>
@@ -32468,7 +33115,7 @@
       <c r="G76" t="s">
         <v>282</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>537</v>
       </c>
     </row>
@@ -32476,7 +33123,7 @@
       <c r="G77" t="s">
         <v>288</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>144</v>
       </c>
     </row>
@@ -32484,7 +33131,7 @@
       <c r="G78" t="s">
         <v>293</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>145</v>
       </c>
     </row>
@@ -32492,7 +33139,7 @@
       <c r="G79" t="s">
         <v>467</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>146</v>
       </c>
     </row>
@@ -32500,7 +33147,7 @@
       <c r="G80" t="s">
         <v>334</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>565</v>
       </c>
     </row>
@@ -32508,7 +33155,7 @@
       <c r="G81" t="s">
         <v>272</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>147</v>
       </c>
     </row>
@@ -32516,7 +33163,7 @@
       <c r="G82" t="s">
         <v>283</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>148</v>
       </c>
     </row>
@@ -32524,7 +33171,7 @@
       <c r="G83" t="s">
         <v>289</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>201</v>
       </c>
     </row>
@@ -32532,7 +33179,7 @@
       <c r="G84" t="s">
         <v>278</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>553</v>
       </c>
     </row>
@@ -32540,7 +33187,7 @@
       <c r="G85" t="s">
         <v>273</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>202</v>
       </c>
     </row>
@@ -32548,7 +33195,7 @@
       <c r="G86" t="s">
         <v>290</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>520</v>
       </c>
     </row>
@@ -32556,7 +33203,7 @@
       <c r="G87" t="s">
         <v>274</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>203</v>
       </c>
     </row>
@@ -32564,7 +33211,7 @@
       <c r="G88" t="s">
         <v>275</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>204</v>
       </c>
     </row>
@@ -32572,7 +33219,7 @@
       <c r="G89" t="s">
         <v>307</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>217</v>
       </c>
     </row>
@@ -32580,7 +33227,7 @@
       <c r="G90" t="s">
         <v>313</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>149</v>
       </c>
     </row>
@@ -32588,7 +33235,7 @@
       <c r="G91" t="s">
         <v>297</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>205</v>
       </c>
     </row>
@@ -32596,7 +33243,7 @@
       <c r="G92" t="s">
         <v>342</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>500</v>
       </c>
     </row>
@@ -32604,7 +33251,7 @@
       <c r="G93" t="s">
         <v>279</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>502</v>
       </c>
     </row>
@@ -32612,172 +33259,172 @@
       <c r="G94" t="s">
         <v>280</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -27,7 +27,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -52,7 +52,7 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24630" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26756" uniqueCount="592">
   <si>
     <t>description</t>
   </si>
@@ -1892,13 +1892,25 @@
   <si>
     <t>runSQLs(var,sqls)</t>
   </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="791" x14ac:knownFonts="1">
+  <fonts count="855" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6886,8 +6898,412 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1363">
+  <fills count="1483">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14607,8 +15023,688 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1403">
+  <borders count="1515">
     <border>
       <left/>
       <right/>
@@ -14645,6 +15741,1134 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -28753,7 +30977,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="818">
+  <cellXfs count="882">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -31179,52 +33403,244 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1332" fontId="774" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="775" fillId="1335" borderId="1382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1382" fillId="1335" fontId="775" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="776" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="776" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="777" fillId="1338" borderId="1386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1386" fillId="1338" fontId="777" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="778" fillId="1341" borderId="1390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1390" fillId="1341" fontId="778" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="779" fillId="1344" borderId="1390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1390" fillId="1344" fontId="779" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="780" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="780" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="781" fillId="1347" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1347" fontId="781" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="782" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="782" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="783" fillId="1350" borderId="1394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1394" fillId="1350" fontId="783" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="784" fillId="1353" borderId="1398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1398" fillId="1353" fontId="784" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="785" fillId="1356" borderId="1402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1402" fillId="1356" fontId="785" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="786" fillId="1356" borderId="1402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1402" fillId="1356" fontId="786" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="787" fillId="1344" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1344" fontId="787" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="788" fillId="1359" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1359" fontId="788" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="789" fillId="1344" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1344" fontId="789" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="790" fillId="1362" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1362" fontId="790" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1410" fillId="1365" fontId="791" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="792" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1414" fillId="1368" fontId="793" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1418" fillId="1371" fontId="794" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1418" fillId="1374" fontId="795" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="796" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1377" fontId="797" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="798" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1422" fillId="1380" fontId="799" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1426" fillId="1383" fontId="800" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1430" fillId="1386" fontId="801" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1430" fillId="1386" fontId="802" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1374" fontId="803" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1389" fontId="804" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1374" fontId="805" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1392" fontId="806" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1438" fillId="1395" fontId="807" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="808" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1442" fillId="1398" fontId="809" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1446" fillId="1401" fontId="810" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1446" fillId="1404" fontId="811" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="812" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1407" fontId="813" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="814" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1450" fillId="1410" fontId="815" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1454" fillId="1413" fontId="816" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1458" fillId="1416" fontId="817" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1458" fillId="1416" fontId="818" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1404" fontId="819" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1419" fontId="820" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1404" fontId="821" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1422" fontId="822" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1466" fillId="1425" fontId="823" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="824" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1470" fillId="1428" fontId="825" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1474" fillId="1431" fontId="826" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1474" fillId="1434" fontId="827" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="828" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1437" fontId="829" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="830" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1478" fillId="1440" fontId="831" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1482" fillId="1443" fontId="832" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1486" fillId="1446" fontId="833" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1486" fillId="1446" fontId="834" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1434" fontId="835" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1449" fontId="836" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1434" fontId="837" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1452" fontId="838" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="839" fillId="1455" borderId="1494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="840" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="841" fillId="1458" borderId="1498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="842" fillId="1461" borderId="1502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="843" fillId="1464" borderId="1502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="844" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="845" fillId="1467" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="846" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="847" fillId="1470" borderId="1506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="848" fillId="1473" borderId="1510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="849" fillId="1476" borderId="1514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="850" fillId="1476" borderId="1514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="851" fillId="1464" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="852" fillId="1479" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="853" fillId="1464" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="854" fillId="1482" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -31975,7 +34391,7 @@
         <v>88</v>
       </c>
       <c r="N5" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -32043,7 +34459,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -32102,7 +34518,7 @@
         <v>317</v>
       </c>
       <c r="N7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -32160,6 +34576,9 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
+      <c r="N8" t="s">
+        <v>585</v>
+      </c>
       <c r="Q8" t="s">
         <v>92</v>
       </c>
@@ -32213,6 +34632,9 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
+      <c r="N9" t="s">
+        <v>586</v>
+      </c>
       <c r="Q9" t="s">
         <v>93</v>
       </c>
@@ -32254,6 +34676,9 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
+      <c r="N10" t="s">
+        <v>587</v>
+      </c>
       <c r="Q10" t="s">
         <v>472</v>
       </c>
@@ -32642,7 +35067,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>86</v>
+        <v>591</v>
       </c>
       <c r="Y25" t="s">
         <v>113</v>
@@ -32659,7 +35084,7 @@
         <v>284</v>
       </c>
       <c r="K26" t="s">
-        <v>505</v>
+        <v>86</v>
       </c>
       <c r="Y26" t="s">
         <v>114</v>
@@ -32676,7 +35101,7 @@
         <v>268</v>
       </c>
       <c r="K27" t="s">
-        <v>45</v>
+        <v>505</v>
       </c>
       <c r="Y27" t="s">
         <v>115</v>
@@ -32693,7 +35118,7 @@
         <v>285</v>
       </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y28" t="s">
         <v>329</v>
@@ -32708,6 +35133,9 @@
       </c>
       <c r="G29" t="s">
         <v>286</v>
+      </c>
+      <c r="K29" t="s">
+        <v>46</v>
       </c>
       <c r="Y29" t="s">
         <v>116</v>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -51,8 +51,8 @@
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26756" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27291" uniqueCount="596">
   <si>
     <t>description</t>
   </si>
@@ -1904,13 +1904,25 @@
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="855" x14ac:knownFonts="1">
+  <fonts count="871" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7302,8 +7314,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1483">
+  <fills count="1513">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15703,8 +15816,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1515">
+  <borders count="1543">
     <border>
       <left/>
       <right/>
@@ -15741,6 +16024,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -30977,7 +31542,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="882">
+  <cellXfs count="898">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -33595,52 +34160,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1452" fontId="838" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="839" fillId="1455" borderId="1494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1494" fillId="1455" fontId="839" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="840" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="840" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="841" fillId="1458" borderId="1498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1498" fillId="1458" fontId="841" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="842" fillId="1461" borderId="1502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1502" fillId="1461" fontId="842" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="843" fillId="1464" borderId="1502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1502" fillId="1464" fontId="843" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="844" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="844" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="845" fillId="1467" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1467" fontId="845" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="846" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="846" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="847" fillId="1470" borderId="1506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1506" fillId="1470" fontId="847" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="848" fillId="1473" borderId="1510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1510" fillId="1473" fontId="848" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="849" fillId="1476" borderId="1514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1514" fillId="1476" fontId="849" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="850" fillId="1476" borderId="1514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1514" fillId="1476" fontId="850" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="851" fillId="1464" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1464" fontId="851" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="852" fillId="1479" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1479" fontId="852" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="853" fillId="1464" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1464" fontId="853" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="854" fillId="1482" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1482" fontId="854" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="855" fillId="1485" borderId="1522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="856" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="857" fillId="1488" borderId="1526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="858" fillId="1491" borderId="1530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="859" fillId="1494" borderId="1530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="860" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="861" fillId="1497" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="862" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="863" fillId="1500" borderId="1534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="864" fillId="1503" borderId="1538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="865" fillId="1506" borderId="1542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="866" fillId="1506" borderId="1542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="867" fillId="1494" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="868" fillId="1509" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="869" fillId="1494" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="870" fillId="1512" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -34201,7 +34814,7 @@
         <v>531</v>
       </c>
       <c r="D3" t="s">
-        <v>557</v>
+        <v>592</v>
       </c>
       <c r="E3" t="s">
         <v>524</v>
@@ -34284,7 +34897,7 @@
         <v>380</v>
       </c>
       <c r="D4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -34367,7 +34980,7 @@
         <v>381</v>
       </c>
       <c r="D5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E5" t="s">
         <v>525</v>
@@ -34391,7 +35004,7 @@
         <v>88</v>
       </c>
       <c r="N5" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -34437,6 +35050,9 @@
       <c r="B6" t="s">
         <v>382</v>
       </c>
+      <c r="D6" t="s">
+        <v>559</v>
+      </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
@@ -34459,7 +35075,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -34518,7 +35134,7 @@
         <v>317</v>
       </c>
       <c r="N7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -34577,7 +35193,7 @@
         <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="Q8" t="s">
         <v>92</v>
@@ -34633,7 +35249,7 @@
         <v>35</v>
       </c>
       <c r="N9" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="Q9" t="s">
         <v>93</v>
@@ -34677,7 +35293,7 @@
         <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q10" t="s">
         <v>472</v>
@@ -34717,6 +35333,9 @@
       <c r="M11" t="s">
         <v>542</v>
       </c>
+      <c r="N11" t="s">
+        <v>586</v>
+      </c>
       <c r="Q11" t="s">
         <v>94</v>
       </c>
@@ -34752,6 +35371,9 @@
       <c r="M12" t="s">
         <v>506</v>
       </c>
+      <c r="N12" t="s">
+        <v>587</v>
+      </c>
       <c r="Q12" t="s">
         <v>41</v>
       </c>
@@ -35067,7 +35689,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="Y25" t="s">
         <v>113</v>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -25,7 +25,7 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27291" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27828" uniqueCount="598">
   <si>
     <t>description</t>
   </si>
@@ -1916,13 +1916,19 @@
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="871" x14ac:knownFonts="1">
+  <fonts count="887" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7415,8 +7421,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1513">
+  <fills count="1543">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15986,8 +16093,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1543">
+  <borders count="1571">
     <border>
       <left/>
       <right/>
@@ -16024,6 +16301,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -31542,7 +32101,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="898">
+  <cellXfs count="914">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -34208,52 +34767,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1482" fontId="854" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="855" fillId="1485" borderId="1522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1522" fillId="1485" fontId="855" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="856" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="856" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="857" fillId="1488" borderId="1526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1526" fillId="1488" fontId="857" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="858" fillId="1491" borderId="1530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1530" fillId="1491" fontId="858" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="859" fillId="1494" borderId="1530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1530" fillId="1494" fontId="859" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="860" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="860" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="861" fillId="1497" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1497" fontId="861" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="862" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="862" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="863" fillId="1500" borderId="1534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1534" fillId="1500" fontId="863" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="864" fillId="1503" borderId="1538" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1538" fillId="1503" fontId="864" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="865" fillId="1506" borderId="1542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1542" fillId="1506" fontId="865" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="866" fillId="1506" borderId="1542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1542" fillId="1506" fontId="866" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="867" fillId="1494" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1494" fontId="867" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="868" fillId="1509" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1509" fontId="868" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="869" fillId="1494" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1494" fontId="869" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="870" fillId="1512" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1512" fontId="870" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="871" fillId="1515" borderId="1550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="872" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="873" fillId="1518" borderId="1554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="874" fillId="1521" borderId="1558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="875" fillId="1524" borderId="1558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="876" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="877" fillId="1527" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="878" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="879" fillId="1530" borderId="1562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="880" fillId="1533" borderId="1566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="881" fillId="1536" borderId="1570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="882" fillId="1536" borderId="1570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="883" fillId="1524" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="884" fillId="1539" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="885" fillId="1524" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="886" fillId="1542" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -34608,7 +35215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE128"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -34994,6 +35601,9 @@
       <c r="H5" t="s">
         <v>522</v>
       </c>
+      <c r="I5" t="s">
+        <v>596</v>
+      </c>
       <c r="J5" t="s">
         <v>356</v>
       </c>
@@ -35870,7 +36480,7 @@
         <v>269</v>
       </c>
       <c r="Y39" t="s">
-        <v>427</v>
+        <v>597</v>
       </c>
     </row>
     <row r="40">
@@ -35878,7 +36488,7 @@
         <v>79</v>
       </c>
       <c r="Y40" t="s">
-        <v>123</v>
+        <v>427</v>
       </c>
     </row>
     <row r="41">
@@ -35886,7 +36496,7 @@
         <v>214</v>
       </c>
       <c r="Y41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42">
@@ -35894,7 +36504,7 @@
         <v>291</v>
       </c>
       <c r="Y42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43">
@@ -35902,7 +36512,7 @@
         <v>302</v>
       </c>
       <c r="Y43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44">
@@ -35910,7 +36520,7 @@
         <v>303</v>
       </c>
       <c r="Y44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45">
@@ -35918,7 +36528,7 @@
         <v>345</v>
       </c>
       <c r="Y45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46">
@@ -35926,7 +36536,7 @@
         <v>344</v>
       </c>
       <c r="Y46" t="s">
-        <v>507</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47">
@@ -35934,7 +36544,7 @@
         <v>213</v>
       </c>
       <c r="Y47" t="s">
-        <v>215</v>
+        <v>507</v>
       </c>
     </row>
     <row r="48">
@@ -35942,7 +36552,7 @@
         <v>322</v>
       </c>
       <c r="Y48" t="s">
-        <v>78</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49">
@@ -35950,7 +36560,7 @@
         <v>341</v>
       </c>
       <c r="Y49" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
@@ -35958,7 +36568,7 @@
         <v>374</v>
       </c>
       <c r="Y50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51">
@@ -35966,7 +36576,7 @@
         <v>304</v>
       </c>
       <c r="Y51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52">
@@ -35974,7 +36584,7 @@
         <v>362</v>
       </c>
       <c r="Y52" t="s">
-        <v>552</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53">
@@ -35982,7 +36592,7 @@
         <v>333</v>
       </c>
       <c r="Y53" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
     </row>
     <row r="54">
@@ -35990,7 +36600,7 @@
         <v>270</v>
       </c>
       <c r="Y54" t="s">
-        <v>132</v>
+        <v>533</v>
       </c>
     </row>
     <row r="55">
@@ -35998,7 +36608,7 @@
         <v>294</v>
       </c>
       <c r="Y55" t="s">
-        <v>351</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56">
@@ -36006,7 +36616,7 @@
         <v>295</v>
       </c>
       <c r="Y56" t="s">
-        <v>526</v>
+        <v>351</v>
       </c>
     </row>
     <row r="57">
@@ -36014,7 +36624,7 @@
         <v>296</v>
       </c>
       <c r="Y57" t="s">
-        <v>133</v>
+        <v>526</v>
       </c>
     </row>
     <row r="58">
@@ -36022,7 +36632,7 @@
         <v>305</v>
       </c>
       <c r="Y58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59">
@@ -36030,7 +36640,7 @@
         <v>314</v>
       </c>
       <c r="Y59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60">
@@ -36038,7 +36648,7 @@
         <v>339</v>
       </c>
       <c r="Y60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61">
@@ -36046,7 +36656,7 @@
         <v>311</v>
       </c>
       <c r="Y61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62">
@@ -36054,7 +36664,7 @@
         <v>312</v>
       </c>
       <c r="Y62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63">
@@ -36062,7 +36672,7 @@
         <v>375</v>
       </c>
       <c r="Y63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64">
@@ -36070,7 +36680,7 @@
         <v>376</v>
       </c>
       <c r="Y64" t="s">
-        <v>503</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65">
@@ -36078,7 +36688,7 @@
         <v>347</v>
       </c>
       <c r="Y65" t="s">
-        <v>543</v>
+        <v>503</v>
       </c>
     </row>
     <row r="66">
@@ -36086,7 +36696,7 @@
         <v>315</v>
       </c>
       <c r="Y66" t="s">
-        <v>216</v>
+        <v>543</v>
       </c>
     </row>
     <row r="67">
@@ -36094,7 +36704,7 @@
         <v>271</v>
       </c>
       <c r="Y67" t="s">
-        <v>408</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68">
@@ -36102,7 +36712,7 @@
         <v>358</v>
       </c>
       <c r="Y68" t="s">
-        <v>508</v>
+        <v>408</v>
       </c>
     </row>
     <row r="69">
@@ -36110,7 +36720,7 @@
         <v>316</v>
       </c>
       <c r="Y69" t="s">
-        <v>140</v>
+        <v>508</v>
       </c>
     </row>
     <row r="70">
@@ -36118,7 +36728,7 @@
         <v>448</v>
       </c>
       <c r="Y70" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71">
@@ -36126,7 +36736,7 @@
         <v>306</v>
       </c>
       <c r="Y71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72">
@@ -36134,7 +36744,7 @@
         <v>449</v>
       </c>
       <c r="Y72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73">
@@ -36142,7 +36752,7 @@
         <v>264</v>
       </c>
       <c r="Y73" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74">
@@ -36150,7 +36760,7 @@
         <v>578</v>
       </c>
       <c r="Y74" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75">
@@ -36158,7 +36768,7 @@
         <v>346</v>
       </c>
       <c r="Y75" t="s">
-        <v>521</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76">
@@ -36166,7 +36776,7 @@
         <v>282</v>
       </c>
       <c r="Y76" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
     </row>
     <row r="77">
@@ -36174,7 +36784,7 @@
         <v>288</v>
       </c>
       <c r="Y77" t="s">
-        <v>144</v>
+        <v>537</v>
       </c>
     </row>
     <row r="78">
@@ -36182,7 +36792,7 @@
         <v>293</v>
       </c>
       <c r="Y78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79">
@@ -36190,7 +36800,7 @@
         <v>467</v>
       </c>
       <c r="Y79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80">
@@ -36198,7 +36808,7 @@
         <v>334</v>
       </c>
       <c r="Y80" t="s">
-        <v>565</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81">
@@ -36206,7 +36816,7 @@
         <v>272</v>
       </c>
       <c r="Y81" t="s">
-        <v>147</v>
+        <v>565</v>
       </c>
     </row>
     <row r="82">
@@ -36214,7 +36824,7 @@
         <v>283</v>
       </c>
       <c r="Y82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83">
@@ -36222,7 +36832,7 @@
         <v>289</v>
       </c>
       <c r="Y83" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84">
@@ -36230,7 +36840,7 @@
         <v>278</v>
       </c>
       <c r="Y84" t="s">
-        <v>553</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85">
@@ -36238,7 +36848,7 @@
         <v>273</v>
       </c>
       <c r="Y85" t="s">
-        <v>202</v>
+        <v>553</v>
       </c>
     </row>
     <row r="86">
@@ -36246,7 +36856,7 @@
         <v>290</v>
       </c>
       <c r="Y86" t="s">
-        <v>520</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87">
@@ -36254,7 +36864,7 @@
         <v>274</v>
       </c>
       <c r="Y87" t="s">
-        <v>203</v>
+        <v>520</v>
       </c>
     </row>
     <row r="88">
@@ -36262,7 +36872,7 @@
         <v>275</v>
       </c>
       <c r="Y88" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89">
@@ -36270,7 +36880,7 @@
         <v>307</v>
       </c>
       <c r="Y89" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90">
@@ -36278,7 +36888,7 @@
         <v>313</v>
       </c>
       <c r="Y90" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91">
@@ -36286,7 +36896,7 @@
         <v>297</v>
       </c>
       <c r="Y91" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92">
@@ -36294,7 +36904,7 @@
         <v>342</v>
       </c>
       <c r="Y92" t="s">
-        <v>500</v>
+        <v>205</v>
       </c>
     </row>
     <row r="93">
@@ -36302,7 +36912,7 @@
         <v>279</v>
       </c>
       <c r="Y93" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="94">
@@ -36310,171 +36920,176 @@
         <v>280</v>
       </c>
       <c r="Y94" t="s">
-        <v>206</v>
+        <v>502</v>
       </c>
     </row>
     <row r="95">
       <c r="Y95" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>572</v>
+        <v>210</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>151</v>
+        <v>579</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>580</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>389</v>
+        <v>580</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>152</v>
+        <v>389</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>509</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>165</v>
+        <v>509</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -23,13 +23,13 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -43,12 +43,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27828" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28375" uniqueCount="609">
   <si>
     <t>description</t>
   </si>
@@ -1922,13 +1922,46 @@
   <si>
     <t>assertTextNotContains(locator,text)</t>
   </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="887" x14ac:knownFonts="1">
+  <fonts count="903" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7522,8 +7555,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1543">
+  <fills count="1570">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16263,8 +16397,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1571">
+  <borders count="1603">
     <border>
       <left/>
       <right/>
@@ -31916,6 +32203,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -32101,7 +32714,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="914">
+  <cellXfs count="930">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -34815,52 +35428,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1512" fontId="870" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="871" fillId="1515" borderId="1550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1550" fillId="1515" fontId="871" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="872" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="872" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="873" fillId="1518" borderId="1554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1554" fillId="1518" fontId="873" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="874" fillId="1521" borderId="1558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1558" fillId="1521" fontId="874" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="875" fillId="1524" borderId="1558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1558" fillId="1524" fontId="875" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="876" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="876" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="877" fillId="1527" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1527" fontId="877" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="878" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="878" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="879" fillId="1530" borderId="1562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1562" fillId="1530" fontId="879" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="880" fillId="1533" borderId="1566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1566" fillId="1533" fontId="880" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="881" fillId="1536" borderId="1570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1570" fillId="1536" fontId="881" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="882" fillId="1536" borderId="1570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1570" fillId="1536" fontId="882" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="883" fillId="1524" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1524" fontId="883" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="884" fillId="1539" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1539" fontId="884" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="885" fillId="1524" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1524" fontId="885" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="886" fillId="1542" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1542" fontId="886" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="887" fillId="1545" borderId="1578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="888" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="889" fillId="1548" borderId="1582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="890" fillId="1551" borderId="1586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="891" fillId="1554" borderId="1590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="892" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="893" fillId="1557" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="894" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="895" fillId="1560" borderId="1594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="896" fillId="1551" borderId="1598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="897" fillId="1563" borderId="1602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="898" fillId="1563" borderId="1602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="899" fillId="1554" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="900" fillId="1566" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="901" fillId="1554" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="902" fillId="1569" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -35215,7 +35876,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE128"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -35737,6 +36398,9 @@
       <c r="H7" t="s">
         <v>513</v>
       </c>
+      <c r="J7" t="s">
+        <v>600</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -35777,7 +36441,7 @@
         <v>465</v>
       </c>
       <c r="AD7" t="s">
-        <v>234</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8">
@@ -35833,7 +36497,7 @@
         <v>466</v>
       </c>
       <c r="AD8" t="s">
-        <v>235</v>
+        <v>604</v>
       </c>
     </row>
     <row r="9">
@@ -35880,7 +36544,7 @@
         <v>191</v>
       </c>
       <c r="AD9" t="s">
-        <v>236</v>
+        <v>605</v>
       </c>
     </row>
     <row r="10">
@@ -35921,7 +36585,7 @@
         <v>192</v>
       </c>
       <c r="AD10" t="s">
-        <v>544</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11">
@@ -35959,7 +36623,7 @@
         <v>261</v>
       </c>
       <c r="AD11" t="s">
-        <v>561</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12">
@@ -35979,7 +36643,7 @@
         <v>409</v>
       </c>
       <c r="M12" t="s">
-        <v>506</v>
+        <v>601</v>
       </c>
       <c r="N12" t="s">
         <v>587</v>
@@ -35997,7 +36661,7 @@
         <v>193</v>
       </c>
       <c r="AD12" t="s">
-        <v>562</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
@@ -36017,7 +36681,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>541</v>
+        <v>506</v>
       </c>
       <c r="Q13" t="s">
         <v>95</v>
@@ -36032,7 +36696,7 @@
         <v>194</v>
       </c>
       <c r="AD13" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
     </row>
     <row r="14">
@@ -36052,7 +36716,7 @@
         <v>42</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>541</v>
       </c>
       <c r="Q14" t="s">
         <v>96</v>
@@ -36067,7 +36731,7 @@
         <v>195</v>
       </c>
       <c r="AD14" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15">
@@ -36084,7 +36748,7 @@
         <v>576</v>
       </c>
       <c r="M15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" t="s">
         <v>569</v>
@@ -36099,7 +36763,7 @@
         <v>196</v>
       </c>
       <c r="AD15" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
     </row>
     <row r="16">
@@ -36116,7 +36780,7 @@
         <v>82</v>
       </c>
       <c r="M16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q16" t="s">
         <v>570</v>
@@ -36131,7 +36795,7 @@
         <v>197</v>
       </c>
       <c r="AD16" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="17">
@@ -36147,6 +36811,9 @@
       <c r="K17" t="s">
         <v>83</v>
       </c>
+      <c r="M17" t="s">
+        <v>43</v>
+      </c>
       <c r="Y17" t="s">
         <v>571</v>
       </c>
@@ -36154,7 +36821,7 @@
         <v>528</v>
       </c>
       <c r="AD17" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18">
@@ -36174,7 +36841,7 @@
         <v>106</v>
       </c>
       <c r="AD18" t="s">
-        <v>568</v>
+        <v>545</v>
       </c>
     </row>
     <row r="19">
@@ -36194,7 +36861,7 @@
         <v>107</v>
       </c>
       <c r="AD19" t="s">
-        <v>237</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20">
@@ -36214,7 +36881,7 @@
         <v>108</v>
       </c>
       <c r="AD20" t="s">
-        <v>238</v>
+        <v>564</v>
       </c>
     </row>
     <row r="21">
@@ -36234,7 +36901,7 @@
         <v>109</v>
       </c>
       <c r="AD21" t="s">
-        <v>239</v>
+        <v>568</v>
       </c>
     </row>
     <row r="22">
@@ -36253,6 +36920,9 @@
       <c r="Y22" t="s">
         <v>554</v>
       </c>
+      <c r="AD22" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -36270,6 +36940,9 @@
       <c r="Y23" t="s">
         <v>111</v>
       </c>
+      <c r="AD23" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -36287,6 +36960,9 @@
       <c r="Y24" t="s">
         <v>112</v>
       </c>
+      <c r="AD24" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -36304,6 +36980,9 @@
       <c r="Y25" t="s">
         <v>113</v>
       </c>
+      <c r="AD25" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -36321,6 +37000,9 @@
       <c r="Y26" t="s">
         <v>114</v>
       </c>
+      <c r="AD26" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -36338,6 +37020,9 @@
       <c r="Y27" t="s">
         <v>115</v>
       </c>
+      <c r="AD27" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -36568,7 +37253,7 @@
         <v>374</v>
       </c>
       <c r="Y50" t="s">
-        <v>129</v>
+        <v>602</v>
       </c>
     </row>
     <row r="51">
@@ -36576,7 +37261,7 @@
         <v>304</v>
       </c>
       <c r="Y51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52">
@@ -36584,7 +37269,7 @@
         <v>362</v>
       </c>
       <c r="Y52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53">
@@ -36592,7 +37277,7 @@
         <v>333</v>
       </c>
       <c r="Y53" t="s">
-        <v>552</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54">
@@ -36600,7 +37285,7 @@
         <v>270</v>
       </c>
       <c r="Y54" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
     </row>
     <row r="55">
@@ -36608,7 +37293,7 @@
         <v>294</v>
       </c>
       <c r="Y55" t="s">
-        <v>132</v>
+        <v>533</v>
       </c>
     </row>
     <row r="56">
@@ -36616,7 +37301,7 @@
         <v>295</v>
       </c>
       <c r="Y56" t="s">
-        <v>351</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57">
@@ -36624,7 +37309,7 @@
         <v>296</v>
       </c>
       <c r="Y57" t="s">
-        <v>526</v>
+        <v>351</v>
       </c>
     </row>
     <row r="58">
@@ -36632,7 +37317,7 @@
         <v>305</v>
       </c>
       <c r="Y58" t="s">
-        <v>133</v>
+        <v>526</v>
       </c>
     </row>
     <row r="59">
@@ -36640,7 +37325,7 @@
         <v>314</v>
       </c>
       <c r="Y59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60">
@@ -36648,7 +37333,7 @@
         <v>339</v>
       </c>
       <c r="Y60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61">
@@ -36656,7 +37341,7 @@
         <v>311</v>
       </c>
       <c r="Y61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62">
@@ -36664,7 +37349,7 @@
         <v>312</v>
       </c>
       <c r="Y62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63">
@@ -36672,7 +37357,7 @@
         <v>375</v>
       </c>
       <c r="Y63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64">
@@ -36680,7 +37365,7 @@
         <v>376</v>
       </c>
       <c r="Y64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65">
@@ -36688,7 +37373,7 @@
         <v>347</v>
       </c>
       <c r="Y65" t="s">
-        <v>503</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66">
@@ -36696,7 +37381,7 @@
         <v>315</v>
       </c>
       <c r="Y66" t="s">
-        <v>543</v>
+        <v>503</v>
       </c>
     </row>
     <row r="67">
@@ -36704,15 +37389,15 @@
         <v>271</v>
       </c>
       <c r="Y67" t="s">
-        <v>216</v>
+        <v>543</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>358</v>
+        <v>598</v>
       </c>
       <c r="Y68" t="s">
-        <v>408</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69">
@@ -36720,7 +37405,7 @@
         <v>316</v>
       </c>
       <c r="Y69" t="s">
-        <v>508</v>
+        <v>408</v>
       </c>
     </row>
     <row r="70">
@@ -36728,7 +37413,7 @@
         <v>448</v>
       </c>
       <c r="Y70" t="s">
-        <v>140</v>
+        <v>508</v>
       </c>
     </row>
     <row r="71">
@@ -36736,7 +37421,7 @@
         <v>306</v>
       </c>
       <c r="Y71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72">
@@ -36744,7 +37429,7 @@
         <v>449</v>
       </c>
       <c r="Y72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73">
@@ -36752,7 +37437,7 @@
         <v>264</v>
       </c>
       <c r="Y73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74">
@@ -36760,7 +37445,7 @@
         <v>578</v>
       </c>
       <c r="Y74" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75">
@@ -36768,7 +37453,7 @@
         <v>346</v>
       </c>
       <c r="Y75" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76">
@@ -36776,7 +37461,7 @@
         <v>282</v>
       </c>
       <c r="Y76" t="s">
-        <v>521</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77">
@@ -36784,7 +37469,7 @@
         <v>288</v>
       </c>
       <c r="Y77" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
     </row>
     <row r="78">
@@ -36792,7 +37477,7 @@
         <v>293</v>
       </c>
       <c r="Y78" t="s">
-        <v>144</v>
+        <v>537</v>
       </c>
     </row>
     <row r="79">
@@ -36800,7 +37485,7 @@
         <v>467</v>
       </c>
       <c r="Y79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80">
@@ -36808,7 +37493,7 @@
         <v>334</v>
       </c>
       <c r="Y80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81">
@@ -36816,7 +37501,7 @@
         <v>272</v>
       </c>
       <c r="Y81" t="s">
-        <v>565</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82">
@@ -36824,7 +37509,7 @@
         <v>283</v>
       </c>
       <c r="Y82" t="s">
-        <v>147</v>
+        <v>565</v>
       </c>
     </row>
     <row r="83">
@@ -36832,7 +37517,7 @@
         <v>289</v>
       </c>
       <c r="Y83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84">
@@ -36840,256 +37525,264 @@
         <v>278</v>
       </c>
       <c r="Y84" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>273</v>
+        <v>599</v>
       </c>
       <c r="Y85" t="s">
-        <v>553</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="Y86" t="s">
-        <v>202</v>
+        <v>553</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="Y87" t="s">
-        <v>520</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y88" t="s">
-        <v>203</v>
+        <v>520</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="Y89" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="Y90" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="Y91" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="Y92" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>279</v>
+        <v>342</v>
       </c>
       <c r="Y93" t="s">
-        <v>500</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
         <v>280</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Y95" t="s">
         <v>502</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>572</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>151</v>
+        <v>579</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>580</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>389</v>
+        <v>580</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>152</v>
+        <v>389</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>509</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>165</v>
+        <v>509</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -42,17 +42,18 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28375" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28926" uniqueCount="612">
   <si>
     <t>description</t>
   </si>
@@ -1955,13 +1956,22 @@
   <si>
     <t>storeSoapFaultString(var,xml)</t>
   </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="903" x14ac:knownFonts="1">
+  <fonts count="919" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7656,8 +7666,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1570">
+  <fills count="1597">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16550,8 +16661,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1603">
+  <borders count="1635">
     <border>
       <left/>
       <right/>
@@ -32203,6 +32467,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -32714,7 +33304,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="930">
+  <cellXfs count="946">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -35476,52 +36066,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1542" fontId="886" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="887" fillId="1545" borderId="1578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1578" fillId="1545" fontId="887" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="888" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="888" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="889" fillId="1548" borderId="1582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1582" fillId="1548" fontId="889" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="890" fillId="1551" borderId="1586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1586" fillId="1551" fontId="890" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="891" fillId="1554" borderId="1590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1590" fillId="1554" fontId="891" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="892" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="892" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="893" fillId="1557" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1557" fontId="893" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="894" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="894" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="895" fillId="1560" borderId="1594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1594" fillId="1560" fontId="895" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="896" fillId="1551" borderId="1598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1598" fillId="1551" fontId="896" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="897" fillId="1563" borderId="1602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1602" fillId="1563" fontId="897" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="898" fillId="1563" borderId="1602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1602" fillId="1563" fontId="898" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="899" fillId="1554" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1554" fontId="899" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="900" fillId="1566" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1566" fontId="900" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="901" fillId="1554" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1554" fontId="901" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="902" fillId="1569" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1569" fontId="902" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="903" fillId="1572" borderId="1610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="904" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="905" fillId="1575" borderId="1614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="906" fillId="1578" borderId="1618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="907" fillId="1581" borderId="1622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="908" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="909" fillId="1584" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="910" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="911" fillId="1587" borderId="1626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="912" fillId="1578" borderId="1630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="913" fillId="1590" borderId="1634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="914" fillId="1590" borderId="1634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="915" fillId="1581" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="916" fillId="1593" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="917" fillId="1581" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="918" fillId="1596" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -35876,7 +36514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -35961,21 +36599,24 @@
         <v>434</v>
       </c>
       <c r="Y1" t="s">
+        <v>609</v>
+      </c>
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>461</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>229</v>
       </c>
     </row>
@@ -36053,21 +36694,24 @@
         <v>435</v>
       </c>
       <c r="Y2" t="s">
+        <v>611</v>
+      </c>
+      <c r="Z2" t="s">
         <v>98</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>173</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>178</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>185</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>471</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>560</v>
       </c>
     </row>
@@ -36138,22 +36782,22 @@
       <c r="X3" t="s">
         <v>436</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>99</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>174</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>179</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>370</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>186</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>230</v>
       </c>
     </row>
@@ -36221,22 +36865,22 @@
       <c r="X4" t="s">
         <v>437</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>359</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>175</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>180</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>186</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>462</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>231</v>
       </c>
     </row>
@@ -36295,22 +36939,22 @@
       <c r="W5" t="s">
         <v>365</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>360</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>176</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>181</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>187</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>463</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>232</v>
       </c>
     </row>
@@ -36363,22 +37007,22 @@
       <c r="W6" t="s">
         <v>367</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>100</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>510</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>182</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>188</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>464</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>233</v>
       </c>
     </row>
@@ -36425,22 +37069,22 @@
       <c r="W7" t="s">
         <v>366</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>101</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>511</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>183</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>189</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>465</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>603</v>
       </c>
     </row>
@@ -36481,22 +37125,22 @@
       <c r="W8" t="s">
         <v>368</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>102</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>177</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>184</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>190</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>466</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>604</v>
       </c>
     </row>
@@ -36537,13 +37181,13 @@
       <c r="W9" t="s">
         <v>369</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>211</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>191</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>605</v>
       </c>
     </row>
@@ -36578,13 +37222,13 @@
       <c r="T10" t="s">
         <v>447</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>259</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>192</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>234</v>
       </c>
     </row>
@@ -36616,13 +37260,13 @@
       <c r="R11" t="s">
         <v>250</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>260</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>261</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>235</v>
       </c>
     </row>
@@ -36654,13 +37298,13 @@
       <c r="R12" t="s">
         <v>251</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>103</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>193</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>236</v>
       </c>
     </row>
@@ -36689,13 +37333,13 @@
       <c r="R13" t="s">
         <v>256</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>328</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>194</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>544</v>
       </c>
     </row>
@@ -36724,13 +37368,13 @@
       <c r="R14" t="s">
         <v>252</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>104</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>195</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>561</v>
       </c>
     </row>
@@ -36756,13 +37400,13 @@
       <c r="R15" t="s">
         <v>253</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>105</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>196</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>562</v>
       </c>
     </row>
@@ -36788,13 +37432,13 @@
       <c r="R16" t="s">
         <v>254</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>76</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>197</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>566</v>
       </c>
     </row>
@@ -36814,13 +37458,13 @@
       <c r="M17" t="s">
         <v>43</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>571</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>528</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>567</v>
       </c>
     </row>
@@ -36837,10 +37481,10 @@
       <c r="K18" t="s">
         <v>523</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>106</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>545</v>
       </c>
     </row>
@@ -36857,10 +37501,10 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>107</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>563</v>
       </c>
     </row>
@@ -36877,10 +37521,10 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>108</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>564</v>
       </c>
     </row>
@@ -36897,10 +37541,10 @@
       <c r="K21" t="s">
         <v>386</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>109</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>568</v>
       </c>
     </row>
@@ -36909,7 +37553,7 @@
         <v>452</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>610</v>
       </c>
       <c r="G22" t="s">
         <v>301</v>
@@ -36917,10 +37561,10 @@
       <c r="K22" t="s">
         <v>540</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>554</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>237</v>
       </c>
     </row>
@@ -36929,7 +37573,7 @@
         <v>363</v>
       </c>
       <c r="E23" t="s">
-        <v>323</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
         <v>292</v>
@@ -36937,10 +37581,10 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>111</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>606</v>
       </c>
     </row>
@@ -36949,7 +37593,7 @@
         <v>434</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>323</v>
       </c>
       <c r="G24" t="s">
         <v>281</v>
@@ -36957,19 +37601,19 @@
       <c r="K24" t="s">
         <v>426</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>112</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>609</v>
       </c>
       <c r="E25" t="s">
-        <v>514</v>
+        <v>64</v>
       </c>
       <c r="G25" t="s">
         <v>77</v>
@@ -36977,19 +37621,19 @@
       <c r="K25" t="s">
         <v>593</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>113</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>227</v>
+        <v>514</v>
       </c>
       <c r="G26" t="s">
         <v>284</v>
@@ -36997,19 +37641,19 @@
       <c r="K26" t="s">
         <v>86</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>114</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G27" t="s">
         <v>268</v>
@@ -37017,19 +37661,19 @@
       <c r="K27" t="s">
         <v>505</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>115</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>538</v>
+        <v>228</v>
       </c>
       <c r="G28" t="s">
         <v>285</v>
@@ -37037,16 +37681,16 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>461</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G29" t="s">
         <v>286</v>
@@ -37054,117 +37698,123 @@
       <c r="K29" t="s">
         <v>46</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>229</v>
+        <v>461</v>
       </c>
       <c r="E30" t="s">
-        <v>457</v>
+        <v>539</v>
       </c>
       <c r="G30" t="s">
         <v>218</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>229</v>
+      </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>457</v>
       </c>
       <c r="G31" t="s">
         <v>277</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G32" t="s">
         <v>287</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G33" t="s">
         <v>577</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G34" t="s">
         <v>262</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G35" t="s">
         <v>332</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G36" t="s">
         <v>309</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G37" t="s">
         <v>263</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G38" t="s">
         <v>310</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="39">
+      <c r="E39" t="s">
+        <v>72</v>
+      </c>
       <c r="G39" t="s">
         <v>269</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>597</v>
       </c>
     </row>
@@ -37172,7 +37822,7 @@
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>427</v>
       </c>
     </row>
@@ -37180,7 +37830,7 @@
       <c r="G41" t="s">
         <v>214</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>123</v>
       </c>
     </row>
@@ -37188,7 +37838,7 @@
       <c r="G42" t="s">
         <v>291</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>124</v>
       </c>
     </row>
@@ -37196,7 +37846,7 @@
       <c r="G43" t="s">
         <v>302</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>125</v>
       </c>
     </row>
@@ -37204,7 +37854,7 @@
       <c r="G44" t="s">
         <v>303</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>126</v>
       </c>
     </row>
@@ -37212,7 +37862,7 @@
       <c r="G45" t="s">
         <v>345</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>127</v>
       </c>
     </row>
@@ -37220,7 +37870,7 @@
       <c r="G46" t="s">
         <v>344</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>128</v>
       </c>
     </row>
@@ -37228,7 +37878,7 @@
       <c r="G47" t="s">
         <v>213</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>507</v>
       </c>
     </row>
@@ -37236,7 +37886,7 @@
       <c r="G48" t="s">
         <v>322</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>215</v>
       </c>
     </row>
@@ -37244,7 +37894,7 @@
       <c r="G49" t="s">
         <v>341</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>78</v>
       </c>
     </row>
@@ -37252,7 +37902,7 @@
       <c r="G50" t="s">
         <v>374</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>602</v>
       </c>
     </row>
@@ -37260,7 +37910,7 @@
       <c r="G51" t="s">
         <v>304</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>129</v>
       </c>
     </row>
@@ -37268,7 +37918,7 @@
       <c r="G52" t="s">
         <v>362</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>130</v>
       </c>
     </row>
@@ -37276,7 +37926,7 @@
       <c r="G53" t="s">
         <v>333</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>131</v>
       </c>
     </row>
@@ -37284,7 +37934,7 @@
       <c r="G54" t="s">
         <v>270</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>552</v>
       </c>
     </row>
@@ -37292,7 +37942,7 @@
       <c r="G55" t="s">
         <v>294</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>533</v>
       </c>
     </row>
@@ -37300,7 +37950,7 @@
       <c r="G56" t="s">
         <v>295</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>132</v>
       </c>
     </row>
@@ -37308,7 +37958,7 @@
       <c r="G57" t="s">
         <v>296</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>351</v>
       </c>
     </row>
@@ -37316,7 +37966,7 @@
       <c r="G58" t="s">
         <v>305</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>526</v>
       </c>
     </row>
@@ -37324,7 +37974,7 @@
       <c r="G59" t="s">
         <v>314</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>133</v>
       </c>
     </row>
@@ -37332,7 +37982,7 @@
       <c r="G60" t="s">
         <v>339</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>134</v>
       </c>
     </row>
@@ -37340,7 +37990,7 @@
       <c r="G61" t="s">
         <v>311</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>135</v>
       </c>
     </row>
@@ -37348,7 +37998,7 @@
       <c r="G62" t="s">
         <v>312</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>136</v>
       </c>
     </row>
@@ -37356,7 +38006,7 @@
       <c r="G63" t="s">
         <v>375</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>137</v>
       </c>
     </row>
@@ -37364,7 +38014,7 @@
       <c r="G64" t="s">
         <v>376</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>138</v>
       </c>
     </row>
@@ -37372,7 +38022,7 @@
       <c r="G65" t="s">
         <v>347</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>139</v>
       </c>
     </row>
@@ -37380,7 +38030,7 @@
       <c r="G66" t="s">
         <v>315</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>503</v>
       </c>
     </row>
@@ -37388,7 +38038,7 @@
       <c r="G67" t="s">
         <v>271</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>543</v>
       </c>
     </row>
@@ -37396,7 +38046,7 @@
       <c r="G68" t="s">
         <v>598</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>216</v>
       </c>
     </row>
@@ -37404,7 +38054,7 @@
       <c r="G69" t="s">
         <v>316</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>408</v>
       </c>
     </row>
@@ -37412,7 +38062,7 @@
       <c r="G70" t="s">
         <v>448</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>508</v>
       </c>
     </row>
@@ -37420,7 +38070,7 @@
       <c r="G71" t="s">
         <v>306</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>140</v>
       </c>
     </row>
@@ -37428,7 +38078,7 @@
       <c r="G72" t="s">
         <v>449</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>141</v>
       </c>
     </row>
@@ -37436,7 +38086,7 @@
       <c r="G73" t="s">
         <v>264</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>142</v>
       </c>
     </row>
@@ -37444,7 +38094,7 @@
       <c r="G74" t="s">
         <v>578</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>143</v>
       </c>
     </row>
@@ -37452,7 +38102,7 @@
       <c r="G75" t="s">
         <v>346</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>199</v>
       </c>
     </row>
@@ -37460,7 +38110,7 @@
       <c r="G76" t="s">
         <v>282</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>200</v>
       </c>
     </row>
@@ -37468,7 +38118,7 @@
       <c r="G77" t="s">
         <v>288</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>521</v>
       </c>
     </row>
@@ -37476,7 +38126,7 @@
       <c r="G78" t="s">
         <v>293</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>537</v>
       </c>
     </row>
@@ -37484,7 +38134,7 @@
       <c r="G79" t="s">
         <v>467</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>144</v>
       </c>
     </row>
@@ -37492,7 +38142,7 @@
       <c r="G80" t="s">
         <v>334</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>145</v>
       </c>
     </row>
@@ -37500,7 +38150,7 @@
       <c r="G81" t="s">
         <v>272</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>146</v>
       </c>
     </row>
@@ -37508,7 +38158,7 @@
       <c r="G82" t="s">
         <v>283</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>565</v>
       </c>
     </row>
@@ -37516,7 +38166,7 @@
       <c r="G83" t="s">
         <v>289</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>147</v>
       </c>
     </row>
@@ -37524,7 +38174,7 @@
       <c r="G84" t="s">
         <v>278</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>148</v>
       </c>
     </row>
@@ -37532,7 +38182,7 @@
       <c r="G85" t="s">
         <v>599</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>201</v>
       </c>
     </row>
@@ -37540,7 +38190,7 @@
       <c r="G86" t="s">
         <v>273</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>553</v>
       </c>
     </row>
@@ -37548,7 +38198,7 @@
       <c r="G87" t="s">
         <v>290</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>202</v>
       </c>
     </row>
@@ -37556,7 +38206,7 @@
       <c r="G88" t="s">
         <v>274</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>520</v>
       </c>
     </row>
@@ -37564,7 +38214,7 @@
       <c r="G89" t="s">
         <v>275</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>203</v>
       </c>
     </row>
@@ -37572,7 +38222,7 @@
       <c r="G90" t="s">
         <v>307</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>204</v>
       </c>
     </row>
@@ -37580,7 +38230,7 @@
       <c r="G91" t="s">
         <v>313</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>217</v>
       </c>
     </row>
@@ -37588,7 +38238,7 @@
       <c r="G92" t="s">
         <v>297</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>149</v>
       </c>
     </row>
@@ -37596,7 +38246,7 @@
       <c r="G93" t="s">
         <v>342</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>205</v>
       </c>
     </row>
@@ -37604,7 +38254,7 @@
       <c r="G94" t="s">
         <v>279</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>500</v>
       </c>
     </row>
@@ -37612,177 +38262,177 @@
       <c r="G95" t="s">
         <v>280</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="96">
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="97">
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="98">
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="108">
-      <c r="Y108" t="s">
+      <c r="Z108" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="109">
-      <c r="Y109" t="s">
+      <c r="Z109" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="110">
-      <c r="Y110" t="s">
+      <c r="Z110" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="111">
-      <c r="Y111" t="s">
+      <c r="Z111" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="112">
-      <c r="Y112" t="s">
+      <c r="Z112" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="113">
-      <c r="Y113" t="s">
+      <c r="Z113" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="114">
-      <c r="Y114" t="s">
+      <c r="Z114" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="115">
-      <c r="Y115" t="s">
+      <c r="Z115" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="116">
-      <c r="Y116" t="s">
+      <c r="Z116" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="117">
-      <c r="Y117" t="s">
+      <c r="Z117" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="118">
-      <c r="Y118" t="s">
+      <c r="Z118" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="119">
-      <c r="Y119" t="s">
+      <c r="Z119" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="120">
-      <c r="Y120" t="s">
+      <c r="Z120" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="121">
-      <c r="Y121" t="s">
+      <c r="Z121" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="122">
-      <c r="Y122" t="s">
+      <c r="Z122" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="123">
-      <c r="Y123" t="s">
+      <c r="Z123" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="124">
-      <c r="Y124" t="s">
+      <c r="Z124" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="125">
-      <c r="Y125" t="s">
+      <c r="Z125" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="126">
-      <c r="Y126" t="s">
+      <c r="Z126" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="127">
-      <c r="Y127" t="s">
+      <c r="Z127" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="128">
-      <c r="Y128" t="s">
+      <c r="Z128" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="129">
-      <c r="Y129" t="s">
+      <c r="Z129" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -23,7 +23,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28926" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30032" uniqueCount="614">
   <si>
     <t>description</t>
   </si>
@@ -1965,13 +1965,19 @@
   <si>
     <t>spellCheck(var,profile,text)</t>
   </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="919" x14ac:knownFonts="1">
+  <fonts count="951" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7767,8 +7773,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1597">
+  <fills count="1651">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16814,8 +17022,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1635">
+  <borders count="1699">
     <border>
       <left/>
       <right/>
@@ -32467,6 +32981,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -33304,7 +34470,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="946">
+  <cellXfs count="978">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -36114,52 +37280,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1569" fontId="902" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="903" fillId="1572" borderId="1610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1610" fillId="1572" fontId="903" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="904" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="904" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="905" fillId="1575" borderId="1614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1614" fillId="1575" fontId="905" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="906" fillId="1578" borderId="1618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1618" fillId="1578" fontId="906" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="907" fillId="1581" borderId="1622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1622" fillId="1581" fontId="907" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="908" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="908" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="909" fillId="1584" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1584" fontId="909" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="910" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="910" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="911" fillId="1587" borderId="1626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1626" fillId="1587" fontId="911" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="912" fillId="1578" borderId="1630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1630" fillId="1578" fontId="912" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="913" fillId="1590" borderId="1634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1634" fillId="1590" fontId="913" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="914" fillId="1590" borderId="1634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1634" fillId="1590" fontId="914" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="915" fillId="1581" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1581" fontId="915" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="916" fillId="1593" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1593" fontId="916" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="917" fillId="1581" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1581" fontId="917" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="918" fillId="1596" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1596" fontId="918" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1642" fillId="1599" fontId="919" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="920" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1646" fillId="1602" fontId="921" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1650" fillId="1605" fontId="922" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1654" fillId="1608" fontId="923" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="924" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1611" fontId="925" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="926" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1658" fillId="1614" fontId="927" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1662" fillId="1605" fontId="928" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1666" fillId="1617" fontId="929" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1666" fillId="1617" fontId="930" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1608" fontId="931" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1620" fontId="932" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1608" fontId="933" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1623" fontId="934" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="935" fillId="1626" borderId="1674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="936" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="937" fillId="1629" borderId="1678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="938" fillId="1632" borderId="1682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="939" fillId="1635" borderId="1686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="940" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="941" fillId="1638" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="942" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="943" fillId="1641" borderId="1690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="944" fillId="1632" borderId="1694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="945" fillId="1644" borderId="1698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="946" fillId="1644" borderId="1698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="947" fillId="1635" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="948" fillId="1647" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="949" fillId="1635" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="950" fillId="1650" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -37836,7 +39098,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>291</v>
+        <v>612</v>
       </c>
       <c r="Z42" t="s">
         <v>124</v>
@@ -37844,7 +39106,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="Z43" t="s">
         <v>125</v>
@@ -37852,7 +39114,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Z44" t="s">
         <v>126</v>
@@ -37860,7 +39122,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>345</v>
+        <v>303</v>
       </c>
       <c r="Z45" t="s">
         <v>127</v>
@@ -37868,7 +39130,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Z46" t="s">
         <v>128</v>
@@ -37876,7 +39138,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="Z47" t="s">
         <v>507</v>
@@ -37884,7 +39146,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>322</v>
+        <v>213</v>
       </c>
       <c r="Z48" t="s">
         <v>215</v>
@@ -37892,7 +39154,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="Z49" t="s">
         <v>78</v>
@@ -37900,7 +39162,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="Z50" t="s">
         <v>602</v>
@@ -37908,7 +39170,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>304</v>
+        <v>374</v>
       </c>
       <c r="Z51" t="s">
         <v>129</v>
@@ -37916,7 +39178,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>362</v>
+        <v>304</v>
       </c>
       <c r="Z52" t="s">
         <v>130</v>
@@ -37924,7 +39186,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="Z53" t="s">
         <v>131</v>
@@ -37932,7 +39194,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="Z54" t="s">
         <v>552</v>
@@ -37940,7 +39202,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="Z55" t="s">
         <v>533</v>
@@ -37948,7 +39210,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Z56" t="s">
         <v>132</v>
@@ -37956,7 +39218,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Z57" t="s">
         <v>351</v>
@@ -37964,7 +39226,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>305</v>
+        <v>613</v>
       </c>
       <c r="Z58" t="s">
         <v>526</v>
@@ -37972,7 +39234,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="Z59" t="s">
         <v>133</v>
@@ -37980,7 +39242,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="Z60" t="s">
         <v>134</v>
@@ -37988,7 +39250,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Z61" t="s">
         <v>135</v>
@@ -37996,7 +39258,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="Z62" t="s">
         <v>136</v>
@@ -38004,7 +39266,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>375</v>
+        <v>311</v>
       </c>
       <c r="Z63" t="s">
         <v>137</v>
@@ -38012,7 +39274,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>376</v>
+        <v>312</v>
       </c>
       <c r="Z64" t="s">
         <v>138</v>
@@ -38020,7 +39282,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="Z65" t="s">
         <v>139</v>
@@ -38028,7 +39290,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>315</v>
+        <v>376</v>
       </c>
       <c r="Z66" t="s">
         <v>503</v>
@@ -38036,7 +39298,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>271</v>
+        <v>347</v>
       </c>
       <c r="Z67" t="s">
         <v>543</v>
@@ -38044,7 +39306,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>598</v>
+        <v>315</v>
       </c>
       <c r="Z68" t="s">
         <v>216</v>
@@ -38052,7 +39314,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="Z69" t="s">
         <v>408</v>
@@ -38060,7 +39322,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>448</v>
+        <v>598</v>
       </c>
       <c r="Z70" t="s">
         <v>508</v>
@@ -38068,7 +39330,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="Z71" t="s">
         <v>140</v>
@@ -38076,7 +39338,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Z72" t="s">
         <v>141</v>
@@ -38084,7 +39346,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="Z73" t="s">
         <v>142</v>
@@ -38092,7 +39354,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>578</v>
+        <v>449</v>
       </c>
       <c r="Z74" t="s">
         <v>143</v>
@@ -38100,7 +39362,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>346</v>
+        <v>264</v>
       </c>
       <c r="Z75" t="s">
         <v>199</v>
@@ -38108,7 +39370,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>282</v>
+        <v>578</v>
       </c>
       <c r="Z76" t="s">
         <v>200</v>
@@ -38116,7 +39378,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>288</v>
+        <v>346</v>
       </c>
       <c r="Z77" t="s">
         <v>521</v>
@@ -38124,7 +39386,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="Z78" t="s">
         <v>537</v>
@@ -38132,7 +39394,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>467</v>
+        <v>288</v>
       </c>
       <c r="Z79" t="s">
         <v>144</v>
@@ -38140,7 +39402,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>334</v>
+        <v>293</v>
       </c>
       <c r="Z80" t="s">
         <v>145</v>
@@ -38148,7 +39410,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>272</v>
+        <v>467</v>
       </c>
       <c r="Z81" t="s">
         <v>146</v>
@@ -38156,7 +39418,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="Z82" t="s">
         <v>565</v>
@@ -38164,7 +39426,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="Z83" t="s">
         <v>147</v>
@@ -38172,7 +39434,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Z84" t="s">
         <v>148</v>
@@ -38180,7 +39442,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>599</v>
+        <v>289</v>
       </c>
       <c r="Z85" t="s">
         <v>201</v>
@@ -38188,7 +39450,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Z86" t="s">
         <v>553</v>
@@ -38196,7 +39458,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>290</v>
+        <v>599</v>
       </c>
       <c r="Z87" t="s">
         <v>202</v>
@@ -38204,7 +39466,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Z88" t="s">
         <v>520</v>
@@ -38212,7 +39474,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="Z89" t="s">
         <v>203</v>
@@ -38220,7 +39482,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="Z90" t="s">
         <v>204</v>
@@ -38228,7 +39490,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="Z91" t="s">
         <v>217</v>
@@ -38236,7 +39498,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="Z92" t="s">
         <v>149</v>
@@ -38244,7 +39506,7 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="Z93" t="s">
         <v>205</v>
@@ -38252,7 +39514,7 @@
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="Z94" t="s">
         <v>500</v>
@@ -38260,18 +39522,24 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>280</v>
+        <v>342</v>
       </c>
       <c r="Z95" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="96">
+      <c r="G96" t="s">
+        <v>279</v>
+      </c>
       <c r="Z96" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="97">
+      <c r="G97" t="s">
+        <v>280</v>
+      </c>
       <c r="Z97" t="s">
         <v>207</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -29,7 +29,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,13 +42,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30032" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30583" uniqueCount="615">
   <si>
     <t>description</t>
   </si>
@@ -1971,13 +1971,16 @@
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="951" x14ac:knownFonts="1">
+  <fonts count="967" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7975,8 +7978,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1651">
+  <fills count="1678">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17328,8 +17432,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1699">
+  <borders count="1731">
     <border>
       <left/>
       <right/>
@@ -32981,6 +33238,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -34470,7 +35053,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="978">
+  <cellXfs count="994">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -37376,52 +37959,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1623" fontId="934" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="935" fillId="1626" borderId="1674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1674" fillId="1626" fontId="935" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="936" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="936" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="937" fillId="1629" borderId="1678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1678" fillId="1629" fontId="937" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="938" fillId="1632" borderId="1682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1682" fillId="1632" fontId="938" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="939" fillId="1635" borderId="1686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1686" fillId="1635" fontId="939" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="940" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="940" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="941" fillId="1638" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1638" fontId="941" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="942" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="942" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="943" fillId="1641" borderId="1690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1690" fillId="1641" fontId="943" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="944" fillId="1632" borderId="1694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1694" fillId="1632" fontId="944" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="945" fillId="1644" borderId="1698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1698" fillId="1644" fontId="945" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="946" fillId="1644" borderId="1698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1698" fillId="1644" fontId="946" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="947" fillId="1635" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1635" fontId="947" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="948" fillId="1647" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1647" fontId="948" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="949" fillId="1635" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1635" fontId="949" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="950" fillId="1650" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1650" fontId="950" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="951" fillId="1653" borderId="1706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="952" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="953" fillId="1656" borderId="1710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="954" fillId="1659" borderId="1714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="955" fillId="1662" borderId="1718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="956" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="957" fillId="1665" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="958" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="959" fillId="1668" borderId="1722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="960" fillId="1659" borderId="1726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="961" fillId="1671" borderId="1730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="962" fillId="1671" borderId="1730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="963" fillId="1662" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="964" fillId="1674" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="965" fillId="1662" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="966" fillId="1677" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -37776,7 +38407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -37861,24 +38492,21 @@
         <v>434</v>
       </c>
       <c r="Y1" t="s">
-        <v>609</v>
+        <v>55</v>
       </c>
       <c r="Z1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC1" t="s">
-        <v>58</v>
+        <v>461</v>
       </c>
       <c r="AD1" t="s">
-        <v>461</v>
-      </c>
-      <c r="AE1" t="s">
         <v>229</v>
       </c>
     </row>
@@ -37956,24 +38584,21 @@
         <v>435</v>
       </c>
       <c r="Y2" t="s">
-        <v>611</v>
+        <v>98</v>
       </c>
       <c r="Z2" t="s">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="AA2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AB2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AC2" t="s">
-        <v>185</v>
+        <v>471</v>
       </c>
       <c r="AD2" t="s">
-        <v>471</v>
-      </c>
-      <c r="AE2" t="s">
         <v>560</v>
       </c>
     </row>
@@ -38044,22 +38669,22 @@
       <c r="X3" t="s">
         <v>436</v>
       </c>
+      <c r="Y3" t="s">
+        <v>99</v>
+      </c>
       <c r="Z3" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="AA3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AB3" t="s">
-        <v>179</v>
+        <v>370</v>
       </c>
       <c r="AC3" t="s">
-        <v>370</v>
+        <v>186</v>
       </c>
       <c r="AD3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE3" t="s">
         <v>230</v>
       </c>
     </row>
@@ -38127,22 +38752,22 @@
       <c r="X4" t="s">
         <v>437</v>
       </c>
+      <c r="Y4" t="s">
+        <v>359</v>
+      </c>
       <c r="Z4" t="s">
-        <v>359</v>
+        <v>175</v>
       </c>
       <c r="AA4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AB4" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AC4" t="s">
-        <v>186</v>
+        <v>462</v>
       </c>
       <c r="AD4" t="s">
-        <v>462</v>
-      </c>
-      <c r="AE4" t="s">
         <v>231</v>
       </c>
     </row>
@@ -38201,22 +38826,22 @@
       <c r="W5" t="s">
         <v>365</v>
       </c>
+      <c r="Y5" t="s">
+        <v>360</v>
+      </c>
       <c r="Z5" t="s">
-        <v>360</v>
+        <v>176</v>
       </c>
       <c r="AA5" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AB5" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AC5" t="s">
-        <v>187</v>
+        <v>463</v>
       </c>
       <c r="AD5" t="s">
-        <v>463</v>
-      </c>
-      <c r="AE5" t="s">
         <v>232</v>
       </c>
     </row>
@@ -38269,22 +38894,22 @@
       <c r="W6" t="s">
         <v>367</v>
       </c>
+      <c r="Y6" t="s">
+        <v>100</v>
+      </c>
       <c r="Z6" t="s">
-        <v>100</v>
+        <v>510</v>
       </c>
       <c r="AA6" t="s">
-        <v>510</v>
+        <v>182</v>
       </c>
       <c r="AB6" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AC6" t="s">
-        <v>188</v>
+        <v>464</v>
       </c>
       <c r="AD6" t="s">
-        <v>464</v>
-      </c>
-      <c r="AE6" t="s">
         <v>233</v>
       </c>
     </row>
@@ -38331,22 +38956,22 @@
       <c r="W7" t="s">
         <v>366</v>
       </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
       <c r="Z7" t="s">
-        <v>101</v>
+        <v>511</v>
       </c>
       <c r="AA7" t="s">
-        <v>511</v>
+        <v>183</v>
       </c>
       <c r="AB7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AC7" t="s">
-        <v>189</v>
+        <v>465</v>
       </c>
       <c r="AD7" t="s">
-        <v>465</v>
-      </c>
-      <c r="AE7" t="s">
         <v>603</v>
       </c>
     </row>
@@ -38387,22 +39012,22 @@
       <c r="W8" t="s">
         <v>368</v>
       </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
       <c r="Z8" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="AA8" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AB8" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AC8" t="s">
-        <v>190</v>
+        <v>466</v>
       </c>
       <c r="AD8" t="s">
-        <v>466</v>
-      </c>
-      <c r="AE8" t="s">
         <v>604</v>
       </c>
     </row>
@@ -38443,13 +39068,13 @@
       <c r="W9" t="s">
         <v>369</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>211</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>191</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>605</v>
       </c>
     </row>
@@ -38484,13 +39109,13 @@
       <c r="T10" t="s">
         <v>447</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>259</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>192</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>234</v>
       </c>
     </row>
@@ -38522,13 +39147,13 @@
       <c r="R11" t="s">
         <v>250</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>260</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>261</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>235</v>
       </c>
     </row>
@@ -38560,13 +39185,13 @@
       <c r="R12" t="s">
         <v>251</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>103</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>193</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>236</v>
       </c>
     </row>
@@ -38595,13 +39220,13 @@
       <c r="R13" t="s">
         <v>256</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>328</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>194</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>544</v>
       </c>
     </row>
@@ -38630,13 +39255,13 @@
       <c r="R14" t="s">
         <v>252</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>104</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>195</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>561</v>
       </c>
     </row>
@@ -38662,13 +39287,13 @@
       <c r="R15" t="s">
         <v>253</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>105</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>196</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>562</v>
       </c>
     </row>
@@ -38686,7 +39311,7 @@
         <v>82</v>
       </c>
       <c r="M16" t="s">
-        <v>40</v>
+        <v>614</v>
       </c>
       <c r="Q16" t="s">
         <v>570</v>
@@ -38694,13 +39319,13 @@
       <c r="R16" t="s">
         <v>254</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>76</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>197</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>566</v>
       </c>
     </row>
@@ -38718,15 +39343,15 @@
         <v>83</v>
       </c>
       <c r="M17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" t="s">
         <v>571</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>528</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>567</v>
       </c>
     </row>
@@ -38743,10 +39368,13 @@
       <c r="K18" t="s">
         <v>523</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y18" t="s">
         <v>106</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>545</v>
       </c>
     </row>
@@ -38763,10 +39391,10 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>107</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>563</v>
       </c>
     </row>
@@ -38783,10 +39411,10 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>108</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>564</v>
       </c>
     </row>
@@ -38803,10 +39431,10 @@
       <c r="K21" t="s">
         <v>386</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>109</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>568</v>
       </c>
     </row>
@@ -38823,10 +39451,10 @@
       <c r="K22" t="s">
         <v>540</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>554</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>237</v>
       </c>
     </row>
@@ -38843,10 +39471,10 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>111</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>606</v>
       </c>
     </row>
@@ -38863,16 +39491,16 @@
       <c r="K24" t="s">
         <v>426</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>112</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>609</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
         <v>64</v>
@@ -38883,16 +39511,16 @@
       <c r="K25" t="s">
         <v>593</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>113</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>514</v>
@@ -38903,16 +39531,16 @@
       <c r="K26" t="s">
         <v>86</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>114</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
         <v>227</v>
@@ -38923,16 +39551,16 @@
       <c r="K27" t="s">
         <v>505</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>115</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>228</v>
@@ -38943,13 +39571,13 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>461</v>
       </c>
       <c r="E29" t="s">
         <v>538</v>
@@ -38960,13 +39588,13 @@
       <c r="K29" t="s">
         <v>46</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>461</v>
+        <v>229</v>
       </c>
       <c r="E30" t="s">
         <v>539</v>
@@ -38974,21 +39602,18 @@
       <c r="G30" t="s">
         <v>218</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>229</v>
-      </c>
       <c r="E31" t="s">
         <v>457</v>
       </c>
       <c r="G31" t="s">
         <v>277</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>118</v>
       </c>
     </row>
@@ -38999,7 +39624,7 @@
       <c r="G32" t="s">
         <v>287</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>119</v>
       </c>
     </row>
@@ -39010,7 +39635,7 @@
       <c r="G33" t="s">
         <v>577</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>120</v>
       </c>
     </row>
@@ -39021,7 +39646,7 @@
       <c r="G34" t="s">
         <v>262</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>121</v>
       </c>
     </row>
@@ -39032,7 +39657,7 @@
       <c r="G35" t="s">
         <v>332</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>212</v>
       </c>
     </row>
@@ -39043,7 +39668,7 @@
       <c r="G36" t="s">
         <v>309</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -39054,7 +39679,7 @@
       <c r="G37" t="s">
         <v>263</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>340</v>
       </c>
     </row>
@@ -39065,7 +39690,7 @@
       <c r="G38" t="s">
         <v>310</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>498</v>
       </c>
     </row>
@@ -39076,7 +39701,7 @@
       <c r="G39" t="s">
         <v>269</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>597</v>
       </c>
     </row>
@@ -39084,7 +39709,7 @@
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>427</v>
       </c>
     </row>
@@ -39092,7 +39717,7 @@
       <c r="G41" t="s">
         <v>214</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>123</v>
       </c>
     </row>
@@ -39100,7 +39725,7 @@
       <c r="G42" t="s">
         <v>612</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>124</v>
       </c>
     </row>
@@ -39108,7 +39733,7 @@
       <c r="G43" t="s">
         <v>291</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>125</v>
       </c>
     </row>
@@ -39116,7 +39741,7 @@
       <c r="G44" t="s">
         <v>302</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>126</v>
       </c>
     </row>
@@ -39124,7 +39749,7 @@
       <c r="G45" t="s">
         <v>303</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>127</v>
       </c>
     </row>
@@ -39132,7 +39757,7 @@
       <c r="G46" t="s">
         <v>345</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>128</v>
       </c>
     </row>
@@ -39140,7 +39765,7 @@
       <c r="G47" t="s">
         <v>344</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>507</v>
       </c>
     </row>
@@ -39148,7 +39773,7 @@
       <c r="G48" t="s">
         <v>213</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>215</v>
       </c>
     </row>
@@ -39156,7 +39781,7 @@
       <c r="G49" t="s">
         <v>322</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>78</v>
       </c>
     </row>
@@ -39164,7 +39789,7 @@
       <c r="G50" t="s">
         <v>341</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>602</v>
       </c>
     </row>
@@ -39172,7 +39797,7 @@
       <c r="G51" t="s">
         <v>374</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>129</v>
       </c>
     </row>
@@ -39180,7 +39805,7 @@
       <c r="G52" t="s">
         <v>304</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>130</v>
       </c>
     </row>
@@ -39188,7 +39813,7 @@
       <c r="G53" t="s">
         <v>362</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>131</v>
       </c>
     </row>
@@ -39196,7 +39821,7 @@
       <c r="G54" t="s">
         <v>333</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>552</v>
       </c>
     </row>
@@ -39204,7 +39829,7 @@
       <c r="G55" t="s">
         <v>270</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>533</v>
       </c>
     </row>
@@ -39212,7 +39837,7 @@
       <c r="G56" t="s">
         <v>294</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>132</v>
       </c>
     </row>
@@ -39220,7 +39845,7 @@
       <c r="G57" t="s">
         <v>295</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>351</v>
       </c>
     </row>
@@ -39228,7 +39853,7 @@
       <c r="G58" t="s">
         <v>613</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>526</v>
       </c>
     </row>
@@ -39236,7 +39861,7 @@
       <c r="G59" t="s">
         <v>296</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>133</v>
       </c>
     </row>
@@ -39244,7 +39869,7 @@
       <c r="G60" t="s">
         <v>305</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>134</v>
       </c>
     </row>
@@ -39252,7 +39877,7 @@
       <c r="G61" t="s">
         <v>314</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>135</v>
       </c>
     </row>
@@ -39260,7 +39885,7 @@
       <c r="G62" t="s">
         <v>339</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>136</v>
       </c>
     </row>
@@ -39268,7 +39893,7 @@
       <c r="G63" t="s">
         <v>311</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>137</v>
       </c>
     </row>
@@ -39276,7 +39901,7 @@
       <c r="G64" t="s">
         <v>312</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>138</v>
       </c>
     </row>
@@ -39284,7 +39909,7 @@
       <c r="G65" t="s">
         <v>375</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>139</v>
       </c>
     </row>
@@ -39292,7 +39917,7 @@
       <c r="G66" t="s">
         <v>376</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>503</v>
       </c>
     </row>
@@ -39300,7 +39925,7 @@
       <c r="G67" t="s">
         <v>347</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>543</v>
       </c>
     </row>
@@ -39308,7 +39933,7 @@
       <c r="G68" t="s">
         <v>315</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>216</v>
       </c>
     </row>
@@ -39316,7 +39941,7 @@
       <c r="G69" t="s">
         <v>271</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>408</v>
       </c>
     </row>
@@ -39324,7 +39949,7 @@
       <c r="G70" t="s">
         <v>598</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>508</v>
       </c>
     </row>
@@ -39332,7 +39957,7 @@
       <c r="G71" t="s">
         <v>316</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>140</v>
       </c>
     </row>
@@ -39340,7 +39965,7 @@
       <c r="G72" t="s">
         <v>448</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>141</v>
       </c>
     </row>
@@ -39348,7 +39973,7 @@
       <c r="G73" t="s">
         <v>306</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>142</v>
       </c>
     </row>
@@ -39356,7 +39981,7 @@
       <c r="G74" t="s">
         <v>449</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>143</v>
       </c>
     </row>
@@ -39364,7 +39989,7 @@
       <c r="G75" t="s">
         <v>264</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>199</v>
       </c>
     </row>
@@ -39372,7 +39997,7 @@
       <c r="G76" t="s">
         <v>578</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>200</v>
       </c>
     </row>
@@ -39380,7 +40005,7 @@
       <c r="G77" t="s">
         <v>346</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>521</v>
       </c>
     </row>
@@ -39388,7 +40013,7 @@
       <c r="G78" t="s">
         <v>282</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>537</v>
       </c>
     </row>
@@ -39396,7 +40021,7 @@
       <c r="G79" t="s">
         <v>288</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>144</v>
       </c>
     </row>
@@ -39404,7 +40029,7 @@
       <c r="G80" t="s">
         <v>293</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>145</v>
       </c>
     </row>
@@ -39412,7 +40037,7 @@
       <c r="G81" t="s">
         <v>467</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>146</v>
       </c>
     </row>
@@ -39420,7 +40045,7 @@
       <c r="G82" t="s">
         <v>334</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>565</v>
       </c>
     </row>
@@ -39428,7 +40053,7 @@
       <c r="G83" t="s">
         <v>272</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>147</v>
       </c>
     </row>
@@ -39436,7 +40061,7 @@
       <c r="G84" t="s">
         <v>283</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>148</v>
       </c>
     </row>
@@ -39444,7 +40069,7 @@
       <c r="G85" t="s">
         <v>289</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>201</v>
       </c>
     </row>
@@ -39452,7 +40077,7 @@
       <c r="G86" t="s">
         <v>278</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>553</v>
       </c>
     </row>
@@ -39460,7 +40085,7 @@
       <c r="G87" t="s">
         <v>599</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>202</v>
       </c>
     </row>
@@ -39468,7 +40093,7 @@
       <c r="G88" t="s">
         <v>273</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>520</v>
       </c>
     </row>
@@ -39476,7 +40101,7 @@
       <c r="G89" t="s">
         <v>290</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>203</v>
       </c>
     </row>
@@ -39484,7 +40109,7 @@
       <c r="G90" t="s">
         <v>274</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>204</v>
       </c>
     </row>
@@ -39492,7 +40117,7 @@
       <c r="G91" t="s">
         <v>275</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>217</v>
       </c>
     </row>
@@ -39500,7 +40125,7 @@
       <c r="G92" t="s">
         <v>307</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>149</v>
       </c>
     </row>
@@ -39508,7 +40133,7 @@
       <c r="G93" t="s">
         <v>313</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>205</v>
       </c>
     </row>
@@ -39516,7 +40141,7 @@
       <c r="G94" t="s">
         <v>297</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>500</v>
       </c>
     </row>
@@ -39524,7 +40149,7 @@
       <c r="G95" t="s">
         <v>342</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>502</v>
       </c>
     </row>
@@ -39532,7 +40157,7 @@
       <c r="G96" t="s">
         <v>279</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>206</v>
       </c>
     </row>
@@ -39540,167 +40165,167 @@
       <c r="G97" t="s">
         <v>280</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>172</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -25,7 +25,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2414" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2970" uniqueCount="616">
   <si>
     <t>description</t>
   </si>
@@ -1986,13 +1986,19 @@
   <si>
     <t>saveISTDivsAsCsv(config,file)</t>
   </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="75" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2373,8 +2379,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2852,8 +2959,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="99">
+  <borders count="131">
     <border>
       <left/>
       <right/>
@@ -3869,6 +4129,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3876,7 +4462,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="102">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4106,52 +4692,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="60" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="60" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="63" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="63" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="66" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="66" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="69" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="69" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="49" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="75" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="75" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="66" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="66" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="78" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="78" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4887,7 +5521,7 @@
         <v>497</v>
       </c>
       <c r="G5" t="s">
-        <v>334</v>
+        <v>614</v>
       </c>
       <c r="H5" t="s">
         <v>513</v>
@@ -4961,7 +5595,7 @@
         <v>561</v>
       </c>
       <c r="G6" t="s">
-        <v>402</v>
+        <v>334</v>
       </c>
       <c r="H6" t="s">
         <v>509</v>
@@ -5023,7 +5657,7 @@
         <v>222</v>
       </c>
       <c r="G7" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="H7" t="s">
         <v>505</v>
@@ -5085,7 +5719,7 @@
         <v>316</v>
       </c>
       <c r="G8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H8" t="s">
         <v>326</v>
@@ -5141,7 +5775,7 @@
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>304</v>
+        <v>368</v>
       </c>
       <c r="H9" t="s">
         <v>327</v>
@@ -5185,7 +5819,7 @@
         <v>313</v>
       </c>
       <c r="G10" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="H10" t="s">
         <v>510</v>
@@ -5226,7 +5860,7 @@
         <v>253</v>
       </c>
       <c r="G11" t="s">
-        <v>272</v>
+        <v>353</v>
       </c>
       <c r="H11" t="s">
         <v>320</v>
@@ -5264,7 +5898,7 @@
         <v>317</v>
       </c>
       <c r="G12" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="H12" t="s">
         <v>321</v>
@@ -5302,7 +5936,7 @@
         <v>339</v>
       </c>
       <c r="G13" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="H13" t="s">
         <v>322</v>
@@ -5337,7 +5971,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="H14" t="s">
         <v>323</v>
@@ -5372,7 +6006,7 @@
         <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K15" t="s">
         <v>564</v>
@@ -5404,7 +6038,7 @@
         <v>399</v>
       </c>
       <c r="G16" t="s">
-        <v>315</v>
+        <v>263</v>
       </c>
       <c r="K16" t="s">
         <v>81</v>
@@ -5436,7 +6070,7 @@
         <v>400</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
       <c r="K17" t="s">
         <v>82</v>
@@ -5462,7 +6096,7 @@
         <v>445</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s">
         <v>514</v>
@@ -5485,7 +6119,7 @@
         <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>294</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s">
         <v>83</v>
@@ -5505,7 +6139,7 @@
         <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K20" t="s">
         <v>84</v>
@@ -5525,7 +6159,7 @@
         <v>254</v>
       </c>
       <c r="G21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K21" t="s">
         <v>381</v>
@@ -5545,7 +6179,7 @@
         <v>596</v>
       </c>
       <c r="G22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K22" t="s">
         <v>528</v>
@@ -5565,7 +6199,7 @@
         <v>62</v>
       </c>
       <c r="G23" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="K23" t="s">
         <v>43</v>
@@ -5585,7 +6219,7 @@
         <v>319</v>
       </c>
       <c r="G24" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="K24" t="s">
         <v>421</v>
@@ -5605,7 +6239,7 @@
         <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="K25" t="s">
         <v>580</v>
@@ -5625,7 +6259,7 @@
         <v>506</v>
       </c>
       <c r="G26" t="s">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s">
         <v>85</v>
@@ -5645,7 +6279,7 @@
         <v>223</v>
       </c>
       <c r="G27" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="K27" t="s">
         <v>498</v>
@@ -5665,7 +6299,7 @@
         <v>224</v>
       </c>
       <c r="G28" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="K28" t="s">
         <v>44</v>
@@ -5682,7 +6316,7 @@
         <v>526</v>
       </c>
       <c r="G29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
@@ -5699,7 +6333,7 @@
         <v>527</v>
       </c>
       <c r="G30" t="s">
-        <v>214</v>
+        <v>282</v>
       </c>
       <c r="Y30" t="s">
         <v>113</v>
@@ -5710,7 +6344,7 @@
         <v>452</v>
       </c>
       <c r="G31" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="Y31" t="s">
         <v>114</v>
@@ -5721,7 +6355,7 @@
         <v>64</v>
       </c>
       <c r="G32" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="Y32" t="s">
         <v>115</v>
@@ -5732,7 +6366,7 @@
         <v>65</v>
       </c>
       <c r="G33" t="s">
-        <v>565</v>
+        <v>283</v>
       </c>
       <c r="Y33" t="s">
         <v>116</v>
@@ -5743,7 +6377,7 @@
         <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>258</v>
+        <v>565</v>
       </c>
       <c r="Y34" t="s">
         <v>611</v>
@@ -5754,7 +6388,7 @@
         <v>67</v>
       </c>
       <c r="G35" t="s">
-        <v>328</v>
+        <v>258</v>
       </c>
       <c r="Y35" t="s">
         <v>117</v>
@@ -5765,7 +6399,7 @@
         <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="Y36" t="s">
         <v>118</v>
@@ -5776,7 +6410,7 @@
         <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="Y37" t="s">
         <v>208</v>
@@ -5787,7 +6421,7 @@
         <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="Y38" t="s">
         <v>119</v>
@@ -5798,7 +6432,7 @@
         <v>71</v>
       </c>
       <c r="G39" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="Y39" t="s">
         <v>336</v>
@@ -5806,7 +6440,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="Y40" t="s">
         <v>493</v>
@@ -5814,7 +6448,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s">
         <v>584</v>
@@ -5822,7 +6456,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>597</v>
+        <v>210</v>
       </c>
       <c r="Y42" t="s">
         <v>422</v>
@@ -5830,7 +6464,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>287</v>
+        <v>597</v>
       </c>
       <c r="Y43" t="s">
         <v>120</v>
@@ -5838,7 +6472,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="Y44" t="s">
         <v>121</v>
@@ -5846,7 +6480,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Y45" t="s">
         <v>122</v>
@@ -5854,7 +6488,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="Y46" t="s">
         <v>123</v>
@@ -5862,7 +6496,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y47" t="s">
         <v>124</v>
@@ -5870,7 +6504,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>209</v>
+        <v>340</v>
       </c>
       <c r="Y48" t="s">
         <v>125</v>
@@ -5878,7 +6512,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>318</v>
+        <v>209</v>
       </c>
       <c r="Y49" t="s">
         <v>500</v>
@@ -5886,7 +6520,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="Y50" t="s">
         <v>211</v>
@@ -5894,7 +6528,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="Y51" t="s">
         <v>77</v>
@@ -5902,7 +6536,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>300</v>
+        <v>369</v>
       </c>
       <c r="Y52" t="s">
         <v>589</v>
@@ -5910,7 +6544,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>357</v>
+        <v>300</v>
       </c>
       <c r="Y53" t="s">
         <v>126</v>
@@ -5918,7 +6552,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="Y54" t="s">
         <v>127</v>
@@ -5926,7 +6560,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>266</v>
+        <v>329</v>
       </c>
       <c r="Y55" t="s">
         <v>128</v>
@@ -5934,7 +6568,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="Y56" t="s">
         <v>540</v>
@@ -5942,7 +6576,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Y57" t="s">
         <v>523</v>
@@ -5950,7 +6584,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>598</v>
+        <v>291</v>
       </c>
       <c r="Y58" t="s">
         <v>129</v>
@@ -5958,7 +6592,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>292</v>
+        <v>598</v>
       </c>
       <c r="Y59" t="s">
         <v>347</v>
@@ -5966,7 +6600,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="Y60" t="s">
         <v>517</v>
@@ -5974,7 +6608,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="Y61" t="s">
         <v>130</v>
@@ -5982,7 +6616,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="Y62" t="s">
         <v>131</v>
@@ -5990,7 +6624,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="Y63" t="s">
         <v>132</v>
@@ -5998,7 +6632,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Y64" t="s">
         <v>133</v>
@@ -6006,7 +6640,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>370</v>
+        <v>308</v>
       </c>
       <c r="Y65" t="s">
         <v>134</v>
@@ -6014,7 +6648,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Y66" t="s">
         <v>135</v>
@@ -6022,7 +6656,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="Y67" t="s">
         <v>136</v>
@@ -6030,7 +6664,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="Y68" t="s">
         <v>496</v>
@@ -6038,7 +6672,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="Y69" t="s">
         <v>531</v>
@@ -6046,7 +6680,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>585</v>
+        <v>267</v>
       </c>
       <c r="Y70" t="s">
         <v>212</v>
@@ -6054,7 +6688,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>312</v>
+        <v>585</v>
       </c>
       <c r="Y71" t="s">
         <v>403</v>
@@ -6062,7 +6696,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>443</v>
+        <v>312</v>
       </c>
       <c r="Y72" t="s">
         <v>501</v>
@@ -6070,7 +6704,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>302</v>
+        <v>443</v>
       </c>
       <c r="Y73" t="s">
         <v>137</v>
@@ -6078,7 +6712,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>444</v>
+        <v>302</v>
       </c>
       <c r="Y74" t="s">
         <v>138</v>
@@ -6086,7 +6720,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>260</v>
+        <v>444</v>
       </c>
       <c r="Y75" t="s">
         <v>139</v>
@@ -6094,7 +6728,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>566</v>
+        <v>260</v>
       </c>
       <c r="Y76" t="s">
         <v>140</v>
@@ -6102,7 +6736,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>342</v>
+        <v>566</v>
       </c>
       <c r="Y77" t="s">
         <v>195</v>
@@ -6110,7 +6744,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>278</v>
+        <v>342</v>
       </c>
       <c r="Y78" t="s">
         <v>196</v>
@@ -6118,7 +6752,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="Y79" t="s">
         <v>512</v>
@@ -6126,7 +6760,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="Y80" t="s">
         <v>525</v>
@@ -6134,7 +6768,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>462</v>
+        <v>289</v>
       </c>
       <c r="Y81" t="s">
         <v>141</v>
@@ -6142,7 +6776,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>330</v>
+        <v>462</v>
       </c>
       <c r="Y82" t="s">
         <v>142</v>
@@ -6150,7 +6784,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>268</v>
+        <v>330</v>
       </c>
       <c r="Y83" t="s">
         <v>143</v>
@@ -6158,7 +6792,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="Y84" t="s">
         <v>553</v>
@@ -6166,7 +6800,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Y85" t="s">
         <v>144</v>
@@ -6174,7 +6808,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="Y86" t="s">
         <v>145</v>
@@ -6182,7 +6816,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>586</v>
+        <v>274</v>
       </c>
       <c r="Y87" t="s">
         <v>197</v>
@@ -6190,7 +6824,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>269</v>
+        <v>586</v>
       </c>
       <c r="Y88" t="s">
         <v>541</v>
@@ -6198,7 +6832,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="Y89" t="s">
         <v>198</v>
@@ -6206,7 +6840,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="Y90" t="s">
         <v>511</v>
@@ -6214,7 +6848,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Y91" t="s">
         <v>199</v>
@@ -6222,7 +6856,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="Y92" t="s">
         <v>200</v>
@@ -6230,15 +6864,15 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="Y93" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="Y94" t="s">
         <v>213</v>
@@ -6246,7 +6880,7 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="Y95" t="s">
         <v>146</v>
@@ -6254,7 +6888,7 @@
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>275</v>
+        <v>338</v>
       </c>
       <c r="Y96" t="s">
         <v>201</v>
@@ -6262,13 +6896,16 @@
     </row>
     <row r="97">
       <c r="G97" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y97" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="98">
+      <c r="G98" t="s">
+        <v>276</v>
+      </c>
       <c r="Y98" t="s">
         <v>495</v>
       </c>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -48,7 +48,7 @@
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2970" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3527" uniqueCount="617">
   <si>
     <t>description</t>
   </si>
@@ -1992,13 +1992,16 @@
   <si>
     <t>saveInfiniteDivsAsCsv(config,file)</t>
   </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="75" x14ac:knownFonts="1">
+  <fonts count="91" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2480,8 +2483,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3112,8 +3216,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="131">
+  <borders count="163">
     <border>
       <left/>
       <right/>
@@ -4455,6 +4712,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4462,7 +5045,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="118">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4740,52 +5323,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="87" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="90" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="93" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="118" fillId="96" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="102" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="93" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5140,7 +5771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE133"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6875,7 +7506,7 @@
         <v>309</v>
       </c>
       <c r="Y94" t="s">
-        <v>213</v>
+        <v>616</v>
       </c>
     </row>
     <row r="95">
@@ -6883,7 +7514,7 @@
         <v>293</v>
       </c>
       <c r="Y95" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96">
@@ -6891,7 +7522,7 @@
         <v>338</v>
       </c>
       <c r="Y96" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97">
@@ -6899,7 +7530,7 @@
         <v>275</v>
       </c>
       <c r="Y97" t="s">
-        <v>494</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98">
@@ -6907,181 +7538,186 @@
         <v>276</v>
       </c>
       <c r="Y98" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>202</v>
+        <v>495</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>560</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>147</v>
+        <v>567</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>568</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>384</v>
+        <v>568</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>148</v>
+        <v>384</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>502</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>161</v>
+        <v>502</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>612</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>162</v>
+        <v>612</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130">
       <c r="Y130" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131">
       <c r="Y131" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="132">
       <c r="Y132" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="133">
       <c r="Y133" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{DABCE398-F334-2142-A3DD-8B5974FA5A7C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="15760" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="15760" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -22,15 +22,15 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
@@ -49,7 +49,7 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="626">
   <si>
     <t>description</t>
   </si>
@@ -2008,13 +2008,28 @@
   <si>
     <t>saveMatches(var,path,fileFilter,textFilter)</t>
   </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2193,8 +2208,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2366,8 +2482,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -2731,6 +3000,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2738,7 +3333,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="70">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2872,52 +3467,100 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="13" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="15" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="17" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="12" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="48" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="39" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3272,9 +3915,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3588,7 +4231,7 @@
         <v>350</v>
       </c>
       <c r="L4" t="s">
-        <v>236</v>
+        <v>622</v>
       </c>
       <c r="M4" t="s">
         <v>332</v>
@@ -3624,7 +4267,7 @@
         <v>430</v>
       </c>
       <c r="Z4" t="s">
-        <v>353</v>
+        <v>623</v>
       </c>
       <c r="AA4" t="s">
         <v>171</v>
@@ -3671,7 +4314,7 @@
         <v>351</v>
       </c>
       <c r="L5" t="s">
-        <v>516</v>
+        <v>236</v>
       </c>
       <c r="N5" t="s">
         <v>87</v>
@@ -3738,11 +4381,14 @@
       <c r="I6" t="s">
         <v>507</v>
       </c>
+      <c r="J6" t="s">
+        <v>621</v>
+      </c>
       <c r="K6" t="s">
         <v>348</v>
       </c>
       <c r="L6" t="s">
-        <v>72</v>
+        <v>516</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -3804,7 +4450,7 @@
         <v>584</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="N7" t="s">
         <v>312</v>
@@ -3863,7 +4509,7 @@
         <v>325</v>
       </c>
       <c r="L8" t="s">
-        <v>560</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -3919,7 +4565,7 @@
         <v>326</v>
       </c>
       <c r="L9" t="s">
-        <v>80</v>
+        <v>560</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -3963,7 +4609,7 @@
         <v>508</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -4004,7 +4650,7 @@
         <v>319</v>
       </c>
       <c r="L11" t="s">
-        <v>561</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
         <v>528</v>
@@ -4042,7 +4688,7 @@
         <v>320</v>
       </c>
       <c r="L12" t="s">
-        <v>402</v>
+        <v>561</v>
       </c>
       <c r="N12" t="s">
         <v>585</v>
@@ -4080,7 +4726,7 @@
         <v>321</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>402</v>
       </c>
       <c r="N13" t="s">
         <v>497</v>
@@ -4115,7 +4761,7 @@
         <v>322</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>527</v>
@@ -4147,7 +4793,7 @@
         <v>261</v>
       </c>
       <c r="L15" t="s">
-        <v>562</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -4179,7 +4825,7 @@
         <v>262</v>
       </c>
       <c r="L16" t="s">
-        <v>81</v>
+        <v>562</v>
       </c>
       <c r="N16" t="s">
         <v>596</v>
@@ -4211,7 +4857,7 @@
         <v>314</v>
       </c>
       <c r="L17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -4231,13 +4877,13 @@
         <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>619</v>
+        <v>443</v>
       </c>
       <c r="H18" t="s">
         <v>89</v>
       </c>
       <c r="L18" t="s">
-        <v>512</v>
+        <v>82</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -4254,13 +4900,13 @@
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>443</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
       </c>
       <c r="L19" t="s">
-        <v>83</v>
+        <v>512</v>
       </c>
       <c r="Z19" t="s">
         <v>105</v>
@@ -4274,13 +4920,13 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
         <v>293</v>
       </c>
       <c r="L20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z20" t="s">
         <v>106</v>
@@ -4294,13 +4940,13 @@
         <v>431</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>253</v>
       </c>
       <c r="H21" t="s">
         <v>294</v>
       </c>
       <c r="L21" t="s">
-        <v>620</v>
+        <v>84</v>
       </c>
       <c r="Z21" t="s">
         <v>107</v>
@@ -4314,13 +4960,13 @@
         <v>452</v>
       </c>
       <c r="F22" t="s">
-        <v>253</v>
+        <v>593</v>
       </c>
       <c r="H22" t="s">
         <v>295</v>
       </c>
       <c r="L22" t="s">
-        <v>526</v>
+        <v>620</v>
       </c>
       <c r="Z22" t="s">
         <v>540</v>
@@ -4334,13 +4980,13 @@
         <v>445</v>
       </c>
       <c r="F23" t="s">
-        <v>593</v>
+        <v>62</v>
       </c>
       <c r="H23" t="s">
         <v>296</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>526</v>
       </c>
       <c r="Z23" t="s">
         <v>108</v>
@@ -4354,13 +5000,13 @@
         <v>356</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>318</v>
       </c>
       <c r="H24" t="s">
         <v>287</v>
       </c>
       <c r="L24" t="s">
-        <v>419</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s">
         <v>607</v>
@@ -4374,13 +5020,13 @@
         <v>427</v>
       </c>
       <c r="F25" t="s">
-        <v>318</v>
+        <v>63</v>
       </c>
       <c r="H25" t="s">
         <v>276</v>
       </c>
       <c r="L25" t="s">
-        <v>578</v>
+        <v>419</v>
       </c>
       <c r="Z25" t="s">
         <v>109</v>
@@ -4394,13 +5040,13 @@
         <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>504</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
       </c>
       <c r="L26" t="s">
-        <v>85</v>
+        <v>578</v>
       </c>
       <c r="Z26" t="s">
         <v>110</v>
@@ -4414,13 +5060,13 @@
         <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>504</v>
+        <v>223</v>
       </c>
       <c r="H27" t="s">
         <v>279</v>
       </c>
       <c r="L27" t="s">
-        <v>496</v>
+        <v>85</v>
       </c>
       <c r="Z27" t="s">
         <v>111</v>
@@ -4434,13 +5080,13 @@
         <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H28" t="s">
         <v>263</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>496</v>
       </c>
       <c r="Z28" t="s">
         <v>112</v>
@@ -4451,13 +5097,13 @@
         <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>224</v>
+        <v>524</v>
       </c>
       <c r="H29" t="s">
         <v>280</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s">
         <v>324</v>
@@ -4468,10 +5114,13 @@
         <v>454</v>
       </c>
       <c r="F30" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H30" t="s">
         <v>281</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
       </c>
       <c r="Z30" t="s">
         <v>113</v>
@@ -4482,7 +5131,7 @@
         <v>225</v>
       </c>
       <c r="F31" t="s">
-        <v>525</v>
+        <v>450</v>
       </c>
       <c r="H31" t="s">
         <v>214</v>
@@ -4493,7 +5142,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>450</v>
+        <v>64</v>
       </c>
       <c r="H32" t="s">
         <v>272</v>
@@ -4504,7 +5153,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H33" t="s">
         <v>282</v>
@@ -4515,7 +5164,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H34" t="s">
         <v>563</v>
@@ -4526,7 +5175,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
         <v>257</v>
@@ -4537,7 +5186,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H36" t="s">
         <v>327</v>
@@ -4548,7 +5197,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H37" t="s">
         <v>304</v>
@@ -4559,7 +5208,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H38" t="s">
         <v>258</v>
@@ -4570,7 +5219,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s">
         <v>305</v>
@@ -4580,9 +5229,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>71</v>
-      </c>
       <c r="H40" t="s">
         <v>264</v>
       </c>
@@ -5056,186 +5702,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>493</v>
+        <v>624</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>202</v>
+        <v>625</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>203</v>
+        <v>493</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>558</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>618</v>
+        <v>206</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>147</v>
+        <v>618</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>382</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>148</v>
+        <v>566</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>500</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>609</v>
+        <v>500</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>163</v>
+        <v>609</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>168</v>
       </c>
     </row>
@@ -16590,7 +17246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F0A596-E877-8444-B1E9-5B4C2FD20D3A}">
   <dimension ref="A1:P980"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="626">
   <si>
     <t>description</t>
   </si>
@@ -2029,7 +2029,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2309,8 +2309,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="85">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2635,8 +2736,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="67">
+  <borders count="99">
     <border>
       <left/>
       <right/>
@@ -3326,6 +3580,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3333,7 +3913,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="86">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3515,52 +4095,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="33" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="36" fontId="29" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="39" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="42" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="42" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="33" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="48" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="48" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="39" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="39" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="60" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="63" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="66" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="69" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="75" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="66" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="78" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="78" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -49,7 +49,7 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="627">
   <si>
     <t>description</t>
   </si>
@@ -2023,13 +2023,16 @@
   <si>
     <t>saveSelectedValue(var,locator)</t>
   </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="75" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2410,8 +2413,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2889,8 +2993,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="99">
+  <borders count="131">
     <border>
       <left/>
       <right/>
@@ -3906,6 +4163,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3913,7 +4496,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="102">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4143,52 +4726,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="60" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="60" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="63" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="63" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="66" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="66" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="69" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="69" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="49" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="75" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="75" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="66" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="66" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="78" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="78" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4543,7 +5174,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF137"/>
+  <dimension ref="A1:AF138"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6253,7 +6884,7 @@
         <v>268</v>
       </c>
       <c r="Z89" t="s">
-        <v>198</v>
+        <v>626</v>
       </c>
     </row>
     <row r="90">
@@ -6261,7 +6892,7 @@
         <v>285</v>
       </c>
       <c r="Z90" t="s">
-        <v>509</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91">
@@ -6269,7 +6900,7 @@
         <v>269</v>
       </c>
       <c r="Z91" t="s">
-        <v>199</v>
+        <v>509</v>
       </c>
     </row>
     <row r="92">
@@ -6277,7 +6908,7 @@
         <v>270</v>
       </c>
       <c r="Z92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93">
@@ -6285,7 +6916,7 @@
         <v>302</v>
       </c>
       <c r="Z93" t="s">
-        <v>611</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94">
@@ -6293,7 +6924,7 @@
         <v>308</v>
       </c>
       <c r="Z94" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="95">
@@ -6301,7 +6932,7 @@
         <v>292</v>
       </c>
       <c r="Z95" t="s">
-        <v>213</v>
+        <v>612</v>
       </c>
     </row>
     <row r="96">
@@ -6309,7 +6940,7 @@
         <v>337</v>
       </c>
       <c r="Z96" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="97">
@@ -6317,7 +6948,7 @@
         <v>274</v>
       </c>
       <c r="Z97" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98">
@@ -6325,201 +6956,206 @@
         <v>275</v>
       </c>
       <c r="Z98" t="s">
-        <v>492</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>624</v>
+        <v>492</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>493</v>
+        <v>625</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>202</v>
+        <v>493</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>558</v>
+        <v>206</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>618</v>
+        <v>558</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>565</v>
+        <v>618</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>147</v>
+        <v>565</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>566</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>382</v>
+        <v>566</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>148</v>
+        <v>382</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>500</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>161</v>
+        <v>500</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>609</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>162</v>
+        <v>609</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="Z138" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
+++ b/src/test/resources/showcase/artifact/script/expression-showcase.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3585" uniqueCount="627">
   <si>
     <t>description</t>
   </si>
@@ -2032,7 +2032,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="75" x14ac:knownFonts="1">
+  <fonts count="91" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2514,8 +2514,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3146,8 +3247,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="131">
+  <borders count="163">
     <border>
       <left/>
       <right/>
@@ -4489,6 +4743,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4496,7 +5076,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="118">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4774,52 +5354,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="87" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="90" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="93" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="118" fillId="96" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="102" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="93" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="72" numFmtId="0" xfId="0">
       <alignment